--- a/backend/copysheet.xlsx
+++ b/backend/copysheet.xlsx
@@ -25,6 +25,30 @@
     <author/>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>changed wording
+	-Amanda Voeller</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>is this the PUF?
+	-Amanda Voeller</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B9" authorId="0">
       <text>
         <r>
@@ -37,12 +61,216 @@
         </r>
       </text>
     </comment>
+    <comment ref="B40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>same as HB 458
+	-Amanda Voeller</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A89" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>this one is just for SFA; fixed passive voice
+	-Amanda Voeller</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B104" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>go over again
+	-Amanda Voeller</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B108" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>same as SB 177
+	-Amanda Voeller</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B110" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>20?
+	-Amanda Voeller</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B115" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>ask copy about hyphens
+	-Amanda Voeller</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B128" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>collected by?
+	-Amanda Voeller</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B129" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>go over with Elly
+	-Amanda Voeller</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B134" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>this is correct?
+	-Amanda Voeller</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B135" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>"in which"?
+	-Amanda Voeller</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B138" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>changed to "certain" rather than "franchise"
+	-Amanda Voeller</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B139" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>"to fund" rather than "to do construction on"
+	-Amanda Voeller</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B141" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>the company will give (second sentence)
+	-Amanda Voeller</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B147" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>let's explain what formula funding is
+	-Amanda Voeller</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B150" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>let's reword this one
+	-Amanda Voeller</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B151" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>change second would to could because it isn't required. is it?
+	-Amanda Voeller</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B154" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>specific rather than franchise
+	-Amanda Voeller</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="494">
   <si>
     <t>key</t>
   </si>
@@ -50,6 +278,12 @@
     <t>Bill Summary</t>
   </si>
   <si>
+    <t>TXB00037131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If passed, UT-Dallas would receive no more than $194 million in additional revenue bonds to build an engineering building and a science building for the institution.  </t>
+  </si>
+  <si>
     <t>Higher Education</t>
   </si>
   <si>
@@ -59,9 +293,6 @@
     <t>TXL000511</t>
   </si>
   <si>
-    <t>TXB00037131</t>
-  </si>
-  <si>
     <t>TXL000503</t>
   </si>
   <si>
@@ -131,9 +362,6 @@
     <t>TXL000203</t>
   </si>
   <si>
-    <t xml:space="preserve">If passed, UT-Dallas would receive no more than $194 million in additional revenue bonds to build an engineering building and a science building for the institution.  </t>
-  </si>
-  <si>
     <t>TXL000414</t>
   </si>
   <si>
@@ -143,12 +371,18 @@
     <t>TXL000364</t>
   </si>
   <si>
+    <t>TXB00037132</t>
+  </si>
+  <si>
     <t>TXL000349</t>
   </si>
   <si>
     <t>TXL000405</t>
   </si>
   <si>
+    <t>If passed, public higher education institutions would be required to include a course's average or median grade, depending on the course's grading system, next to students' grades on their transcripts. An exemption would be made for courses taken pass-fail and for courses with 10 or fewer students.</t>
+  </si>
+  <si>
     <t>TXL000195</t>
   </si>
   <si>
@@ -161,12 +395,18 @@
     <t>TXL000507</t>
   </si>
   <si>
+    <t>TXB00037133</t>
+  </si>
+  <si>
     <t>TXL000500</t>
   </si>
   <si>
     <t>TXL000499</t>
   </si>
   <si>
+    <t xml:space="preserve">If passed, higher education institutions would have to include veteran or military dependent information and benefits in enrollment data.  </t>
+  </si>
+  <si>
     <t>TXL000509</t>
   </si>
   <si>
@@ -179,12 +419,18 @@
     <t>TXL000269</t>
   </si>
   <si>
+    <t>TXB00037134</t>
+  </si>
+  <si>
     <t>TXL000475</t>
   </si>
   <si>
     <t>TXL000445</t>
   </si>
   <si>
+    <t>If passed, Texas public education grants could be funded from appropriated legislative funds. State institutions would not be required to set aside student tuition for financial aid. Also, Texas residents would receive priority over non-resident students for grants funded by Texas license plates.</t>
+  </si>
+  <si>
     <t>TXL000462</t>
   </si>
   <si>
@@ -203,9 +449,6 @@
     <t>TXL000408</t>
   </si>
   <si>
-    <t>TXB00037132</t>
-  </si>
-  <si>
     <t>TXL000498</t>
   </si>
   <si>
@@ -215,9 +458,6 @@
     <t>TXL000510</t>
   </si>
   <si>
-    <t>If passed, public higher education institutions would be required to include a course's average or median grade, depending on the course's grading system, next to students' grades on their transcripts. An exemption would be made for courses taken pass-fail and for courses with 10 or fewer students.</t>
-  </si>
-  <si>
     <t>TXL000506</t>
   </si>
   <si>
@@ -227,12 +467,6 @@
     <t>TXL000481</t>
   </si>
   <si>
-    <t>TXB00037133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If passed, higher education institutions would have to include veteran or military dependent information and benefits in enrollment data.  </t>
-  </si>
-  <si>
     <t>TXL000494</t>
   </si>
   <si>
@@ -242,18 +476,12 @@
     <t>TXL000430</t>
   </si>
   <si>
-    <t>TXB00037134</t>
-  </si>
-  <si>
     <t>TXL000449</t>
   </si>
   <si>
     <t>TXL000407</t>
   </si>
   <si>
-    <t>If passed, Texas public education grants could be funded from appropriated legislative funds. State institutions would not be required to set aside student tuition for financial aid. Also, Texas residents would receive priority over non-resident students for grants funded by Texas license plates.</t>
-  </si>
-  <si>
     <t>TXL000289</t>
   </si>
   <si>
@@ -272,12 +500,18 @@
     <t>TXL000285</t>
   </si>
   <si>
+    <t>TXB00037135</t>
+  </si>
+  <si>
     <t>TXL000221</t>
   </si>
   <si>
     <t>TXL000355</t>
   </si>
   <si>
+    <t xml:space="preserve"> If passed, by April of each school year, schools would be required to administer an "assessment instrument" to 10th grade students as a diagnostic test and to determine if the student should  be enrolled in developmental courses. </t>
+  </si>
+  <si>
     <t>TXL000431</t>
   </si>
   <si>
@@ -317,6 +551,9 @@
     <t>TXL000236</t>
   </si>
   <si>
+    <t>TXB00037136</t>
+  </si>
+  <si>
     <t>TXL000412</t>
   </si>
   <si>
@@ -329,18 +566,12 @@
     <t>TXL000457</t>
   </si>
   <si>
-    <t>TXB00037135</t>
-  </si>
-  <si>
     <t>TXL000354</t>
   </si>
   <si>
     <t>TXL000470</t>
   </si>
   <si>
-    <t xml:space="preserve"> If passed, by April of each school year, schools would be required to administer an "assessment instrument" to 10th grade students as a diagnostic test and to determine if the student should  be enrolled in developmental courses. </t>
-  </si>
-  <si>
     <t>TXL000249</t>
   </si>
   <si>
@@ -359,6 +590,9 @@
     <t>TXL000428</t>
   </si>
   <si>
+    <t>If passed, nursing students at public, private and independent higher education institutions would continue to receive grants from the permanent education fund for nursing programs. The funding, if not renewed again at a later date, would go until Aug. 31, 2019.</t>
+  </si>
+  <si>
     <t>TXL000404</t>
   </si>
   <si>
@@ -377,18 +611,12 @@
     <t>TXL000497</t>
   </si>
   <si>
-    <t>TXB00037136</t>
-  </si>
-  <si>
     <t>TXL000484</t>
   </si>
   <si>
     <t>TXL000490</t>
   </si>
   <si>
-    <t>If passed, nursing students at public, private and independent higher education institutions would continue to receive grants from the permanent education fund for nursing programs. The funding, if not renewed again at a later date, would go until Aug. 31, 2019.</t>
-  </si>
-  <si>
     <t>TXL000483</t>
   </si>
   <si>
@@ -401,48 +629,48 @@
     <t>TXL000480</t>
   </si>
   <si>
+    <t>TXL000491</t>
+  </si>
+  <si>
+    <t>TXL000508</t>
+  </si>
+  <si>
+    <t>TXL000502</t>
+  </si>
+  <si>
+    <t>TXL000495</t>
+  </si>
+  <si>
+    <t>TXL000464</t>
+  </si>
+  <si>
     <t>TXB00037137</t>
   </si>
   <si>
-    <t>TXL000491</t>
+    <t>TXL000504</t>
   </si>
   <si>
     <t>If passed, Texas State Technical College would be able to establish a branch of its system in Red Oak, Texas.</t>
   </si>
   <si>
-    <t>TXL000508</t>
-  </si>
-  <si>
-    <t>TXL000502</t>
-  </si>
-  <si>
-    <t>TXL000495</t>
-  </si>
-  <si>
-    <t>TXL000464</t>
+    <t>TXL000465</t>
+  </si>
+  <si>
+    <t>TXL000505</t>
+  </si>
+  <si>
+    <t>TXL000426</t>
   </si>
   <si>
     <t>TXB00037138</t>
   </si>
   <si>
-    <t>TXL000504</t>
-  </si>
-  <si>
-    <t>TXL000465</t>
+    <t>TXL000216</t>
   </si>
   <si>
     <t>If passed, state branches of government and higher education institutions would not be allowed to enter into agreement with an organization working to implement or accept money to implement the United Nation’s Agenda 21 policy regarding sustainable development.</t>
   </si>
   <si>
-    <t>TXL000505</t>
-  </si>
-  <si>
-    <t>TXL000426</t>
-  </si>
-  <si>
-    <t>TXL000216</t>
-  </si>
-  <si>
     <t>TXL000379</t>
   </si>
   <si>
@@ -560,156 +788,156 @@
     <t>TXL000283</t>
   </si>
   <si>
+    <t>TXL000223</t>
+  </si>
+  <si>
+    <t>TXL000363</t>
+  </si>
+  <si>
+    <t>TXL000358</t>
+  </si>
+  <si>
+    <t>TXL000308</t>
+  </si>
+  <si>
+    <t>TXL000260</t>
+  </si>
+  <si>
+    <t>TXL000294</t>
+  </si>
+  <si>
     <t>TXB00037139</t>
   </si>
   <si>
-    <t>TXL000223</t>
-  </si>
-  <si>
-    <t>TXL000363</t>
+    <t>TXL000215</t>
   </si>
   <si>
     <t xml:space="preserve">If passed, the state would regulate tuition to prevent tuition increase by more than a specified percentile amount each year. The bill would undo 2003's deregulation of tuition. </t>
   </si>
   <si>
-    <t>TXL000358</t>
-  </si>
-  <si>
-    <t>TXL000308</t>
+    <t>TXL000318</t>
+  </si>
+  <si>
+    <t>TXL000239</t>
+  </si>
+  <si>
+    <t>TXL000411</t>
   </si>
   <si>
     <t>TXB00037140</t>
   </si>
   <si>
-    <t>TXL000260</t>
+    <t>TXL000324</t>
   </si>
   <si>
     <t>If passed, private college and university police departments would be recognized as a governmental body when looking at state public information laws, requiring these departments to release public information and remain transparent.</t>
   </si>
   <si>
-    <t>TXL000294</t>
-  </si>
-  <si>
-    <t>TXL000215</t>
-  </si>
-  <si>
-    <t>TXL000318</t>
+    <t>TXL000296</t>
+  </si>
+  <si>
+    <t>TXL000329</t>
+  </si>
+  <si>
+    <t>TXL000299</t>
   </si>
   <si>
     <t>TXB00037141</t>
   </si>
   <si>
+    <t>TXL000344</t>
+  </si>
+  <si>
+    <t>TXL000217</t>
+  </si>
+  <si>
     <t>If passed, Texas universities would not be allowed to issue revenue bonds, which are generally used to build new facilities, unless the universities meet requirements for building space utilization and online class enrollment.</t>
   </si>
   <si>
+    <t>TXL000307</t>
+  </si>
+  <si>
+    <t>TXL000242</t>
+  </si>
+  <si>
+    <t>TXL000315</t>
+  </si>
+  <si>
     <t>TXB00037142</t>
   </si>
   <si>
+    <t>TXL000214</t>
+  </si>
+  <si>
     <t>If passed, Department of Family and Protective Services employees who have been working with the department for at least one year could receive up to $2,500 per year for four years to help repay student loans.</t>
   </si>
   <si>
+    <t>TXL000309</t>
+  </si>
+  <si>
+    <t>TXL000310</t>
+  </si>
+  <si>
     <t>TXB00037143</t>
   </si>
   <si>
+    <t>TXL000352</t>
+  </si>
+  <si>
+    <t>TXL000334</t>
+  </si>
+  <si>
     <t>If passed, a Texas Technical Center for Innovative Desalination would be established at UT-El Paso. The center would partner with UT-San Antonio to desalinate water in the Gulf of Mexico, as well as certain groundwater. The center would also conduct research on desalination technology and methods.</t>
   </si>
   <si>
-    <t>TXL000239</t>
-  </si>
-  <si>
-    <t>TXL000411</t>
+    <t>TXL000244</t>
+  </si>
+  <si>
+    <t>TXL000395</t>
+  </si>
+  <si>
+    <t>TXL000245</t>
   </si>
   <si>
     <t>TXB00037144</t>
   </si>
   <si>
-    <t>TXL000324</t>
-  </si>
-  <si>
-    <t>If passed, a student in the state illegally would not be classifed as an in-state resident at a higher education institution and would not qualify for in-state tution.</t>
-  </si>
-  <si>
-    <t>TXL000296</t>
-  </si>
-  <si>
-    <t>TXL000329</t>
-  </si>
-  <si>
-    <t>TXL000299</t>
+    <t>TXL000219</t>
+  </si>
+  <si>
+    <t>If passed, an undocumented student would not be classifed as an in-state resident at a higher education institution, unless that student has completed 30 credit hours by the start of the 2015-2016 school year. Also, the student would not qualify for in-state tuition.</t>
   </si>
   <si>
     <t>TXB00037145</t>
   </si>
   <si>
-    <t>TXL000344</t>
-  </si>
-  <si>
     <t>If passed, the bill would establish guidelines on how to interact with work contract bidders. This includes preventing higher education institutions from prohibiting, requiring, discouraging or encouraging a bidder from entering into a contract.</t>
   </si>
   <si>
-    <t>TXL000217</t>
-  </si>
-  <si>
-    <t>TXL000307</t>
-  </si>
-  <si>
     <t>TXB00037146</t>
   </si>
   <si>
     <t>If passed, Lamar State College-Orange would receive up to $12.5 million in revenue bonds to work on construction for a multipurpose education building for its campus.</t>
   </si>
   <si>
-    <t>TXL000242</t>
-  </si>
-  <si>
-    <t>TXL000315</t>
-  </si>
-  <si>
     <t>TXB00036118</t>
   </si>
   <si>
-    <t>TXL000214</t>
-  </si>
-  <si>
     <t xml:space="preserve">If passed, the bill would create the University of Texas Rio Grande Valley. </t>
   </si>
   <si>
-    <t>TXL000309</t>
-  </si>
-  <si>
     <t>TXB00036268</t>
   </si>
   <si>
-    <t>TXL000310</t>
-  </si>
-  <si>
     <t xml:space="preserve">If passed, the UT System would receive up to $94.5 million in revenue bonds to do construction on a business administration complex at UT-El Paso. </t>
   </si>
   <si>
-    <t>TXL000352</t>
-  </si>
-  <si>
-    <t>TXL000334</t>
-  </si>
-  <si>
     <t>TXB00036758</t>
   </si>
   <si>
-    <t>TXL000244</t>
-  </si>
-  <si>
-    <t>TXL000395</t>
-  </si>
-  <si>
-    <t>TXL000245</t>
-  </si>
-  <si>
     <t>TXB00036760</t>
   </si>
   <si>
-    <t>TXL000219</t>
-  </si>
-  <si>
     <t>If passed, massage therapy instruction schools that offer massage therapy licenses to their graduates would be classified as postsecondary education programs.</t>
   </si>
   <si>
@@ -800,21 +1028,18 @@
     <t>TXB00036059</t>
   </si>
   <si>
-    <t>If passed, the requirements for the first day of school’s start date to begin after the fourth Monday in August are removed and tax free weekend in set for the third Friday in August.</t>
+    <t>If passed, school districts would no longer be required to begin classes after the fourth Monday in August. Also, tax-free weekend would be set to begin on the third Friday in August.</t>
   </si>
   <si>
     <t>TXB00036502</t>
   </si>
   <si>
-    <t>If passed, in order to receive military benefits for veterans and families to assist with tuition costs, the service member potentially receiving benefits must have been registered in Texas when they entered the service.</t>
+    <t>If passed, tuition exemption for veterans and their families would be limited to those who declared Texas as their home state when the person entered service.</t>
   </si>
   <si>
     <t>TXB00036682</t>
   </si>
   <si>
-    <t>If passed, tuition exemption for veterans and their families would be limited to those who declared Texas as their home state when the person entered service.</t>
-  </si>
-  <si>
     <t>TXB00035914</t>
   </si>
   <si>
@@ -842,13 +1067,13 @@
     <t>TXB00036661</t>
   </si>
   <si>
-    <t>If passed, the Texas Higher Education Coordinating Board would conduct a study looking at high school math scores of students from low-income areas who took certain regular math courses versus their AP counterpart.  The board would monitor the students' college performance, such as acceptance and retention rates.</t>
+    <t>If passed, the Texas Higher Education Coordinating Board would study high school math scores of students from low-income areas who took certain regular math courses rather than advanced versions of those courses.  The board would monitor the students' college performances, such as acceptance and retention rates.</t>
   </si>
   <si>
     <t>TXB00036670</t>
   </si>
   <si>
-    <t>If passed, individual institutions can determine the size of the Be-on-time loan allocations. The amount may not exceed a state determined cap.</t>
+    <t>If passed, individual institutions can determine the size of the B-On-Time loan allocations. The amount may not exceed a state-determined cap.</t>
   </si>
   <si>
     <t>TXB00035693</t>
@@ -986,7 +1211,7 @@
     <t>TXB00035901</t>
   </si>
   <si>
-    <t>If passed, a task force will create a committee to advise and make recommendations about “postsecondary education opportunities” for students with disabilities. The board would be composed of up to 11 members including individuals with disabilities, one of their family members and various state officials</t>
+    <t>If passed, a task force will create a committee to advise and make recommendations about “postsecondary education opportunities” for students with disabilities. The board would be composed of up to 11 members, including a person with a disability and a member of that person's family, as well as various state officials.</t>
   </si>
   <si>
     <t>TXB00036411</t>
@@ -1004,7 +1229,7 @@
     <t>TXB00036280</t>
   </si>
   <si>
-    <t>If passed, security guards may carry firearms and clubs while on duty, if the actor in in uniform and the weapon is in plain view.</t>
+    <t>If passed, security guards may carry firearms and clubs while on duty, as long as the guard in uniform and the weapon is in plain view.</t>
   </si>
   <si>
     <t>TXB00036290</t>
@@ -1040,7 +1265,7 @@
     <t>TXB00036176</t>
   </si>
   <si>
-    <t>If passed, a report regarding the College Credit for Heros would be released. The report would include information about the best measures for veteran and service members' academics.</t>
+    <t>If passed, a report regarding the College Credit for Heroes would be released. The report would include information about the best measures for veteran and service members' academics.</t>
   </si>
   <si>
     <t>TXB00036170</t>
@@ -1055,13 +1280,13 @@
     <t>TXB00036194</t>
   </si>
   <si>
-    <t>If passed, the Texas State University System would receive no more than $12.5 million in additional revenue bonds for construction on a multipurpose education building at Lamar State College—Orange.</t>
+    <t>If passed, the Texas State University System would receive no more than $12.5 million in additional revenue bonds for construction on a multipurpose education building at Lamar State College-Orange.</t>
   </si>
   <si>
     <t>TXB00036204</t>
   </si>
   <si>
-    <t>If passed, the University of Houston System would receive no more than $91,350,000 in additional revenue bonds for construction on a an academic building in Sugarland, Texas.</t>
+    <t>If passed, the University of Houston System would receive no more than $91.35 million in additional revenue bonds for construction on an academic building in Sugarland, Texas.</t>
   </si>
   <si>
     <t>TXB00036159</t>
@@ -1079,7 +1304,7 @@
     <t>TXB00036132</t>
   </si>
   <si>
-    <t>If passed, a pilot program for Serve Your Way Through College would be created. The program would allow 7th-12th grade students to receive “tuition units” purchased by The Texas Higher Education Coordinating Board that could later be applied towards that student’s college tuition costs.</t>
+    <t>If passed, a pilot program for Serve Your Way to College would be created. The program would grant 7th through 12th grade students prepaid college tuition if they complete specific community service hours.</t>
   </si>
   <si>
     <t>TXB00036127</t>
@@ -1091,13 +1316,13 @@
     <t>TXB00036067</t>
   </si>
   <si>
-    <t xml:space="preserve">If passed, campuses must establish a sexual assault policy that includes definitions of prohibited behavior, penalties and reporting methods. The policy must be reviewed every two years and published online and in the school handbook. </t>
+    <t>If passed, each Texas higher education institution must establish a sexual assault policy that includes definitions of prohibited behavior, penalties and reporting methods. The policy must be reviewed every two years and published online and in the school handbook.</t>
   </si>
   <si>
     <t>TXB00036048</t>
   </si>
   <si>
-    <t>If passed, student athletes will be charged up to $10 per credit hour to pay for construction and maintenance of athletic facilities and athletic operations. The fee must voted on and approved by the student body.</t>
+    <t>If passed, Stephen F. Austin State University can charge student athletes up to $10 per credit hour to pay for construction and maintenance of athletic facilities and athletic operations. The student body must vote on and approve the fee.</t>
   </si>
   <si>
     <t>TXB00035996</t>
@@ -1115,13 +1340,13 @@
     <t>TXB00035937</t>
   </si>
   <si>
-    <t>If passed, the University of Texas University System would receive no more than $45 million in additional revenue bonds for construction on an engineering building at The University of Texas of the Permain Basin.</t>
+    <t>If passed, the UT System would receive no more than $45 million in additional revenue bonds for construction on an engineering building at UT-Permian Basin.</t>
   </si>
   <si>
     <t>TXB00035939</t>
   </si>
   <si>
-    <t>If passed, the Texas Tech University System would receive no more than $17,820,000 in additional revenue bonds for construction on a medical education building for the Texas Tech Health Sciences Center</t>
+    <t>If passed, the Texas Tech University System would receive no more than $17.82 million in additional revenue bonds for construction on a medical education building for the Texas Tech University Health Sciences Center.</t>
   </si>
   <si>
     <t>TXB00035599</t>
@@ -1133,7 +1358,7 @@
     <t>TXB00035850</t>
   </si>
   <si>
-    <t>If passed, the Texas Higher Education Coordinating Board must approve any energy saving performance contracts at institutions of higher education before implementation</t>
+    <t>If passed, the state must approve any Energy Savings Performance Contracts at higher education institutions before implementation.</t>
   </si>
   <si>
     <t>TXB00035480</t>
@@ -1148,19 +1373,19 @@
     <t>TXB00035124</t>
   </si>
   <si>
-    <t>If passed, some property used to “develop and commercialize technologies” by private and public institutions of higher education is eligible for ad valorem tax exemptions.</t>
+    <t>If passed, some personal property that private and public higher education institutions own and use to “develop and commercialize technologies” is eligible for certain tax exemptions.</t>
   </si>
   <si>
     <t>TXB00035494</t>
   </si>
   <si>
-    <t xml:space="preserve">If passed, a student in the state illgeally would not be classifed as a resident at an institute of higher education. It also alters qualifications for residency as a whole. </t>
+    <t>If passed, this bill would repeal Texas' implementation of the DREAM Act. This means an undocumented student could not pay in-state tuition at a higher education institution. The bill also alters qualifications for residency as a whole.</t>
   </si>
   <si>
     <t>TXB00035427</t>
   </si>
   <si>
-    <t xml:space="preserve">If passed, it would be legal for higher education institute students and employees to grow hemp for research purposes.  </t>
+    <t>If passed, higher education institutions' students and employees could legally grow hemp for research purposes.</t>
   </si>
   <si>
     <t>TXB00035552</t>
@@ -1172,7 +1397,7 @@
     <t>TXB00035308</t>
   </si>
   <si>
-    <t>If passed, up to ten percent of the revenue from criminal asset forfeiture would be set aside for scholarship offered to the children of peace officers killed while on duty. The scholarships would be valid at public and private colleges and  could be used for tuition, housing, books and transportation, among other expenses.</t>
+    <t>If passed, up to 10 percent of the revenue from the assets that criminals forfeit would be set aside for scholarships offered to the children of peace officers killed while on duty. The scholarships would be valid at public and private colleges and could be used for expenses including tuition, housing, books and transportation.</t>
   </si>
   <si>
     <t>TXB00035033</t>
@@ -1184,15 +1409,12 @@
     <t>TXB00035298</t>
   </si>
   <si>
-    <t>If passed, public junior colleges and technical institutes would be eligible for the T-STEM Challenge Scholarship program if at least 50 students are admitted into STEM programs every year. A four-year university or college would qualify if students previously enrolled In the program at a junior college complete at least 45 hours at the college and then transfer to a four year institution.</t>
+    <t>If passed, a public junior college or technical institution could participate in the T-STEM Challenge Scholarship program, as long as the school admits at least 50 students into STEM programs every year. This program would give participating schools grants for scholarships. A four-year institution would qualify if a student previously participated in the program and completed at least 45 hours at the school before transferring to the four-year institution.</t>
   </si>
   <si>
     <t>TXB00035902</t>
   </si>
   <si>
-    <t>If passed, permanent-fund money can continue to be used to fund grants for nursing programs, as well as recruitment, retention and education initiatives.</t>
-  </si>
-  <si>
     <t>TXB00035540</t>
   </si>
   <si>
@@ -1217,7 +1439,7 @@
     <t>TXB00035262</t>
   </si>
   <si>
-    <t xml:space="preserve">If passed, 20 Texas regions would develop a veteran resources center to assist veterans while applying to and attending an institution of higher education with their academic endeavors, including the use of government programs. </t>
+    <t>If passed, 20 Texas regions would develop veteran resources centers at higher education institutions. These centers would assist student veterans with their academic endeavors, including the use of government programs.</t>
   </si>
   <si>
     <t>TXB00035265</t>
@@ -1229,7 +1451,7 @@
     <t>TXB00035614</t>
   </si>
   <si>
-    <t xml:space="preserve">If passed, a student who is in the state illgeally would not be classifed as a resident at an institute of higher education. It also alters qualifications for residency as a whole. </t>
+    <t>If passed, people seeking in-state tuition at higher education institutions would have to show proof of lawful residency. If a student is undocumented, the student would not qualify for in-state tuition.</t>
   </si>
   <si>
     <t>TXB00035237</t>
@@ -1241,13 +1463,13 @@
     <t>TXB00035354</t>
   </si>
   <si>
-    <t>If passed, state universities would create a webpage dedicated to providing information about junior college course commonly used for transfer credit. The site would include at least 12 frequently transferred courses, the most common public junior colleges from which the institution receives transfer and at least five degree plans that commonly have credit transferred to them.</t>
+    <t>If passed, state universities' websites would publish information about junior college course commonly used for transfer credit. The site would include at least 12 frequently transferred courses, the most common public junior colleges from which the institution receives transfer students and at least five degree plans that commonly have credits transferred to them.</t>
   </si>
   <si>
     <t>TXB00035783</t>
   </si>
   <si>
-    <t xml:space="preserve">If passed, institutes of higher education would develop course equivalency tests for credit in freshman and sophomore level courses. The institution would be required to develop at least one test per academic year. </t>
+    <t>If passed, higher education institutions would develop course equivalency tests for credit in freshman- and sophomore-level courses. The institution would be required to develop at least one test per academic year.</t>
   </si>
   <si>
     <t>TXB00035760</t>
@@ -1259,9 +1481,6 @@
     <t>TXB00035090</t>
   </si>
   <si>
-    <t xml:space="preserve">If passed, a student in the state illegally would not be classifed as a resident at an institution of higher education. It also alters qualifications for residency as a whole. </t>
-  </si>
-  <si>
     <t>TXB00035096</t>
   </si>
   <si>
@@ -1283,7 +1502,7 @@
     <t>TXB00035303</t>
   </si>
   <si>
-    <t xml:space="preserve">f passed, tuition would be regulated by the state to prevent tuition increase by more than a percentile amount each year. The bill would undo 2003's deregulation of tuition. </t>
+    <t xml:space="preserve">If passed, tuition would be regulated by the state to prevent tuition increase by more than a percentile amount each year. The bill would undo 2003's deregulation of tuition. </t>
   </si>
   <si>
     <t>TXB00035352</t>
@@ -1313,13 +1532,13 @@
     <t>TXB00035475</t>
   </si>
   <si>
-    <t xml:space="preserve">If passed, institutions of higher education must create a website listing mental heath information and resources, including the location of the nearest “local mental health authority.” </t>
+    <t xml:space="preserve">If passed, higher education institutions must create a website listing mental heath information and resources, including the location of the nearest “local mental health authority.” </t>
   </si>
   <si>
     <t>TXB00037256</t>
   </si>
   <si>
-    <t>If passed, certain speech-language pathologist and audiologist education loans may be funded by legislative appropriations and remaining funds collected State Board of Examiners for Speech-Language Pathology and Audiology.</t>
+    <t>If passed, certain speech-language pathologist and audiologist education loans may be funded by legislative appropriations and remaining funds collected by the State Board of Examiners for Speech-Language Pathology and Audiology.</t>
   </si>
   <si>
     <t>TXB00037206</t>
@@ -1331,61 +1550,55 @@
     <t>TXB00037185</t>
   </si>
   <si>
-    <t>If passed, mental health professionals working as a licensed physician, licensed psychologist, licensed counselor or advanced practice nurse, among other professions, will be assisted in repaying their student loans. The amount of repayment assistant increases as years worked increases.</t>
-  </si>
-  <si>
     <t>TXB00037319</t>
   </si>
   <si>
-    <t>If passed, the Texas A&amp;M University System would receive no more than $130 million in additional revenue bonds for Tarleton State University to do construction on an applied sciences building and a Southwest Metroplex medical building in Tarrant County.</t>
+    <t>If passed, the Texas A&amp;M University System would receive no more than $130 million in additional revenue bonds for Tarleton State University to fund an applied sciences building and a Southwest Metroplex medical building in Tarrant County.</t>
   </si>
   <si>
     <t>TXB00037346</t>
   </si>
   <si>
-    <t xml:space="preserve">If passed, student regents applicants must apply through their univeristy's student government for the position before being considered by the governor for appointment. </t>
+    <t>If passed, student regent applicants must apply through the university's student government for the position before the governor can consider the applicant for appointment.</t>
   </si>
   <si>
     <t>TXB00037321</t>
   </si>
   <si>
-    <t>If passed, for a institute of higher education to remain eligible to offer the TSTEM Challenge Scholarship Program, the 70 percent of the school’s graduating class must have graduated with an associates degree in a STEM field and be employed in the state.</t>
+    <t>If passed, at least 70 percent of a higher education institution’s graduating class must have graduated with an associate's degree in a STEM field and be employed in the state in order for the school to remain eligible for the T-STEM Challenge Scholarship Program.</t>
   </si>
   <si>
     <t>TXB00037356</t>
   </si>
   <si>
-    <t xml:space="preserve">If passed, public universities must post the Texas Consumer Resource for Education Workforce Statistics report on gainful employment—statistics on steady employment and pay for employees at the university—on the university website. </t>
+    <t>If passed, public universities' websites must include a link to the Texas Consumer Resource for Education and Workforce Statistics report on gainful employment, which contains statistics on steady employment and pay for employees at the university.</t>
   </si>
   <si>
     <t>TXB00037335</t>
   </si>
   <si>
-    <t>If passed, students under the legal drinking age could lawfully consume wine for certain courses  where wine tasting is necessary. The law would apply to public, private and career institutions of higher education.</t>
+    <t>If passed, students under the legal drinking age could lawfully drink wine for certain courses  in which wine tasting is necessary. The law would apply to public, private and career institutions of higher education.</t>
   </si>
   <si>
     <t>TXB00037481</t>
   </si>
   <si>
-    <t>If passed, remaining B-On-time loan finds, after the funds have been distributed to qualifying students, may be used to provide tuitions exemptions to veterans and their family members.</t>
+    <t>If passed, remaining B-On-Time loan funds, after the funds have been distributed to qualifying students, may be used to provide tuition exemptions to veterans and their family members.</t>
   </si>
   <si>
     <t>TXB00037627</t>
   </si>
   <si>
-    <t>If passed, every two years institutes of higher education will look to find and implement more degrees in applied sciences and nursing that can be offered in public junior colleges.</t>
-  </si>
-  <si>
     <t>TXB00037606</t>
   </si>
   <si>
-    <t>If passed, a taxable business or other entity may qualify for franchise tax credit in return for offering college internships.</t>
+    <t>If passed, a taxable business or other entity may qualify for certain tax credits in return for offering college internships.</t>
   </si>
   <si>
     <t>TXB00037639</t>
   </si>
   <si>
-    <t>If passed, the Texas A&amp;M University System would receive no more than about $41 million in additional revenue bonds for Tarleton State University to do construction on a fabrication center and capital improvements and an Innovation Commercialization Center for Entrepreneurs at Prairie View A&amp;M University.</t>
+    <t>If passed, the Texas A&amp;M University System would receive no more than about $41 million in additional revenue bonds for Tarleton State University to fund a fabrication center and capital improvements, as well as an Innovation Commercialization Center for Entrepreneurs at Prairie View A&amp;M University.</t>
   </si>
   <si>
     <t>TXB00037669</t>
@@ -1397,13 +1610,13 @@
     <t>TXB00037724</t>
   </si>
   <si>
-    <t>If passed, the Texas Treasury Safekeeping Trust Company will distribute funds to provide grants to teaching hospitals. The money would be given to the Critical Shortage Physician Grant Program to provide graduate medical residency training.</t>
+    <t>If passed, the Texas Treasury Safekeeping Trust Company will provide grants to teaching hospitals. The money would be given to the Critical Shortage Physician Grant Program to provide graduate medical residency training.</t>
   </si>
   <si>
     <t>TXB00037699</t>
   </si>
   <si>
-    <t>If passed, the Texas A&amp;M University System would receive no more than about $93 million in additional revenue bonds for construction on a science, technology engineering and mathematics classroom building at Texas A&amp;M University—Kingsville.</t>
+    <t>If passed, the Texas A&amp;M University System would receive no more than about $93 million in additional revenue bonds for construction on a science, technology, engineering and math classroom building at Texas A&amp;M University-Kingsville.</t>
   </si>
   <si>
     <t>TXB00037763</t>
@@ -1415,19 +1628,19 @@
     <t>TXB00037719</t>
   </si>
   <si>
-    <t>If passed, the Texas A&amp;M University System would receive no more than about $108 million in additional revenue bonds for construction on nursing and heath science building and a library and center for educational innovation and faculty development at Texas A&amp;M University—Commerce.</t>
+    <t>If passed, the Texas A&amp;M University System would receive no more than about $108 million in additional revenue bonds for construction on a nursing and heath sciences building, as well as a library and a "center for educational innovation and faculty development" at Texas A&amp;M University-Commerce.</t>
   </si>
   <si>
     <t>TXB00037707</t>
   </si>
   <si>
-    <t>If passed, the University of Houston System would receive no more than about $34,200,000 in additional revenue bonds for construction on a heath sciences and classroom building at the University of Houston—Clear Lake.</t>
+    <t>If passed, the University of Houston System would receive no more than about $34.2 million in additional revenue bonds to fund a health sciences and classroom building at the University of Houston-Clear Lake.</t>
   </si>
   <si>
     <t>TXB00037786</t>
   </si>
   <si>
-    <t>If passed, the state will allocate funds to provide grants to teaching hospitals. The money would be given to the Critical Shortage Physician Grant Program to provide graduate medical residency training.</t>
+    <t>If passed, the state will allocate funds to provide grants to teaching hospitals. The state would give this money to the Critical Shortage Physician Grant Program to provide graduate medical residency training.</t>
   </si>
   <si>
     <t>TXB00037927</t>
@@ -1439,91 +1652,91 @@
     <t>TXB00037868</t>
   </si>
   <si>
-    <t>If passed, the University of Houston System would receive no more than about $108,700,000 in additional revenue bonds for construction on a science and technology building at the University of Houston—Downtown.</t>
+    <t>If passed, the University of Houston System would receive no more than about $108.7 million in additional revenue bonds to fund a science and technology building at the University of Houston-Downtown.</t>
   </si>
   <si>
     <t>TXB00037901</t>
   </si>
   <si>
+    <t>If passed, Texas Women’s University would be able to charge between $25 and $75 per student to assist in maintaining and financing student centers. The student body would have to vote on and approve the fee.</t>
+  </si>
+  <si>
+    <t>TXB00037974</t>
+  </si>
+  <si>
+    <t>If passed, money recovered by the plaintiff in a suit over property, in which a minor with no legal guardian is represented by an appointed representative, may be used to establish a higher education saving plan for the minor.</t>
+  </si>
+  <si>
+    <t>TXB00038073</t>
+  </si>
+  <si>
+    <t>If passed, public junior colleges would offer block schedule options for degree and certificate plans to expedite graduation rates. Instead of enrolling in individual courses, students would enroll in a block of courses set for certain days. The bill says this would create “predictability from semester to semester.”</t>
+  </si>
+  <si>
+    <t>TXB00038056</t>
+  </si>
+  <si>
+    <t>If passed, a student who completes a college preparatory course would be exempt from the Texas Success Initiative assessment for a three-year period after the student graduates high school.</t>
+  </si>
+  <si>
+    <t>TXB00038047</t>
+  </si>
+  <si>
+    <t>If passed, higher education institutions would give students individualized score reports listing missed questions on the Texas Success Initiative assessment.</t>
+  </si>
+  <si>
+    <t>TXB00038174</t>
+  </si>
+  <si>
+    <t>If passed, a taxable entity that assists an employee in paying for college tuition or that is located in a Neighborhood Empowerment Zone, an incentive-based affordable housing neighborhood in Fort Worth, would be eligible for specific tax credits.</t>
+  </si>
+  <si>
+    <t>TXB00038214</t>
+  </si>
+  <si>
+    <t>If passed, higher education institutions would be required to request disciplinary records for transfer students applying to the institution.</t>
+  </si>
+  <si>
+    <t>TXB00038095</t>
+  </si>
+  <si>
+    <t>If passed, the University of Texas System would receive no more than $67.8 million in additional revenue bonds to fund an interprofessional heath education center at the University of Texas Medical Branch at Galveston.</t>
+  </si>
+  <si>
+    <t>TXB00038313</t>
+  </si>
+  <si>
+    <t>If passed, those participating in the Texas Emergency Services Retirement System, or another qualifying firefighter retirement system, are no longer eligible for tuition exemption at an institute of higher education.</t>
+  </si>
+  <si>
+    <t>TXB00038315</t>
+  </si>
+  <si>
+    <t>If passed, the University of Texas Rio Grande Valley would have create a Innovative Workforce Training Center to provide training in welding, construction and electrical, heating, ventilation and air-conditioning system installment.</t>
+  </si>
+  <si>
+    <t>TXB00038316</t>
+  </si>
+  <si>
+    <t>If passed, public institutions of higher education would submit a report recounting crime information on campus such as the number of students convicted o campus and crimes that occurred on campus. The institution would also create a annual crime survey for students.</t>
+  </si>
+  <si>
+    <t>TXB00038232</t>
+  </si>
+  <si>
+    <t>If passed, the Texas A&amp;M University System would receive no more than $40 million in additional revenue bonds for construction on an academic and student services building at Texas A&amp;M—Texarkana.</t>
+  </si>
+  <si>
+    <t>TXB00037275</t>
+  </si>
+  <si>
+    <t>TXB00037743</t>
+  </si>
+  <si>
+    <t>TXB00037808</t>
+  </si>
+  <si>
     <t>If passed, Texas Women’s University may charge a $25 to $75 fee, per student, to assist in the maintenance and financing of student centers. The fee must be approved by a student vote.</t>
-  </si>
-  <si>
-    <t>TXB00037974</t>
-  </si>
-  <si>
-    <t>If passed, money recovered by the plaintiff in suit over property, in which a minor with no legal guardian is represented by an appointed representative, may be used to establish a higher education saving plan for the minor.</t>
-  </si>
-  <si>
-    <t>TXB00038073</t>
-  </si>
-  <si>
-    <t>If passed, public junior colleges would offer block schedule options for degree and certificate plans to expedite graduation rates. Instead of enrolling in individual courses, students would enroll in a block of courses set for certain days. The bill says this would create “predictability from semester to semester.”</t>
-  </si>
-  <si>
-    <t>TXB00038056</t>
-  </si>
-  <si>
-    <t>If passed, students who complete a college preparatory course are exempt from the Texas Success Initiative assessment for a three-year period after the student’s high school graduation.</t>
-  </si>
-  <si>
-    <t>TXB00038047</t>
-  </si>
-  <si>
-    <t>If passed, students at an institute of higher education would receive a score report listing missed questions on Texas Success Initiative assessment.</t>
-  </si>
-  <si>
-    <t>TXB00038174</t>
-  </si>
-  <si>
-    <t>If passed, a taxable entity that assists an employee in paying for college tuition or that is located in a Neighborhood Empowerment Zone, an incentive based affordable housing neighborhood in Fort Worth, would be eligible for franchise tax credit.</t>
-  </si>
-  <si>
-    <t>TXB00038214</t>
-  </si>
-  <si>
-    <t>If passed, institutes of higher education would be required to request disciplinary records for transfer students applying to the institution.</t>
-  </si>
-  <si>
-    <t>TXB00038095</t>
-  </si>
-  <si>
-    <t>If passed, the University of Texas System would receive no more than $67.8 million in additional revenue bonds for construction on an interprofessional heath education center at the University of Texas Medical Branch at Galveston.</t>
-  </si>
-  <si>
-    <t>TXB00038313</t>
-  </si>
-  <si>
-    <t>If passed, those participating in the Texas Emergency Services Retirement System, or another qualifying firefighter retirement system, are no longer eligible for tuition exemption at an institute of higher education.</t>
-  </si>
-  <si>
-    <t>TXB00038315</t>
-  </si>
-  <si>
-    <t>If passed, the University of Texas Rio Grande Valley would have create a Innovative Workforce Training Center to provide training in welding, construction and electrical, heating, ventilation and air-conditioning system installment.</t>
-  </si>
-  <si>
-    <t>TXB00038316</t>
-  </si>
-  <si>
-    <t>If passed, public institutions of higher education would submit a report recounting crime information on campus such as the number of students convicted o campus and crimes that occurred on campus. The institution would also create a annual crime survey for students.</t>
-  </si>
-  <si>
-    <t>TXB00038232</t>
-  </si>
-  <si>
-    <t>If passed, the Texas A&amp;M University System would receive no more than $40 million in additional revenue bonds for construction on an academic and student services building at Texas A&amp;M—Texarkana.</t>
-  </si>
-  <si>
-    <t>TXB00037275</t>
-  </si>
-  <si>
-    <t>TXB00037743</t>
-  </si>
-  <si>
-    <t>If passed Texas State Technical College would be able to establish a branch of its system in Richmond, Texas.</t>
-  </si>
-  <si>
-    <t>TXB00037808</t>
   </si>
   <si>
     <t>TXB00037906</t>
@@ -1611,6 +1824,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
@@ -1619,12 +1838,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1647,7 +1860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1660,59 +1873,58 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1742,7 +1954,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvPr id="1045" name="Rectangle 21" hidden="1"/>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2103,10 +2315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L176"/>
+  <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -2126,10 +2338,10 @@
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2144,10 +2356,10 @@
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2162,10 +2374,10 @@
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2180,10 +2392,10 @@
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2198,10 +2410,10 @@
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2215,29 +2427,29 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="A7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2252,28 +2464,28 @@
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+        <v>130</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12" ht="13.5" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2288,10 +2500,10 @@
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2306,10 +2518,10 @@
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2324,10 +2536,10 @@
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2342,10 +2554,10 @@
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2359,29 +2571,29 @@
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="A15" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2396,10 +2608,10 @@
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2414,10 +2626,10 @@
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2432,10 +2644,10 @@
     </row>
     <row r="19" spans="1:12" ht="13.5" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2450,10 +2662,10 @@
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2468,7 +2680,7 @@
     </row>
     <row r="21" spans="1:12" ht="13.5" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>222</v>
@@ -2615,7 +2827,7 @@
         <v>237</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -2701,22 +2913,22 @@
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:12" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -2740,30 +2952,50 @@
       <c r="A36" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="15"/>
     </row>
     <row r="37" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="16" t="s">
         <v>252</v>
       </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
     </row>
     <row r="38" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="7" t="s">
         <v>254</v>
       </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2777,37 +3009,47 @@
       <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>258</v>
-      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12" ht="13.5" customHeight="1">
       <c r="A41" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
     </row>
     <row r="42" spans="1:12" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2822,10 +3064,10 @@
     </row>
     <row r="43" spans="1:12" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -2839,27 +3081,47 @@
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B44" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+    </row>
+    <row r="45" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A45" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A45" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>268</v>
-      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
     </row>
     <row r="46" spans="1:12" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2874,10 +3136,10 @@
     </row>
     <row r="47" spans="1:12" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -2892,10 +3154,10 @@
     </row>
     <row r="48" spans="1:12" ht="13.5" customHeight="1">
       <c r="A48" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -2910,10 +3172,10 @@
     </row>
     <row r="49" spans="1:12" ht="13.5" customHeight="1">
       <c r="A49" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2928,10 +3190,10 @@
     </row>
     <row r="50" spans="1:12" ht="11.25" customHeight="1">
       <c r="A50" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -2946,10 +3208,10 @@
     </row>
     <row r="51" spans="1:12" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -2964,10 +3226,10 @@
     </row>
     <row r="52" spans="1:12" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -2982,10 +3244,10 @@
     </row>
     <row r="53" spans="1:12" ht="13.5" customHeight="1">
       <c r="A53" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -3000,7 +3262,7 @@
     </row>
     <row r="54" spans="1:12" ht="13.5" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>239</v>
@@ -3018,10 +3280,10 @@
     </row>
     <row r="55" spans="1:12" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -3036,10 +3298,10 @@
     </row>
     <row r="56" spans="1:12" ht="13.5" customHeight="1">
       <c r="A56" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -3054,10 +3316,10 @@
     </row>
     <row r="57" spans="1:12" ht="13.5" customHeight="1">
       <c r="A57" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -3072,10 +3334,10 @@
     </row>
     <row r="58" spans="1:12" ht="13.5" customHeight="1">
       <c r="A58" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B58" s="20" t="s">
         <v>292</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>293</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -3090,10 +3352,10 @@
     </row>
     <row r="59" spans="1:12" ht="13.5" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -3108,10 +3370,10 @@
     </row>
     <row r="60" spans="1:12" ht="13.5" customHeight="1">
       <c r="A60" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>296</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -3126,10 +3388,10 @@
     </row>
     <row r="61" spans="1:12" ht="13.5" customHeight="1">
       <c r="A61" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -3144,10 +3406,10 @@
     </row>
     <row r="62" spans="1:12" ht="13.5" customHeight="1">
       <c r="A62" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B62" s="21" t="s">
         <v>299</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>300</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -3162,10 +3424,10 @@
     </row>
     <row r="63" spans="1:12" ht="13.5" customHeight="1">
       <c r="A63" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B63" s="21" t="s">
         <v>301</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>302</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -3180,10 +3442,10 @@
     </row>
     <row r="64" spans="1:12" ht="13.5" customHeight="1">
       <c r="A64" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B64" s="22" t="s">
         <v>303</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>304</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -3198,10 +3460,10 @@
     </row>
     <row r="65" spans="1:12" ht="13.5" customHeight="1">
       <c r="A65" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B65" s="21" t="s">
         <v>305</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>306</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -3216,10 +3478,10 @@
     </row>
     <row r="66" spans="1:12" ht="13.5" customHeight="1">
       <c r="A66" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -3233,19 +3495,29 @@
       <c r="L66" s="4"/>
     </row>
     <row r="67" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B67" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>310</v>
-      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
     </row>
     <row r="68" spans="1:12" ht="13.5" customHeight="1">
       <c r="A68" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -3259,19 +3531,29 @@
       <c r="L68" s="4"/>
     </row>
     <row r="69" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B69" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="B69" s="21" t="s">
-        <v>314</v>
-      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
     </row>
     <row r="70" spans="1:12" ht="13.5" customHeight="1">
       <c r="A70" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B70" s="22" t="s">
         <v>315</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>316</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -3286,10 +3568,10 @@
     </row>
     <row r="71" spans="1:12" ht="13.5" customHeight="1">
       <c r="A71" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B71" s="21" t="s">
         <v>317</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>318</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -3303,19 +3585,29 @@
       <c r="L71" s="4"/>
     </row>
     <row r="72" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B72" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="B72" s="21" t="s">
-        <v>320</v>
-      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
     </row>
     <row r="73" spans="1:12" ht="13.5" customHeight="1">
       <c r="A73" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -3330,13 +3622,13 @@
     </row>
     <row r="74" spans="1:12" ht="13.5" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B74" s="9"/>
+        <v>322</v>
+      </c>
+      <c r="B74" s="12"/>
     </row>
     <row r="75" spans="1:12" ht="13.5" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>228</v>
@@ -3354,10 +3646,10 @@
     </row>
     <row r="76" spans="1:12" ht="13.5" customHeight="1">
       <c r="A76" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -3372,10 +3664,10 @@
     </row>
     <row r="77" spans="1:12" ht="13.5" customHeight="1">
       <c r="A77" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -3390,10 +3682,10 @@
     </row>
     <row r="78" spans="1:12" ht="13.5" customHeight="1">
       <c r="A78" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -3408,10 +3700,10 @@
     </row>
     <row r="79" spans="1:12" ht="13.5" customHeight="1">
       <c r="A79" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -3426,10 +3718,10 @@
     </row>
     <row r="80" spans="1:12" ht="13.5" customHeight="1">
       <c r="A80" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -3444,32 +3736,52 @@
     </row>
     <row r="81" spans="1:12" ht="13.5" customHeight="1">
       <c r="A81" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A82" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+    </row>
+    <row r="83" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A83" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A83" s="1" t="s">
+      <c r="B83" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="B83" s="21" t="s">
-        <v>339</v>
-      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
     </row>
     <row r="84" spans="1:12" ht="13.5" customHeight="1">
       <c r="A84" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -3484,10 +3796,10 @@
     </row>
     <row r="85" spans="1:12" ht="13.5" customHeight="1">
       <c r="A85" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -3501,29 +3813,29 @@
       <c r="L85" s="4"/>
     </row>
     <row r="86" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B86" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="B86" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
     </row>
     <row r="87" spans="1:12" ht="13.5" customHeight="1">
       <c r="A87" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -3537,99 +3849,119 @@
       <c r="L87" s="4"/>
     </row>
     <row r="88" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B88" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="B88" s="23" t="s">
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+    </row>
+    <row r="89" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A89" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
-    </row>
-    <row r="89" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A89" s="22" t="s">
+      <c r="B89" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="B89" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
     </row>
     <row r="90" spans="1:12" ht="13.5" customHeight="1">
       <c r="A90" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+    </row>
+    <row r="91" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A91" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
-    </row>
-    <row r="91" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A91" s="26" t="s">
+      <c r="B91" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="B91" s="27" t="s">
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="27"/>
+    </row>
+    <row r="92" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A92" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="28"/>
-    </row>
-    <row r="92" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A92" s="1" t="s">
+      <c r="B92" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+    </row>
+    <row r="93" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A93" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A93" s="1" t="s">
+      <c r="B93" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="B93" s="21" t="s">
-        <v>359</v>
-      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
     </row>
     <row r="94" spans="1:12" ht="13.5" customHeight="1">
       <c r="A94" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -3643,19 +3975,29 @@
       <c r="L94" s="4"/>
     </row>
     <row r="95" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B95" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="B95" s="21" t="s">
-        <v>363</v>
-      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
     </row>
     <row r="96" spans="1:12" ht="13.5" customHeight="1">
       <c r="A96" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -3670,32 +4012,52 @@
     </row>
     <row r="97" spans="1:12" ht="13.5" customHeight="1">
       <c r="A97" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B97" s="12"/>
+    </row>
+    <row r="98" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A98" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B97" s="9"/>
-    </row>
-    <row r="98" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A98" s="1" t="s">
+      <c r="B98" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+    </row>
+    <row r="99" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A99" s="8" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A99" s="1" t="s">
+      <c r="B99" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B99" s="29" t="s">
-        <v>370</v>
-      </c>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
     </row>
     <row r="100" spans="1:12" ht="13.5" customHeight="1">
       <c r="A100" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -3709,89 +4071,119 @@
       <c r="L100" s="4"/>
     </row>
     <row r="101" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B101" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+    </row>
+    <row r="102" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A102" s="8" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A102" s="1" t="s">
+      <c r="B102" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="B102" s="21" t="s">
-        <v>376</v>
-      </c>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
     </row>
     <row r="103" spans="1:12" ht="13.5" customHeight="1">
       <c r="A103" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
+    </row>
+    <row r="104" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A104" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="15"/>
-      <c r="L103" s="15"/>
-    </row>
-    <row r="104" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A104" s="1" t="s">
+      <c r="B104" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="19"/>
+      <c r="L104" s="19"/>
+    </row>
+    <row r="105" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A105" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="17"/>
-    </row>
-    <row r="105" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A105" s="1" t="s">
+      <c r="B105" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+    </row>
+    <row r="106" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A106" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="B105" s="29" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A106" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="B106" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="30"/>
-      <c r="I106" s="30"/>
-      <c r="J106" s="30"/>
-      <c r="K106" s="30"/>
-      <c r="L106" s="30"/>
+      <c r="B106" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
     </row>
     <row r="107" spans="1:12" ht="13.5" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -3805,19 +4197,29 @@
       <c r="L107" s="4"/>
     </row>
     <row r="108" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A108" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B108" s="21" t="s">
-        <v>387</v>
-      </c>
+      <c r="A108" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B108" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
     </row>
     <row r="109" spans="1:12" ht="13.5" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -3831,19 +4233,29 @@
       <c r="L109" s="4"/>
     </row>
     <row r="110" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A110" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>391</v>
-      </c>
+      <c r="A110" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
     </row>
     <row r="111" spans="1:12" ht="13.5" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -3857,53 +4269,83 @@
       <c r="L111" s="4"/>
     </row>
     <row r="112" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+    </row>
+    <row r="113" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A113" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B112" s="29" t="s">
+      <c r="B113" s="9" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A113" s="26" t="s">
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="10"/>
+    </row>
+    <row r="114" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A114" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B113" s="27" t="s">
+      <c r="B114" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="30"/>
-      <c r="K113" s="30"/>
-      <c r="L113" s="30"/>
-    </row>
-    <row r="114" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A114" s="1" t="s">
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+    </row>
+    <row r="115" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A115" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B114" s="31" t="s">
+      <c r="B115" s="7" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A115" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B115" s="29" t="s">
-        <v>401</v>
-      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
     </row>
     <row r="116" spans="1:12" ht="13.5" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -3917,29 +4359,29 @@
       <c r="L116" s="4"/>
     </row>
     <row r="117" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A117" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
+      <c r="A117" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
     </row>
     <row r="118" spans="1:12" ht="13.5" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B118" s="32" t="s">
-        <v>407</v>
+        <v>403</v>
+      </c>
+      <c r="B118" s="28" t="s">
+        <v>404</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -3954,10 +4396,10 @@
     </row>
     <row r="119" spans="1:12" ht="13.5" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -3972,10 +4414,10 @@
     </row>
     <row r="120" spans="1:12" ht="13.5" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -3990,10 +4432,10 @@
     </row>
     <row r="121" spans="1:12" ht="13.5" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -4008,10 +4450,10 @@
     </row>
     <row r="122" spans="1:12" ht="13.5" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B122" s="33" t="s">
-        <v>415</v>
+        <v>411</v>
+      </c>
+      <c r="B122" s="29" t="s">
+        <v>412</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -4026,10 +4468,10 @@
     </row>
     <row r="123" spans="1:12" ht="13.5" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B123" s="34" t="s">
-        <v>417</v>
+        <v>413</v>
+      </c>
+      <c r="B123" s="25" t="s">
+        <v>414</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -4044,10 +4486,10 @@
     </row>
     <row r="124" spans="1:12" ht="13.5" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -4062,10 +4504,10 @@
     </row>
     <row r="125" spans="1:12" ht="13.5" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B125" s="34" t="s">
-        <v>420</v>
+        <v>416</v>
+      </c>
+      <c r="B125" s="25" t="s">
+        <v>417</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -4080,10 +4522,10 @@
     </row>
     <row r="126" spans="1:12" ht="13.5" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -4098,10 +4540,10 @@
     </row>
     <row r="127" spans="1:12" ht="13.5" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B127" s="33" t="s">
-        <v>423</v>
+        <v>419</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>420</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -4115,275 +4557,545 @@
       <c r="L127" s="4"/>
     </row>
     <row r="128" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A128" s="35" t="s">
+      <c r="A128" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+      <c r="K128" s="10"/>
+      <c r="L128" s="10"/>
+    </row>
+    <row r="129" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A129" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="B129" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="B128" s="21" t="s">
+    </row>
+    <row r="130" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A130" s="30" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A129" s="35" t="s">
+      <c r="B130" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="10"/>
+      <c r="K130" s="10"/>
+      <c r="L130" s="10"/>
+    </row>
+    <row r="131" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A131" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="B129" s="21" t="s">
+      <c r="B131" s="20" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A130" s="35" t="s">
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+    </row>
+    <row r="132" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A132" s="35" t="s">
         <v>428</v>
       </c>
-      <c r="B130" s="37" t="s">
+      <c r="B132" s="5" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A131" s="35" t="s">
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+    </row>
+    <row r="133" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A133" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B133" s="20" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A132" s="35" t="s">
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+    </row>
+    <row r="134" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A134" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="B132" s="37" t="s">
+      <c r="B134" s="25" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A133" s="29" t="s">
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+    </row>
+    <row r="135" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A135" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B135" s="5" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A134" s="35" t="s">
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+    </row>
+    <row r="136" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A136" s="30" t="s">
         <v>436</v>
       </c>
-      <c r="B134" s="21" t="s">
+      <c r="B136" s="23" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A135" s="35" t="s">
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="10"/>
+      <c r="K136" s="10"/>
+      <c r="L136" s="10"/>
+    </row>
+    <row r="137" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A137" s="30" t="s">
         <v>438</v>
       </c>
-      <c r="B135" s="37" t="s">
+      <c r="B137" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10"/>
+      <c r="K137" s="10"/>
+      <c r="L137" s="10"/>
+    </row>
+    <row r="138" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A138" s="30" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A136" s="35" t="s">
+      <c r="B138" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="B136" s="21" t="s">
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
+      <c r="K138" s="10"/>
+      <c r="L138" s="10"/>
+    </row>
+    <row r="139" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A139" s="35" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A137" s="35" t="s">
+      <c r="B139" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="B137" s="38" t="s">
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+    </row>
+    <row r="140" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A140" s="35" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A138" s="35" t="s">
+      <c r="B140" s="36" t="s">
         <v>444</v>
       </c>
-      <c r="B138" s="36" t="s">
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+    </row>
+    <row r="141" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A141" s="35" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A139" s="35" t="s">
+      <c r="B141" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
+    </row>
+    <row r="142" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A142" s="30" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A140" s="35" t="s">
+      <c r="B142" s="37" t="s">
         <v>448</v>
       </c>
-      <c r="B140" s="39" t="s">
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="10"/>
+      <c r="K142" s="10"/>
+      <c r="L142" s="10"/>
+    </row>
+    <row r="143" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A143" s="30" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A141" s="35" t="s">
+      <c r="B143" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="B141" s="21" t="s">
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="10"/>
+      <c r="K143" s="10"/>
+      <c r="L143" s="10"/>
+    </row>
+    <row r="144" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A144" s="30" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A142" s="35" t="s">
+      <c r="B144" s="37" t="s">
         <v>452</v>
       </c>
-      <c r="B142" s="39" t="s">
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="10"/>
+      <c r="K144" s="10"/>
+      <c r="L144" s="10"/>
+    </row>
+    <row r="145" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A145" s="30" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A143" s="35" t="s">
+      <c r="B145" s="37" t="s">
         <v>454</v>
       </c>
-      <c r="B143" s="21" t="s">
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="10"/>
+      <c r="K145" s="10"/>
+      <c r="L145" s="10"/>
+    </row>
+    <row r="146" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A146" s="9" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A144" s="35" t="s">
+      <c r="B146" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="B144" s="39" t="s">
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="10"/>
+      <c r="K146" s="10"/>
+      <c r="L146" s="10"/>
+    </row>
+    <row r="147" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A147" s="35" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A145" s="35" t="s">
+      <c r="B147" s="20" t="s">
         <v>458</v>
       </c>
-      <c r="B145" s="39" t="s">
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+    </row>
+    <row r="148" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A148" s="30" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A146" s="29" t="s">
+      <c r="B148" s="37" t="s">
         <v>460</v>
       </c>
-      <c r="B146" s="12" t="s">
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="10"/>
+      <c r="I148" s="10"/>
+      <c r="J148" s="10"/>
+      <c r="K148" s="10"/>
+      <c r="L148" s="10"/>
+    </row>
+    <row r="149" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A149" s="30" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A147" s="35" t="s">
+      <c r="B149" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10"/>
+      <c r="I149" s="10"/>
+      <c r="J149" s="10"/>
+      <c r="K149" s="10"/>
+      <c r="L149" s="10"/>
+    </row>
+    <row r="150" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A150" s="35" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A148" s="35" t="s">
+      <c r="B150" s="36" t="s">
         <v>464</v>
       </c>
-      <c r="B148" s="39" t="s">
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+    </row>
+    <row r="151" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A151" s="7" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A149" s="35" t="s">
+      <c r="B151" s="36" t="s">
         <v>466</v>
       </c>
-      <c r="B149" s="39" t="s">
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+    </row>
+    <row r="152" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A152" s="30" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A150" s="35" t="s">
+      <c r="B152" s="37" t="s">
         <v>468</v>
       </c>
-      <c r="B150" s="39" t="s">
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="I152" s="10"/>
+      <c r="J152" s="10"/>
+      <c r="K152" s="10"/>
+      <c r="L152" s="10"/>
+    </row>
+    <row r="153" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A153" s="30" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A151" s="29" t="s">
+      <c r="B153" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="B151" s="39" t="s">
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="10"/>
+      <c r="K153" s="10"/>
+      <c r="L153" s="10"/>
+    </row>
+    <row r="154" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A154" s="35" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A152" s="35" t="s">
+      <c r="B154" s="36" t="s">
         <v>472</v>
       </c>
-      <c r="B152" s="39" t="s">
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+    </row>
+    <row r="155" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A155" s="9" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A153" s="35" t="s">
+      <c r="B155" s="37" t="s">
         <v>474</v>
       </c>
-      <c r="B153" s="39" t="s">
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="10"/>
+      <c r="K155" s="10"/>
+      <c r="L155" s="10"/>
+    </row>
+    <row r="156" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A156" s="32" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A154" s="35" t="s">
+      <c r="B156" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="B154" s="39" t="s">
+    </row>
+    <row r="157" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A157" s="34" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A155" s="29" t="s">
+      <c r="B157" s="38" t="s">
         <v>478</v>
       </c>
-      <c r="B155" s="39" t="s">
+    </row>
+    <row r="158" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A158" s="34" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A156" s="35" t="s">
+      <c r="B158" s="38" t="s">
         <v>480</v>
       </c>
-      <c r="B156" s="39" t="s">
+    </row>
+    <row r="159" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A159" s="34" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A157" s="29" t="s">
+      <c r="B159" s="38" t="s">
         <v>482</v>
       </c>
-      <c r="B157" s="39" t="s">
+    </row>
+    <row r="160" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A160" s="34" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A158" s="29" t="s">
+      <c r="B160" s="38" t="s">
         <v>484</v>
-      </c>
-      <c r="B158" s="39" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A159" s="29" t="s">
-        <v>486</v>
-      </c>
-      <c r="B159" s="39" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A160" s="29" t="s">
-        <v>488</v>
-      </c>
-      <c r="B160" s="39" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="13.5" customHeight="1">
       <c r="A161" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -4396,82 +5108,66 @@
       <c r="L161" s="4"/>
     </row>
     <row r="162" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A162" s="29" t="s">
+      <c r="A162" s="34" t="s">
+        <v>486</v>
+      </c>
+      <c r="B162" s="39" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A163" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="B163" s="40" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A164" s="34" t="s">
+        <v>489</v>
+      </c>
+      <c r="B164" s="41" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A165" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="B162" s="40" t="s">
+      <c r="B165" s="42"/>
+    </row>
+    <row r="166" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A166" s="32" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A163" s="29" t="s">
+      <c r="B166" s="42"/>
+    </row>
+    <row r="167" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A167" s="32" t="s">
         <v>493</v>
       </c>
-      <c r="B163" s="37" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A164" s="29" t="s">
-        <v>494</v>
-      </c>
-      <c r="B164" s="12" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A165" s="35" t="s">
-        <v>496</v>
-      </c>
-      <c r="B165" s="41"/>
-    </row>
-    <row r="166" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A166" s="35" t="s">
-        <v>497</v>
-      </c>
-      <c r="B166" s="41"/>
-    </row>
-    <row r="167" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A167" s="35" t="s">
-        <v>498</v>
-      </c>
-      <c r="B167" s="41"/>
+      <c r="B167" s="42"/>
     </row>
     <row r="168" spans="1:12" ht="13.5" customHeight="1">
       <c r="A168" s="1"/>
-      <c r="B168" s="41"/>
+      <c r="B168" s="42"/>
     </row>
     <row r="169" spans="1:12" ht="13.5" customHeight="1">
       <c r="A169" s="1"/>
-      <c r="B169" s="41"/>
+      <c r="B169" s="42"/>
     </row>
     <row r="170" spans="1:12" ht="13.5" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="41"/>
+      <c r="B170" s="42"/>
     </row>
     <row r="171" spans="1:12" ht="13.5" customHeight="1">
       <c r="A171" s="1"/>
-      <c r="B171" s="41"/>
+      <c r="B171" s="42"/>
     </row>
     <row r="172" spans="1:12" ht="13.5" customHeight="1">
       <c r="A172" s="1"/>
-      <c r="B172" s="41"/>
-    </row>
-    <row r="173" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A173" s="1"/>
-      <c r="B173" s="41"/>
-    </row>
-    <row r="174" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A174" s="1"/>
-      <c r="B174" s="41"/>
-    </row>
-    <row r="175" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A175" s="1"/>
-      <c r="B175" s="41"/>
-    </row>
-    <row r="176" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A176" s="1"/>
-      <c r="B176" s="41"/>
+      <c r="B172" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4490,7 +5186,7 @@
   <dimension ref="A1:B182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -4503,132 +5199,132 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="13.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="13.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="13.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="13.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="13.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="13.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="13.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="13.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="13.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="13.5" customHeight="1">
@@ -4648,157 +5344,157 @@
     </row>
     <row r="30" spans="1:1" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="13.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="13.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="13.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="13.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="13.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="13.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="13.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="13.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="13.5" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="13.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="13.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="13.5" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="13.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="13.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="13.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="13.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="13.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="13.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="13.5" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="13.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="13.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="13.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="13.5" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="13.5" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="13.5" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="13.5" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="13.5" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="13.5" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="13.5" customHeight="1">
@@ -4833,177 +5529,177 @@
     </row>
     <row r="67" spans="1:1" ht="13.5" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="13.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="13.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="13.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="13.5" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="13.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="13.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="13.5" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="13.5" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="13.5" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="13.5" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="13.5" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="13.5" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="13.5" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="13.5" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="13.5" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="13.5" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="13.5" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="13.5" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="13.5" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="13.5" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="13.5" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="13.5" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="13.5" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="13.5" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="13.5" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="13.5" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="13.5" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="13.5" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="13.5" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="13.5" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="13.5" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="13.5" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="13.5" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="13.5" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="13.5" customHeight="1">
@@ -5028,52 +5724,52 @@
     </row>
     <row r="106" spans="1:1" ht="13.5" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="13.5" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="13.5" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="13.5" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="13.5" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="13.5" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="13.5" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="13.5" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="13.5" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="13.5" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="13.5" customHeight="1">
@@ -5273,142 +5969,142 @@
     </row>
     <row r="155" spans="1:1" ht="13.5" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="13.5" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="13.5" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="13.5" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="13.5" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="13.5" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="13.5" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="13.5" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="13.5" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="13.5" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="13.5" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="13.5" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="13.5" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="13.5" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="13.5" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="13.5" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="13.5" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="13.5" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="13.5" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="13.5" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="13.5" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="13.5" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="13.5" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="13.5" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="13.5" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="13.5" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="13.5" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="13.5" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/backend/copysheet.xlsx
+++ b/backend/copysheet.xlsx
@@ -143,15 +143,15 @@
     <t>TXL000196</t>
   </si>
   <si>
+    <t>Bill Summary</t>
+  </si>
+  <si>
     <t>TXL000364</t>
   </si>
   <si>
     <t>TXL000349</t>
   </si>
   <si>
-    <t>Bill Summary</t>
-  </si>
-  <si>
     <t>TXL000405</t>
   </si>
   <si>
@@ -203,6 +203,9 @@
     <t>TXL000444</t>
   </si>
   <si>
+    <t>TXB00037131</t>
+  </si>
+  <si>
     <t>TXL000268</t>
   </si>
   <si>
@@ -212,7 +215,7 @@
     <t>TXL000498</t>
   </si>
   <si>
-    <t>TXB00037131</t>
+    <t xml:space="preserve">If passed, UT-Dallas would receive no more than $194 million in additional revenue bonds to build an engineering building and a science building for the institution.  </t>
   </si>
   <si>
     <t>TXL000485</t>
@@ -224,9 +227,6 @@
     <t>TXL000506</t>
   </si>
   <si>
-    <t xml:space="preserve">If passed, UT-Dallas would receive no more than $194 million in additional revenue bonds to build an engineering building and a science building for the institution.  </t>
-  </si>
-  <si>
     <t>TXL000429</t>
   </si>
   <si>
@@ -293,6 +293,9 @@
     <t>TXL000454</t>
   </si>
   <si>
+    <t>TXB00037168</t>
+  </si>
+  <si>
     <t>TXL000463</t>
   </si>
   <si>
@@ -347,9 +350,6 @@
     <t>TXL000428</t>
   </si>
   <si>
-    <t>TXB00037132</t>
-  </si>
-  <si>
     <t>TXL000404</t>
   </si>
   <si>
@@ -359,15 +359,15 @@
     <t>TXL000438</t>
   </si>
   <si>
+    <t>If passed, public higher education institutions would be required to include a course's average or median grade, depending on the course's grading system, next to students' grades on their transcripts. An exemption would be made for courses taken pass-fail and for courses with 10 or fewer students.</t>
+  </si>
+  <si>
     <t>TXL000460</t>
   </si>
   <si>
     <t>TXL000347</t>
   </si>
   <si>
-    <t>If passed, public higher education institutions would be required to include a course's average or median grade, depending on the course's grading system, next to students' grades on their transcripts. An exemption would be made for courses taken pass-fail and for courses with 10 or fewer students.</t>
-  </si>
-  <si>
     <t>TXL000497</t>
   </si>
   <si>
@@ -380,24 +380,24 @@
     <t>TXL000483</t>
   </si>
   <si>
+    <t>TXB00037039</t>
+  </si>
+  <si>
     <t>TXL000496</t>
   </si>
   <si>
-    <t>TXB00037133</t>
-  </si>
-  <si>
     <t>TXL000492</t>
   </si>
   <si>
     <t>TXL000480</t>
   </si>
   <si>
+    <t>If passed, higher education institutions would have to include veteran or military dependent information and benefits in enrollment data.</t>
+  </si>
+  <si>
     <t>TXL000491</t>
   </si>
   <si>
-    <t>If passed, higher education institutions would have to include veteran or military dependent information and benefits in enrollment data.</t>
-  </si>
-  <si>
     <t>TXL000508</t>
   </si>
   <si>
@@ -413,15 +413,18 @@
     <t>TXL000504</t>
   </si>
   <si>
+    <t>TXB00037064</t>
+  </si>
+  <si>
+    <t>If passed, Texas public education grants could be funded from appropriated legislative funds. State institutions would not be required to set aside student tuition for financial aid. Also, Texas residents would receive priority over non-resident students for grants funded by Texas license plates.</t>
+  </si>
+  <si>
     <t>TXL000465</t>
   </si>
   <si>
     <t>TXL000505</t>
   </si>
   <si>
-    <t>TXB00037134</t>
-  </si>
-  <si>
     <t>TXL000426</t>
   </si>
   <si>
@@ -434,9 +437,6 @@
     <t>TXL000442</t>
   </si>
   <si>
-    <t>If passed, Texas public education grants could be funded from appropriated legislative funds. State institutions would not be required to set aside student tuition for financial aid. Also, Texas residents would receive priority over non-resident students for grants funded by Texas license plates.</t>
-  </si>
-  <si>
     <t>TXL000396</t>
   </si>
   <si>
@@ -512,6 +512,9 @@
     <t>TXL000378</t>
   </si>
   <si>
+    <t>TXB00037135</t>
+  </si>
+  <si>
     <t>TXL000297</t>
   </si>
   <si>
@@ -521,6 +524,9 @@
     <t>TXL000253</t>
   </si>
   <si>
+    <t xml:space="preserve"> If passed, by April of each school year, schools would be required to administer an "assessment instrument" to 10th grade students as a diagnostic test and to determine if the student should  be enrolled in developmental courses. </t>
+  </si>
+  <si>
     <t>TXL000303</t>
   </si>
   <si>
@@ -539,6 +545,9 @@
     <t>TXL000278</t>
   </si>
   <si>
+    <t>TXB00036981</t>
+  </si>
+  <si>
     <t>TXL000360</t>
   </si>
   <si>
@@ -548,21 +557,18 @@
     <t>TXL000283</t>
   </si>
   <si>
-    <t>TXB00037135</t>
-  </si>
-  <si>
     <t>TXL000223</t>
   </si>
   <si>
+    <t>If passed, nursing students at public, private and independent higher education institutions would continue to receive grants from the permanent fund for nursing education. The funding, if not renewed again at a later date, would last until Aug. 31, 2019.</t>
+  </si>
+  <si>
     <t>TXL000363</t>
   </si>
   <si>
     <t>TXL000358</t>
   </si>
   <si>
-    <t xml:space="preserve"> If passed, by April of each school year, schools would be required to administer an "assessment instrument" to 10th grade students as a diagnostic test and to determine if the student should  be enrolled in developmental courses. </t>
-  </si>
-  <si>
     <t>TXL000308</t>
   </si>
   <si>
@@ -572,9 +578,15 @@
     <t>TXL000294</t>
   </si>
   <si>
+    <t>TXB00036751</t>
+  </si>
+  <si>
     <t>TXL000215</t>
   </si>
   <si>
+    <t>If passed, Texas State Technical College would be able to establish a branch of its system in Red Oak, Texas.</t>
+  </si>
+  <si>
     <t>TXL000318</t>
   </si>
   <si>
@@ -590,12 +602,18 @@
     <t>TXL000296</t>
   </si>
   <si>
+    <t>TXB00037017</t>
+  </si>
+  <si>
     <t>TXL000329</t>
   </si>
   <si>
     <t>TXL000299</t>
   </si>
   <si>
+    <t>If passed, government entities, including public higher education institutions, may not form a contract with or accept money from organizations that would aid the United Nations' Agenda 21.</t>
+  </si>
+  <si>
     <t>TXL000344</t>
   </si>
   <si>
@@ -620,12 +638,18 @@
     <t>TXL000310</t>
   </si>
   <si>
+    <t>TXB00035461</t>
+  </si>
+  <si>
     <t>TXL000352</t>
   </si>
   <si>
     <t>TXL000334</t>
   </si>
   <si>
+    <t xml:space="preserve">If passed, the state would regulate tuition to prevent tuition increase by more than a specified percentile amount each year. The bill would undo 2003's deregulation of tuition. </t>
+  </si>
+  <si>
     <t>TXL000244</t>
   </si>
   <si>
@@ -635,33 +659,9 @@
     <t>TXL000245</t>
   </si>
   <si>
-    <t>TXB00037136</t>
-  </si>
-  <si>
     <t>TXL000219</t>
   </si>
   <si>
-    <t>If passed, nursing students at public, private and independent higher education institutions would continue to receive grants from the permanent fund for nursing education. The funding, if not renewed again at a later date, would last until Aug. 31, 2019.</t>
-  </si>
-  <si>
-    <t>TXB00037137</t>
-  </si>
-  <si>
-    <t>If passed, Texas State Technical College would be able to establish a branch of its system in Red Oak, Texas.</t>
-  </si>
-  <si>
-    <t>TXB00037138</t>
-  </si>
-  <si>
-    <t>If passed, government entities, including public higher education institutions, may not form a contract with or accept money from organizations that would aid the United Nations' Agenda 21.</t>
-  </si>
-  <si>
-    <t>TXB00037139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If passed, the state would regulate tuition to prevent tuition increase by more than a specified percentile amount each year. The bill would undo 2003's deregulation of tuition. </t>
-  </si>
-  <si>
     <t>TXB00037140</t>
   </si>
   <si>
@@ -674,31 +674,31 @@
     <t>If passed, Texas universities would not be allowed to issue revenue bonds, which are generally used to build new facilities, unless the universities meet requirements for building space utilization and online class enrollment.</t>
   </si>
   <si>
-    <t>TXB00037142</t>
+    <t>TXB00036591</t>
   </si>
   <si>
     <t>If passed, Department of Family and Protective Services employees who have been working with the department for at least one year could receive up to $2,500 per year for four years to help repay student loans.</t>
   </si>
   <si>
-    <t>TXB00037143</t>
+    <t>TXB00036830</t>
   </si>
   <si>
     <t>If passed, a Texas Technical Center for Innovative Desalination would be established at UT-El Paso. The center would partner with UT-San Antonio to desalinate water in the Gulf of Mexico, as well as certain groundwater. The center would also conduct research on desalination technology and methods.</t>
   </si>
   <si>
-    <t>TXB00037144</t>
+    <t>TXB00036732</t>
   </si>
   <si>
     <t>If passed, an undocumented student would not be classifed as an in-state resident at a higher education institution, unless that student has completed 30 credit hours by the start of the 2015-2016 school year. Also, the student would not qualify for in-state tuition.</t>
   </si>
   <si>
-    <t>TXB00037145</t>
+    <t>TXB00036066</t>
   </si>
   <si>
     <t>If passed, the bill would establish guidelines on how to interact with work contract bidders. This includes preventing higher education institutions from prohibiting, requiring, discouraging or encouraging a bidder from entering into a contract.</t>
   </si>
   <si>
-    <t>TXB00037146</t>
+    <t>TXB00036175</t>
   </si>
   <si>
     <t>If passed, Lamar State College-Orange would receive up to $12.5 million in revenue bonds to fund a multipurpose education building for its campus.</t>
@@ -1638,8 +1638,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2046,7 +2046,7 @@
   <dimension ref="A1:L176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2093,11 +2093,11 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>97</v>
+      <c r="A3" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2111,11 +2111,11 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>109</v>
+      <c r="A4" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2129,11 +2129,11 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>121</v>
+      <c r="A5" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -2148,10 +2148,10 @@
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>168</v>
+        <v>152</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2165,11 +2165,11 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>195</v>
+      <c r="A7" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2183,11 +2183,11 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>196</v>
+      <c r="A8" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2201,11 +2201,11 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>198</v>
+      <c r="A9" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2219,11 +2219,11 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>201</v>
+      <c r="A10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2258,7 +2258,7 @@
       <c r="A12" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>205</v>
       </c>
       <c r="C12" s="3"/>
@@ -2273,7 +2273,7 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2291,7 +2291,7 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>208</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2309,10 +2309,10 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>211</v>
       </c>
       <c r="C15" s="3"/>
@@ -2327,7 +2327,7 @@
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>212</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2345,7 +2345,7 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="5" t="s">
         <v>214</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2402,8 +2402,8 @@
       <c r="A20" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>197</v>
+      <c r="B20" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2561,28 +2561,28 @@
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>237</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>239</v>
       </c>
       <c r="C30" s="3"/>
@@ -2726,7 +2726,7 @@
       <c r="A38" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>255</v>
       </c>
       <c r="C38" s="3"/>
@@ -2744,7 +2744,7 @@
       <c r="A39" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>255</v>
       </c>
       <c r="C39" s="3"/>
@@ -2816,7 +2816,7 @@
       <c r="A43" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>249</v>
       </c>
       <c r="C43" s="3"/>
@@ -2870,7 +2870,7 @@
       <c r="A46" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>269</v>
       </c>
       <c r="C46" s="3"/>
@@ -2888,7 +2888,7 @@
       <c r="A47" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>271</v>
       </c>
       <c r="C47" s="3"/>
@@ -2924,7 +2924,7 @@
       <c r="A49" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>275</v>
       </c>
       <c r="C49" s="3"/>
@@ -2942,7 +2942,7 @@
       <c r="A50" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>277</v>
       </c>
       <c r="C50" s="3"/>
@@ -3014,7 +3014,7 @@
       <c r="A54" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>239</v>
       </c>
       <c r="C54" s="3"/>
@@ -3032,7 +3032,7 @@
       <c r="A55" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>286</v>
       </c>
       <c r="C55" s="3"/>
@@ -3104,8 +3104,8 @@
       <c r="A59" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>201</v>
+      <c r="B59" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -3122,25 +3122,25 @@
       <c r="A60" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
     </row>
     <row r="61" spans="1:12" ht="13.5" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>297</v>
       </c>
       <c r="C61" s="3"/>
@@ -3266,7 +3266,7 @@
       <c r="A68" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>260</v>
       </c>
       <c r="C68" s="3"/>
@@ -3356,7 +3356,7 @@
       <c r="A73" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>320</v>
       </c>
       <c r="C73" s="3"/>
@@ -3374,7 +3374,7 @@
       <c r="A74" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>322</v>
       </c>
       <c r="C74" s="3"/>
@@ -3392,7 +3392,7 @@
       <c r="A75" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>228</v>
       </c>
       <c r="C75" s="3"/>
@@ -3410,7 +3410,7 @@
       <c r="A76" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>325</v>
       </c>
       <c r="C76" s="3"/>
@@ -3428,7 +3428,7 @@
       <c r="A77" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="5" t="s">
         <v>327</v>
       </c>
       <c r="C77" s="3"/>
@@ -3464,7 +3464,7 @@
       <c r="A79" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>331</v>
       </c>
       <c r="C79" s="3"/>
@@ -3500,7 +3500,7 @@
       <c r="A81" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>335</v>
       </c>
       <c r="C81" s="3"/>
@@ -3572,7 +3572,7 @@
       <c r="A85" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="5" t="s">
         <v>343</v>
       </c>
       <c r="C85" s="3"/>
@@ -3644,7 +3644,7 @@
       <c r="A89" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="5" t="s">
         <v>351</v>
       </c>
       <c r="C89" s="3"/>
@@ -3662,7 +3662,7 @@
       <c r="A90" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="5" t="s">
         <v>353</v>
       </c>
       <c r="C90" s="9"/>
@@ -3680,7 +3680,7 @@
       <c r="A91" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>355</v>
       </c>
       <c r="C91" s="9"/>
@@ -3734,7 +3734,7 @@
       <c r="A94" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="5" t="s">
         <v>230</v>
       </c>
       <c r="C94" s="3"/>
@@ -3770,7 +3770,7 @@
       <c r="A96" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="5" t="s">
         <v>245</v>
       </c>
       <c r="C96" s="3"/>
@@ -3788,7 +3788,7 @@
       <c r="A97" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="5" t="s">
         <v>365</v>
       </c>
       <c r="C97" s="3"/>
@@ -3824,7 +3824,7 @@
       <c r="A99" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="5" t="s">
         <v>369</v>
       </c>
       <c r="C99" s="3"/>
@@ -3842,7 +3842,7 @@
       <c r="A100" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>371</v>
       </c>
       <c r="C100" s="3"/>
@@ -3896,7 +3896,7 @@
       <c r="A103" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C103" s="9"/>
@@ -3932,7 +3932,7 @@
       <c r="A105" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="5" t="s">
         <v>380</v>
       </c>
       <c r="C105" s="3"/>
@@ -3950,7 +3950,7 @@
       <c r="A106" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="5" t="s">
         <v>355</v>
       </c>
       <c r="C106" s="3"/>
@@ -3968,7 +3968,7 @@
       <c r="A107" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="5" t="s">
         <v>383</v>
       </c>
       <c r="C107" s="3"/>
@@ -4040,7 +4040,7 @@
       <c r="A111" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="5" t="s">
         <v>390</v>
       </c>
       <c r="C111" s="3"/>
@@ -4058,7 +4058,7 @@
       <c r="A112" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="5" t="s">
         <v>392</v>
       </c>
       <c r="C112" s="3"/>
@@ -4076,7 +4076,7 @@
       <c r="A113" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="5" t="s">
         <v>394</v>
       </c>
       <c r="C113" s="3"/>
@@ -4112,7 +4112,7 @@
       <c r="A115" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="5" t="s">
         <v>398</v>
       </c>
       <c r="C115" s="3"/>
@@ -4148,7 +4148,7 @@
       <c r="A117" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="5" t="s">
         <v>402</v>
       </c>
       <c r="C117" s="3"/>
@@ -4184,7 +4184,7 @@
       <c r="A119" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="5" t="s">
         <v>406</v>
       </c>
       <c r="C119" s="3"/>
@@ -4202,7 +4202,7 @@
       <c r="A120" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="5" t="s">
         <v>408</v>
       </c>
       <c r="C120" s="3"/>
@@ -4220,7 +4220,7 @@
       <c r="A121" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="5" t="s">
         <v>410</v>
       </c>
       <c r="C121" s="3"/>
@@ -4274,7 +4274,7 @@
       <c r="A124" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="5" t="s">
         <v>416</v>
       </c>
       <c r="C124" s="3"/>
@@ -4310,7 +4310,7 @@
       <c r="A126" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="5" t="s">
         <v>416</v>
       </c>
       <c r="C126" s="3"/>
@@ -4433,7 +4433,7 @@
       <c r="L132" s="3"/>
     </row>
     <row r="133" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A133" s="6" t="s">
+      <c r="A133" s="5" t="s">
         <v>431</v>
       </c>
       <c r="B133" s="7" t="s">
@@ -4508,7 +4508,7 @@
       <c r="A137" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="5" t="s">
         <v>234</v>
       </c>
       <c r="C137" s="3"/>
@@ -4667,7 +4667,7 @@
       <c r="L145" s="3"/>
     </row>
     <row r="146" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="5" t="s">
         <v>456</v>
       </c>
       <c r="B146" s="7" t="s">
@@ -4757,7 +4757,7 @@
       <c r="L150" s="3"/>
     </row>
     <row r="151" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A151" s="6" t="s">
+      <c r="A151" s="5" t="s">
         <v>466</v>
       </c>
       <c r="B151" s="7" t="s">
@@ -4829,7 +4829,7 @@
       <c r="L154" s="3"/>
     </row>
     <row r="155" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="5" t="s">
         <v>474</v>
       </c>
       <c r="B155" s="7" t="s">
@@ -4865,7 +4865,7 @@
       <c r="L156" s="3"/>
     </row>
     <row r="157" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A157" s="6" t="s">
+      <c r="A157" s="5" t="s">
         <v>478</v>
       </c>
       <c r="B157" s="7" t="s">
@@ -4883,7 +4883,7 @@
       <c r="L157" s="3"/>
     </row>
     <row r="158" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A158" s="6" t="s">
+      <c r="A158" s="5" t="s">
         <v>480</v>
       </c>
       <c r="B158" s="7" t="s">
@@ -4901,7 +4901,7 @@
       <c r="L158" s="3"/>
     </row>
     <row r="159" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A159" s="6" t="s">
+      <c r="A159" s="5" t="s">
         <v>482</v>
       </c>
       <c r="B159" s="7" t="s">
@@ -4919,7 +4919,7 @@
       <c r="L159" s="3"/>
     </row>
     <row r="160" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A160" s="6" t="s">
+      <c r="A160" s="5" t="s">
         <v>484</v>
       </c>
       <c r="B160" s="7" t="s">
@@ -4937,11 +4937,11 @@
       <c r="L160" s="3"/>
     </row>
     <row r="161" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="5" t="s">
         <v>486</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -4954,10 +4954,10 @@
       <c r="L161" s="3"/>
     </row>
     <row r="162" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="5" t="s">
         <v>488</v>
       </c>
       <c r="C162" s="3"/>
@@ -4972,7 +4972,7 @@
       <c r="L162" s="3"/>
     </row>
     <row r="163" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A163" s="6" t="s">
+      <c r="A163" s="5" t="s">
         <v>489</v>
       </c>
       <c r="B163" s="7" t="s">
@@ -4990,7 +4990,7 @@
       <c r="L163" s="3"/>
     </row>
     <row r="164" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A164" s="6" t="s">
+      <c r="A164" s="5" t="s">
         <v>490</v>
       </c>
       <c r="B164" s="7" t="s">
@@ -5062,7 +5062,7 @@
       <c r="L167" s="3"/>
     </row>
     <row r="168" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A168" s="6" t="s">
+      <c r="A168" s="5" t="s">
         <v>497</v>
       </c>
       <c r="B168" s="4" t="s">
@@ -5080,11 +5080,11 @@
       <c r="L168" s="3"/>
     </row>
     <row r="169" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A169" s="6" t="s">
+      <c r="A169" s="5" t="s">
         <v>499</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -5098,7 +5098,7 @@
       <c r="L169" s="3"/>
     </row>
     <row r="170" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A170" s="6" t="s">
+      <c r="A170" s="5" t="s">
         <v>500</v>
       </c>
       <c r="B170" s="7" t="s">
@@ -5116,7 +5116,7 @@
       <c r="L170" s="3"/>
     </row>
     <row r="171" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A171" s="6" t="s">
+      <c r="A171" s="5" t="s">
         <v>502</v>
       </c>
       <c r="B171" s="7" t="s">
@@ -5373,12 +5373,12 @@
     </row>
     <row r="29" spans="1:1" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="13.5" customHeight="1">
@@ -5468,32 +5468,32 @@
     </row>
     <row r="48" spans="1:1" ht="13.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="13.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="13.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="13.5" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="13.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="13.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="13.5" customHeight="1">
@@ -5608,92 +5608,92 @@
     </row>
     <row r="76" spans="1:1" ht="13.5" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="13.5" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="13.5" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="13.5" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="13.5" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="13.5" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="13.5" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="13.5" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="13.5" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="13.5" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="13.5" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="13.5" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="13.5" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="13.5" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="13.5" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="13.5" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="13.5" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="13.5" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="13.5" customHeight="1">
@@ -5713,12 +5713,12 @@
     </row>
     <row r="97" spans="1:1" ht="13.5" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="13.5" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="13.5" customHeight="1">
@@ -5743,7 +5743,7 @@
     </row>
     <row r="103" spans="1:1" ht="13.5" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="13.5" customHeight="1">
@@ -5758,7 +5758,7 @@
     </row>
     <row r="106" spans="1:1" ht="13.5" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="13.5" customHeight="1">
@@ -5788,32 +5788,32 @@
     </row>
     <row r="112" spans="1:1" ht="13.5" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="13.5" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="13.5" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="13.5" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="13.5" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="13.5" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="13.5" customHeight="1">
@@ -5943,202 +5943,202 @@
     </row>
     <row r="143" spans="1:1" ht="13.5" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="13.5" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="13.5" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="13.5" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="13.5" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="13.5" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="13.5" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="13.5" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="13.5" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="13.5" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="13.5" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="13.5" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="13.5" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="13.5" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="13.5" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="13.5" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="13.5" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="13.5" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="13.5" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="13.5" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="13.5" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="13.5" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="13.5" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="13.5" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="13.5" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="13.5" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="13.5" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="13.5" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="13.5" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="13.5" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="13.5" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="13.5" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="13.5" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="13.5" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="13.5" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="13.5" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="13.5" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="13.5" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="13.5" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="13.5" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/backend/copysheet.xlsx
+++ b/backend/copysheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bills" sheetId="1" r:id="rId1"/>
@@ -107,6 +107,9 @@
     <t>TXL000206</t>
   </si>
   <si>
+    <t>Bill Summary</t>
+  </si>
+  <si>
     <t>TXL000189</t>
   </si>
   <si>
@@ -140,15 +143,18 @@
     <t>TXL000414</t>
   </si>
   <si>
+    <t>TXB00037131</t>
+  </si>
+  <si>
     <t>TXL000196</t>
   </si>
   <si>
-    <t>Bill Summary</t>
-  </si>
-  <si>
     <t>TXL000364</t>
   </si>
   <si>
+    <t xml:space="preserve">If passed, UT-Dallas would receive no more than $194 million in additional revenue bonds to build an engineering building and a science building for the institution.  </t>
+  </si>
+  <si>
     <t>TXL000349</t>
   </si>
   <si>
@@ -203,9 +209,6 @@
     <t>TXL000444</t>
   </si>
   <si>
-    <t>TXB00037131</t>
-  </si>
-  <si>
     <t>TXL000268</t>
   </si>
   <si>
@@ -215,9 +218,6 @@
     <t>TXL000498</t>
   </si>
   <si>
-    <t xml:space="preserve">If passed, UT-Dallas would receive no more than $194 million in additional revenue bonds to build an engineering building and a science building for the institution.  </t>
-  </si>
-  <si>
     <t>TXL000485</t>
   </si>
   <si>
@@ -233,6 +233,9 @@
     <t>TXL000481</t>
   </si>
   <si>
+    <t>TXB00037168</t>
+  </si>
+  <si>
     <t>TXL000494</t>
   </si>
   <si>
@@ -272,6 +275,9 @@
     <t>TXL000355</t>
   </si>
   <si>
+    <t>If passed, public higher education institutions would be required to include a course's average or median grade, depending on the course's grading system, next to students' grades on their transcripts. An exemption would be made for courses taken pass-fail and for courses with 10 or fewer students.</t>
+  </si>
+  <si>
     <t>TXL000431</t>
   </si>
   <si>
@@ -281,9 +287,15 @@
     <t>TXL000446</t>
   </si>
   <si>
+    <t>TXB00037039</t>
+  </si>
+  <si>
     <t>TXL000439</t>
   </si>
   <si>
+    <t>If passed, higher education institutions would have to include veteran or military dependent information and benefits in enrollment data.</t>
+  </si>
+  <si>
     <t>TXL000441</t>
   </si>
   <si>
@@ -293,12 +305,12 @@
     <t>TXL000454</t>
   </si>
   <si>
-    <t>TXB00037168</t>
-  </si>
-  <si>
     <t>TXL000463</t>
   </si>
   <si>
+    <t>TXB00037064</t>
+  </si>
+  <si>
     <t>TXL000338</t>
   </si>
   <si>
@@ -308,6 +320,9 @@
     <t>TXL000277</t>
   </si>
   <si>
+    <t>If passed, Texas public education grants could be funded from appropriated legislative funds. State institutions would not be required to set aside student tuition for financial aid. Also, Texas residents would receive priority over non-resident students for grants funded by Texas license plates.</t>
+  </si>
+  <si>
     <t>TXL000452</t>
   </si>
   <si>
@@ -359,18 +374,21 @@
     <t>TXL000438</t>
   </si>
   <si>
-    <t>If passed, public higher education institutions would be required to include a course's average or median grade, depending on the course's grading system, next to students' grades on their transcripts. An exemption would be made for courses taken pass-fail and for courses with 10 or fewer students.</t>
-  </si>
-  <si>
     <t>TXL000460</t>
   </si>
   <si>
+    <t>TXB00036971</t>
+  </si>
+  <si>
     <t>TXL000347</t>
   </si>
   <si>
     <t>TXL000497</t>
   </si>
   <si>
+    <t xml:space="preserve"> If passed, by April of each school year, schools would be required to administer an "assessment instrument" to 10th grade students as a diagnostic test and to determine if the student should  be enrolled in developmental courses. </t>
+  </si>
+  <si>
     <t>TXL000484</t>
   </si>
   <si>
@@ -380,7 +398,7 @@
     <t>TXL000483</t>
   </si>
   <si>
-    <t>TXB00037039</t>
+    <t>TXB00036981</t>
   </si>
   <si>
     <t>TXL000496</t>
@@ -389,12 +407,12 @@
     <t>TXL000492</t>
   </si>
   <si>
+    <t>If passed, nursing students at public, private and independent higher education institutions would continue to receive grants from the permanent fund for nursing education. The funding, if not renewed again at a later date, would last until Aug. 31, 2019.</t>
+  </si>
+  <si>
     <t>TXL000480</t>
   </si>
   <si>
-    <t>If passed, higher education institutions would have to include veteran or military dependent information and benefits in enrollment data.</t>
-  </si>
-  <si>
     <t>TXL000491</t>
   </si>
   <si>
@@ -404,42 +422,54 @@
     <t>TXL000502</t>
   </si>
   <si>
+    <t>TXB00036751</t>
+  </si>
+  <si>
     <t>TXL000495</t>
   </si>
   <si>
+    <t>If passed, Texas State Technical College would be able to establish a branch of its system in Red Oak, Texas.</t>
+  </si>
+  <si>
     <t>TXL000464</t>
   </si>
   <si>
     <t>TXL000504</t>
   </si>
   <si>
-    <t>TXB00037064</t>
-  </si>
-  <si>
-    <t>If passed, Texas public education grants could be funded from appropriated legislative funds. State institutions would not be required to set aside student tuition for financial aid. Also, Texas residents would receive priority over non-resident students for grants funded by Texas license plates.</t>
-  </si>
-  <si>
     <t>TXL000465</t>
   </si>
   <si>
+    <t>TXB00037017</t>
+  </si>
+  <si>
     <t>TXL000505</t>
   </si>
   <si>
     <t>TXL000426</t>
   </si>
   <si>
+    <t>If passed, government entities, including public higher education institutions, may not form a contract with or accept money from organizations that would aid the United Nations' Agenda 21.</t>
+  </si>
+  <si>
     <t>TXL000216</t>
   </si>
   <si>
     <t>TXL000379</t>
   </si>
   <si>
+    <t>TXB00035461</t>
+  </si>
+  <si>
     <t>TXL000442</t>
   </si>
   <si>
     <t>TXL000396</t>
   </si>
   <si>
+    <t xml:space="preserve">If passed, the state would regulate tuition to prevent tuition increase by more than a specified percentile amount each year. The bill would undo 2003's deregulation of tuition. </t>
+  </si>
+  <si>
     <t>TXL000397</t>
   </si>
   <si>
@@ -449,9 +479,15 @@
     <t>TXL000458</t>
   </si>
   <si>
+    <t>TXB00036135</t>
+  </si>
+  <si>
     <t>TXL000410</t>
   </si>
   <si>
+    <t>If passed, private college and university police departments would be recognized as a governmental body when looking at state public information laws, requiring these departments to release public information and remain transparent.</t>
+  </si>
+  <si>
     <t>TXL000312</t>
   </si>
   <si>
@@ -464,12 +500,18 @@
     <t>TXL000415</t>
   </si>
   <si>
+    <t>TXB00037141</t>
+  </si>
+  <si>
     <t>TXL000256</t>
   </si>
   <si>
     <t>TXL000218</t>
   </si>
   <si>
+    <t>If passed, Texas universities would not be allowed to issue revenue bonds, which are generally used to build new facilities, unless the universities meet requirements for building space utilization and online class enrollment.</t>
+  </si>
+  <si>
     <t>TXL000258</t>
   </si>
   <si>
@@ -479,9 +521,15 @@
     <t>TXL000335</t>
   </si>
   <si>
+    <t>TXB00036591</t>
+  </si>
+  <si>
     <t>TXL000291</t>
   </si>
   <si>
+    <t>If passed, Department of Family and Protective Services employees who have been working with the department for at least one year could receive up to $2,500 per year for four years to help repay student loans.</t>
+  </si>
+  <si>
     <t>TXL000373</t>
   </si>
   <si>
@@ -494,6 +542,9 @@
     <t>TXL000247</t>
   </si>
   <si>
+    <t>TXB00036830</t>
+  </si>
+  <si>
     <t>TXL000286</t>
   </si>
   <si>
@@ -503,6 +554,9 @@
     <t>TXL000381</t>
   </si>
   <si>
+    <t>If passed, a Texas Technical Center for Innovative Desalination would be established at UT-El Paso. The center would partner with UT-San Antonio to desalinate water in the Gulf of Mexico, as well as certain groundwater. The center would also conduct research on desalination technology and methods.</t>
+  </si>
+  <si>
     <t>TXL000387</t>
   </si>
   <si>
@@ -512,7 +566,7 @@
     <t>TXL000378</t>
   </si>
   <si>
-    <t>TXB00037135</t>
+    <t>TXB00036732</t>
   </si>
   <si>
     <t>TXL000297</t>
@@ -521,12 +575,12 @@
     <t>TXL000320</t>
   </si>
   <si>
+    <t>If passed, an undocumented student would not be classifed as an in-state resident at a higher education institution, unless that student has completed 30 credit hours by the start of the 2015-2016 school year. Also, the student would not qualify for in-state tuition.</t>
+  </si>
+  <si>
     <t>TXL000253</t>
   </si>
   <si>
-    <t xml:space="preserve"> If passed, by April of each school year, schools would be required to administer an "assessment instrument" to 10th grade students as a diagnostic test and to determine if the student should  be enrolled in developmental courses. </t>
-  </si>
-  <si>
     <t>TXL000303</t>
   </si>
   <si>
@@ -536,31 +590,37 @@
     <t>TXL000228</t>
   </si>
   <si>
+    <t>TXB00036066</t>
+  </si>
+  <si>
     <t>TXL000391</t>
   </si>
   <si>
     <t>TXL000257</t>
   </si>
   <si>
+    <t>If passed, the bill would establish guidelines on how to interact with work contract bidders. This includes preventing higher education institutions from prohibiting, requiring, discouraging or encouraging a bidder from entering into a contract.</t>
+  </si>
+  <si>
     <t>TXL000278</t>
   </si>
   <si>
-    <t>TXB00036981</t>
-  </si>
-  <si>
     <t>TXL000360</t>
   </si>
   <si>
     <t>TXL000359</t>
   </si>
   <si>
+    <t>TXB00036175</t>
+  </si>
+  <si>
     <t>TXL000283</t>
   </si>
   <si>
     <t>TXL000223</t>
   </si>
   <si>
-    <t>If passed, nursing students at public, private and independent higher education institutions would continue to receive grants from the permanent fund for nursing education. The funding, if not renewed again at a later date, would last until Aug. 31, 2019.</t>
+    <t>If passed, Lamar State College-Orange would receive up to $12.5 million in revenue bonds to fund a multipurpose education building for its campus.</t>
   </si>
   <si>
     <t>TXL000363</t>
@@ -575,45 +635,48 @@
     <t>TXL000260</t>
   </si>
   <si>
+    <t>TXB00036118</t>
+  </si>
+  <si>
     <t>TXL000294</t>
   </si>
   <si>
-    <t>TXB00036751</t>
+    <t xml:space="preserve">If passed, the bill would create the University of Texas Rio Grande Valley. </t>
   </si>
   <si>
     <t>TXL000215</t>
   </si>
   <si>
-    <t>If passed, Texas State Technical College would be able to establish a branch of its system in Red Oak, Texas.</t>
-  </si>
-  <si>
     <t>TXL000318</t>
   </si>
   <si>
     <t>TXL000239</t>
   </si>
   <si>
+    <t>TXB00036268</t>
+  </si>
+  <si>
     <t>TXL000411</t>
   </si>
   <si>
+    <t xml:space="preserve">If passed, the UT System would receive up to $94.5 million in revenue bonds to fund a business administration complex at UT-El Paso. </t>
+  </si>
+  <si>
     <t>TXL000324</t>
   </si>
   <si>
     <t>TXL000296</t>
   </si>
   <si>
-    <t>TXB00037017</t>
-  </si>
-  <si>
     <t>TXL000329</t>
   </si>
   <si>
+    <t>TXB00036758</t>
+  </si>
+  <si>
     <t>TXL000299</t>
   </si>
   <si>
-    <t>If passed, government entities, including public higher education institutions, may not form a contract with or accept money from organizations that would aid the United Nations' Agenda 21.</t>
-  </si>
-  <si>
     <t>TXL000344</t>
   </si>
   <si>
@@ -623,9 +686,15 @@
     <t>TXL000307</t>
   </si>
   <si>
+    <t>TXB00036760</t>
+  </si>
+  <si>
     <t>TXL000242</t>
   </si>
   <si>
+    <t>If passed, massage therapy instruction schools that offer massage therapy licenses to their graduates would be classified as postsecondary education programs.</t>
+  </si>
+  <si>
     <t>TXL000315</t>
   </si>
   <si>
@@ -635,10 +704,13 @@
     <t>TXL000309</t>
   </si>
   <si>
+    <t>TXB00036771</t>
+  </si>
+  <si>
     <t>TXL000310</t>
   </si>
   <si>
-    <t>TXB00035461</t>
+    <t>If passed, the Texas Higher Education Coordinating Board would set a minimum score on assessment instruments to meet “basic academic skills education.” Higher education institutions could set up programs to assist students who do not meet this minimum score.</t>
   </si>
   <si>
     <t>TXL000352</t>
@@ -647,100 +719,28 @@
     <t>TXL000334</t>
   </si>
   <si>
-    <t xml:space="preserve">If passed, the state would regulate tuition to prevent tuition increase by more than a specified percentile amount each year. The bill would undo 2003's deregulation of tuition. </t>
+    <t>TXB00035250</t>
   </si>
   <si>
     <t>TXL000244</t>
   </si>
   <si>
+    <t>If passed, textbooks purchased by university students enrolled in private, public or independent higher education institutions would be exempt from sales tax for a week at the start of each semester.</t>
+  </si>
+  <si>
     <t>TXL000395</t>
   </si>
   <si>
+    <t>TXB00035319</t>
+  </si>
+  <si>
     <t>TXL000245</t>
   </si>
   <si>
+    <t xml:space="preserve">If passed, the state would regulate tuition to prevent tuition increase by more than a percentile amount each year. The bill would undo 2003's deregulation of tuition. </t>
+  </si>
+  <si>
     <t>TXL000219</t>
-  </si>
-  <si>
-    <t>TXB00037140</t>
-  </si>
-  <si>
-    <t>If passed, private college and university police departments would be recognized as a governmental body when looking at state public information laws, requiring these departments to release public information and remain transparent.</t>
-  </si>
-  <si>
-    <t>TXB00037141</t>
-  </si>
-  <si>
-    <t>If passed, Texas universities would not be allowed to issue revenue bonds, which are generally used to build new facilities, unless the universities meet requirements for building space utilization and online class enrollment.</t>
-  </si>
-  <si>
-    <t>TXB00036591</t>
-  </si>
-  <si>
-    <t>If passed, Department of Family and Protective Services employees who have been working with the department for at least one year could receive up to $2,500 per year for four years to help repay student loans.</t>
-  </si>
-  <si>
-    <t>TXB00036830</t>
-  </si>
-  <si>
-    <t>If passed, a Texas Technical Center for Innovative Desalination would be established at UT-El Paso. The center would partner with UT-San Antonio to desalinate water in the Gulf of Mexico, as well as certain groundwater. The center would also conduct research on desalination technology and methods.</t>
-  </si>
-  <si>
-    <t>TXB00036732</t>
-  </si>
-  <si>
-    <t>If passed, an undocumented student would not be classifed as an in-state resident at a higher education institution, unless that student has completed 30 credit hours by the start of the 2015-2016 school year. Also, the student would not qualify for in-state tuition.</t>
-  </si>
-  <si>
-    <t>TXB00036066</t>
-  </si>
-  <si>
-    <t>If passed, the bill would establish guidelines on how to interact with work contract bidders. This includes preventing higher education institutions from prohibiting, requiring, discouraging or encouraging a bidder from entering into a contract.</t>
-  </si>
-  <si>
-    <t>TXB00036175</t>
-  </si>
-  <si>
-    <t>If passed, Lamar State College-Orange would receive up to $12.5 million in revenue bonds to fund a multipurpose education building for its campus.</t>
-  </si>
-  <si>
-    <t>TXB00036118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If passed, the bill would create the University of Texas Rio Grande Valley. </t>
-  </si>
-  <si>
-    <t>TXB00036268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If passed, the UT System would receive up to $94.5 million in revenue bonds to fund a business administration complex at UT-El Paso. </t>
-  </si>
-  <si>
-    <t>TXB00036758</t>
-  </si>
-  <si>
-    <t>TXB00036760</t>
-  </si>
-  <si>
-    <t>If passed, massage therapy instruction schools that offer massage therapy licenses to their graduates would be classified as postsecondary education programs.</t>
-  </si>
-  <si>
-    <t>TXB00036771</t>
-  </si>
-  <si>
-    <t>If passed, the Texas Higher Education Coordinating Board would set a minimum score on assessment instruments to meet “basic academic skills education.” Higher education institutions could set up programs to assist students who do not meet this minimum score.</t>
-  </si>
-  <si>
-    <t>TXB00035250</t>
-  </si>
-  <si>
-    <t>If passed, textbooks purchased by university students enrolled in private, public or independent higher education institutions would be exempt from sales tax for a week at the start of each semester.</t>
-  </si>
-  <si>
-    <t>TXB00035319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If passed, the state would regulate tuition to prevent tuition increase by more than a percentile amount each year. The bill would undo 2003's deregulation of tuition. </t>
   </si>
   <si>
     <t>TXB00035175</t>
@@ -2045,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2094,10 +2094,10 @@
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2112,10 +2112,10 @@
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2130,10 +2130,10 @@
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -2147,11 +2147,11 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>152</v>
+      <c r="A6" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2166,10 +2166,10 @@
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2184,10 +2184,10 @@
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2202,10 +2202,10 @@
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2220,10 +2220,10 @@
     </row>
     <row r="10" spans="1:12" ht="13.5" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2237,11 +2237,11 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>202</v>
+      <c r="A11" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2292,10 +2292,10 @@
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2328,10 +2328,10 @@
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2346,10 +2346,10 @@
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2364,10 +2364,10 @@
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2382,10 +2382,10 @@
     </row>
     <row r="19" spans="1:12" ht="13.5" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2400,10 +2400,10 @@
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2418,10 +2418,10 @@
     </row>
     <row r="21" spans="1:12" ht="13.5" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2436,10 +2436,10 @@
     </row>
     <row r="22" spans="1:12" ht="13.5" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2454,10 +2454,10 @@
     </row>
     <row r="23" spans="1:12" ht="13.5" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="24" spans="1:12" ht="13.5" customHeight="1">
       <c r="A24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2565,7 +2565,7 @@
         <v>237</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -3105,7 +3105,7 @@
         <v>293</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -3393,7 +3393,7 @@
         <v>323</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -4941,7 +4941,7 @@
         <v>486</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -5084,7 +5084,7 @@
         <v>499</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -5219,7 +5219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -5313,172 +5313,172 @@
     </row>
     <row r="17" spans="1:1" ht="13.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="13.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="13.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="13.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="13.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="13.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="13.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="13.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="13.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="13.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="13.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="13.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="13.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="13.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="13.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="13.5" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="13.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="13.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="13.5" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="13.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="13.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="13.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="13.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="13.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="13.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="13.5" customHeight="1">
@@ -5508,637 +5508,637 @@
     </row>
     <row r="56" spans="1:1" ht="13.5" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="13.5" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="13.5" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="13.5" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="13.5" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="13.5" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="13.5" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="13.5" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="13.5" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="13.5" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="13.5" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="13.5" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="13.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="13.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="13.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="13.5" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="13.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="13.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="13.5" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="13.5" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="13.5" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="13.5" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="13.5" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="13.5" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="13.5" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="13.5" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="13.5" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="13.5" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="13.5" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="13.5" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="13.5" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="13.5" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="13.5" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="13.5" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="13.5" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="13.5" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="13.5" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="13.5" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="13.5" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="13.5" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="13.5" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="13.5" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="13.5" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="13.5" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="13.5" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="13.5" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="13.5" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="13.5" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="13.5" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="13.5" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="13.5" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="13.5" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="13.5" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="13.5" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="13.5" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="13.5" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="13.5" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="13.5" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="13.5" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="13.5" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="13.5" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="13.5" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="13.5" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="13.5" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="13.5" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="13.5" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="13.5" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="13.5" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="13.5" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="13.5" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="13.5" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="13.5" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="13.5" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="13.5" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="13.5" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="13.5" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="13.5" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="13.5" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="13.5" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="13.5" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="13.5" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="13.5" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="13.5" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="13.5" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="13.5" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="13.5" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="13.5" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="13.5" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="13.5" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="13.5" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="13.5" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="13.5" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="13.5" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="13.5" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="13.5" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="13.5" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="13.5" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="13.5" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="13.5" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="13.5" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="13.5" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="13.5" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="13.5" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="13.5" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="13.5" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="13.5" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="13.5" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="13.5" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="13.5" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="13.5" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="13.5" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="13.5" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="13.5" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="13.5" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="13.5" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="13.5" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="13.5" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="13.5" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="13.5" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="13.5" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="13.5" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="13.5" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="13.5" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="13.5" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="13.5" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="13.5" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="13.5" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/backend/copysheet.xlsx
+++ b/backend/copysheet.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="569">
   <si>
     <t>key</t>
   </si>
@@ -68,360 +68,684 @@
     <t>If passed, governmental entities, excluding higher education institutions, would not receive certain tax and fee discounts if, within the past two years, they've outsourced jobs that could be offered in the U.S.</t>
   </si>
   <si>
+    <t>TXB00036760</t>
+  </si>
+  <si>
+    <t>If passed, massage therapy instruction schools that offer massage therapy licenses to their graduates would be classified as postsecondary education programs.</t>
+  </si>
+  <si>
+    <t>TXB00036758</t>
+  </si>
+  <si>
+    <t>If passed, Texas State Technical College would be able to establish a branch of its system in Red Oak, Texas.</t>
+  </si>
+  <si>
     <t>Higher Education</t>
   </si>
   <si>
     <t>Special Note</t>
   </si>
   <si>
-    <t>TXB00036760</t>
-  </si>
-  <si>
-    <t>If passed, massage therapy instruction schools that offer massage therapy licenses to their graduates would be classified as postsecondary education programs.</t>
-  </si>
-  <si>
-    <t>TXB00036758</t>
-  </si>
-  <si>
-    <t>If passed, Texas State Technical College would be able to establish a branch of its system in Red Oak, Texas.</t>
-  </si>
-  <si>
     <t>TXB00036771</t>
   </si>
   <si>
     <t>If passed, the Texas Higher Education Coordinating Board would set a minimum score on assessment instruments to meet “basic academic skills education.” Higher education institutions could set up programs to assist students who do not meet this minimum score.</t>
   </si>
   <si>
+    <t>TXL000487</t>
+  </si>
+  <si>
+    <t>TXL000511</t>
+  </si>
+  <si>
+    <t>TXL000503</t>
+  </si>
+  <si>
+    <t>TXL000512</t>
+  </si>
+  <si>
+    <t>TXL000482</t>
+  </si>
+  <si>
+    <t>TXL000479</t>
+  </si>
+  <si>
+    <t>TXL000514</t>
+  </si>
+  <si>
+    <t>TXL000188</t>
+  </si>
+  <si>
+    <t>TXL000419</t>
+  </si>
+  <si>
+    <t>TXL000207</t>
+  </si>
+  <si>
+    <t>Feb. 24 was Van de Putte's last day as a member of the Texas Senate. Senator-elect José Menéndez (D-San Antonio) will replace her March 4.</t>
+  </si>
+  <si>
+    <t>TXL000473</t>
+  </si>
+  <si>
+    <t>TXL000478</t>
+  </si>
+  <si>
+    <t>TXL000198</t>
+  </si>
+  <si>
+    <t>TXL000200</t>
+  </si>
+  <si>
+    <t>TXL000206</t>
+  </si>
+  <si>
+    <t>TXL000189</t>
+  </si>
+  <si>
+    <t>TXL000213</t>
+  </si>
+  <si>
     <t>TXB00036830</t>
   </si>
   <si>
     <t>If passed, a Texas Technical Center for Innovative Desalination would be established at UT-El Paso. The center would partner with UT-San Antonio to desalinate water in the Gulf of Mexico, as well as certain groundwater. The center would also conduct research on desalination technology and methods.</t>
   </si>
   <si>
+    <t>TXL000199</t>
+  </si>
+  <si>
     <t>TXB00037141</t>
   </si>
   <si>
+    <t>TXL000210</t>
+  </si>
+  <si>
     <t>If passed, Texas universities would not be allowed to issue revenue bonds, which are generally used to build new facilities, unless the universities meet requirements for building space utilization and online class enrollment.</t>
   </si>
   <si>
+    <t>TXL000271</t>
+  </si>
+  <si>
+    <t>TXL000208</t>
+  </si>
+  <si>
+    <t>TXL000191</t>
+  </si>
+  <si>
+    <t>TXL000190</t>
+  </si>
+  <si>
+    <t>TXL000211</t>
+  </si>
+  <si>
     <t>TXB00037039</t>
   </si>
   <si>
+    <t>TXL000203</t>
+  </si>
+  <si>
+    <t>TXL000414</t>
+  </si>
+  <si>
+    <t>TXL000196</t>
+  </si>
+  <si>
+    <t>TXL000364</t>
+  </si>
+  <si>
+    <t>TXL000349</t>
+  </si>
+  <si>
+    <t>TXL000405</t>
+  </si>
+  <si>
+    <t>TXL000195</t>
+  </si>
+  <si>
+    <t>TXL000459</t>
+  </si>
+  <si>
+    <t>TXL000319</t>
+  </si>
+  <si>
+    <t>TXL000507</t>
+  </si>
+  <si>
+    <t>TXL000500</t>
+  </si>
+  <si>
+    <t>TXL000499</t>
+  </si>
+  <si>
+    <t>TXL000509</t>
+  </si>
+  <si>
+    <t>TXL000486</t>
+  </si>
+  <si>
+    <t>TXL000493</t>
+  </si>
+  <si>
+    <t>TXL000269</t>
+  </si>
+  <si>
+    <t>TXL000475</t>
+  </si>
+  <si>
+    <t>TXL000445</t>
+  </si>
+  <si>
     <t>If passed, higher education institutions would have to include veteran or military dependent information and benefits in enrollment data.</t>
   </si>
   <si>
+    <t>TXL000462</t>
+  </si>
+  <si>
+    <t>TXL000443</t>
+  </si>
+  <si>
+    <t>TXL000235</t>
+  </si>
+  <si>
+    <t>TXL000444</t>
+  </si>
+  <si>
+    <t>TXL000268</t>
+  </si>
+  <si>
+    <t>TXL000408</t>
+  </si>
+  <si>
     <t>TXB00035157</t>
   </si>
   <si>
+    <t>TXL000498</t>
+  </si>
+  <si>
+    <t>TXL000485</t>
+  </si>
+  <si>
+    <t>TXL000510</t>
+  </si>
+  <si>
     <t>If passed, veterans and their family members would be given preference on the $46 of designated tuition currently set aside from student tuition for financial assistance.</t>
   </si>
   <si>
+    <t>TXL000506</t>
+  </si>
+  <si>
+    <t>TXL000429</t>
+  </si>
+  <si>
+    <t>TXL000481</t>
+  </si>
+  <si>
+    <t>TXL000494</t>
+  </si>
+  <si>
+    <t>TXL000424</t>
+  </si>
+  <si>
+    <t>TXL000430</t>
+  </si>
+  <si>
+    <t>TXL000449</t>
+  </si>
+  <si>
+    <t>TXL000407</t>
+  </si>
+  <si>
+    <t>TXL000289</t>
+  </si>
+  <si>
+    <t>TXL000317</t>
+  </si>
+  <si>
+    <t>TXL000402</t>
+  </si>
+  <si>
+    <t>TXL000389</t>
+  </si>
+  <si>
+    <t>TXL000386</t>
+  </si>
+  <si>
+    <t>TXL000285</t>
+  </si>
+  <si>
+    <t>TXL000221</t>
+  </si>
+  <si>
+    <t>TXL000355</t>
+  </si>
+  <si>
+    <t>TXL000431</t>
+  </si>
+  <si>
+    <t>TXL000433</t>
+  </si>
+  <si>
+    <t>TXL000446</t>
+  </si>
+  <si>
+    <t>TXL000439</t>
+  </si>
+  <si>
+    <t>TXL000441</t>
+  </si>
+  <si>
+    <t>TXL000437</t>
+  </si>
+  <si>
+    <t>TXL000454</t>
+  </si>
+  <si>
+    <t>TXL000463</t>
+  </si>
+  <si>
+    <t>TXL000338</t>
+  </si>
+  <si>
+    <t>TXL000342</t>
+  </si>
+  <si>
+    <t>TXL000277</t>
+  </si>
+  <si>
+    <t>TXL000452</t>
+  </si>
+  <si>
+    <t>TXL000236</t>
+  </si>
+  <si>
+    <t>TXL000412</t>
+  </si>
+  <si>
     <t>TXB00035521</t>
   </si>
   <si>
+    <t>TXL000466</t>
+  </si>
+  <si>
+    <t>TXL000385</t>
+  </si>
+  <si>
+    <t>TXL000457</t>
+  </si>
+  <si>
     <t>If passed, qualified members of the state guard would receive up to 120 hours worth of tuition and fee exemption at an institute of higher education.</t>
   </si>
   <si>
+    <t>TXL000354</t>
+  </si>
+  <si>
+    <t>TXL000470</t>
+  </si>
+  <si>
+    <t>TXL000249</t>
+  </si>
+  <si>
+    <t>TXL000472</t>
+  </si>
+  <si>
+    <t>TXL000461</t>
+  </si>
+  <si>
+    <t>TXL000436</t>
+  </si>
+  <si>
+    <t>TXL000468</t>
+  </si>
+  <si>
+    <t>TXL000428</t>
+  </si>
+  <si>
+    <t>TXL000404</t>
+  </si>
+  <si>
+    <t>TXL000434</t>
+  </si>
+  <si>
+    <t>TXL000438</t>
+  </si>
+  <si>
+    <t>TXL000460</t>
+  </si>
+  <si>
+    <t>TXL000347</t>
+  </si>
+  <si>
+    <t>TXL000497</t>
+  </si>
+  <si>
+    <t>TXL000484</t>
+  </si>
+  <si>
     <t>TXB00037131</t>
   </si>
   <si>
+    <t>TXL000490</t>
+  </si>
+  <si>
     <t xml:space="preserve">If passed, UT-Dallas would receive no more than $194 million in additional revenue bonds to build an engineering building and a science building for the institution.  </t>
   </si>
   <si>
+    <t>TXL000483</t>
+  </si>
+  <si>
+    <t>TXL000496</t>
+  </si>
+  <si>
+    <t>TXL000492</t>
+  </si>
+  <si>
     <t>TXB00037168</t>
   </si>
   <si>
+    <t>TXL000480</t>
+  </si>
+  <si>
+    <t>TXL000491</t>
+  </si>
+  <si>
     <t>If passed, public higher education institutions would be required to include a course's average or median grade, depending on the course's grading system, next to students' grades on their transcripts. An exemption would be made for courses taken pass-fail and for courses with 10 or fewer students.</t>
   </si>
   <si>
+    <t>TXL000508</t>
+  </si>
+  <si>
+    <t>TXL000502</t>
+  </si>
+  <si>
+    <t>TXL000495</t>
+  </si>
+  <si>
+    <t>TXL000464</t>
+  </si>
+  <si>
     <t>TXB00037256</t>
   </si>
   <si>
+    <t>TXL000504</t>
+  </si>
+  <si>
+    <t>TXL000465</t>
+  </si>
+  <si>
+    <t>TXL000505</t>
+  </si>
+  <si>
     <t>If passed, certain speech-language pathologist and audiologist education loans may be funded by legislative appropriations and remaining funds collected by the State Board of Examiners for Speech-Language Pathology and Audiology.</t>
   </si>
   <si>
-    <t>TXL000487</t>
-  </si>
-  <si>
-    <t>TXL000511</t>
-  </si>
-  <si>
-    <t>TXL000503</t>
-  </si>
-  <si>
-    <t>TXL000512</t>
-  </si>
-  <si>
-    <t>TXL000482</t>
-  </si>
-  <si>
-    <t>TXL000479</t>
-  </si>
-  <si>
-    <t>TXL000514</t>
-  </si>
-  <si>
-    <t>TXL000188</t>
-  </si>
-  <si>
-    <t>TXL000419</t>
-  </si>
-  <si>
-    <t>TXL000207</t>
-  </si>
-  <si>
-    <t>Feb. 24 was Van de Putte's last day as a member of the Texas Senate. Senator-elect José Menéndez (D-San Antonio) will replace her March 4.</t>
-  </si>
-  <si>
-    <t>TXL000473</t>
-  </si>
-  <si>
-    <t>TXL000478</t>
-  </si>
-  <si>
-    <t>TXL000198</t>
-  </si>
-  <si>
-    <t>TXL000200</t>
-  </si>
-  <si>
-    <t>TXL000206</t>
-  </si>
-  <si>
-    <t>TXL000189</t>
-  </si>
-  <si>
-    <t>TXL000213</t>
+    <t>TXL000426</t>
+  </si>
+  <si>
+    <t>TXL000216</t>
+  </si>
+  <si>
+    <t>TXL000379</t>
+  </si>
+  <si>
+    <t>TXL000442</t>
+  </si>
+  <si>
+    <t>TXL000396</t>
+  </si>
+  <si>
+    <t>TXL000397</t>
+  </si>
+  <si>
+    <t>TXL000435</t>
+  </si>
+  <si>
+    <t>TXL000458</t>
+  </si>
+  <si>
+    <t>TXL000410</t>
+  </si>
+  <si>
+    <t>TXL000312</t>
+  </si>
+  <si>
+    <t>TXL000273</t>
+  </si>
+  <si>
+    <t>TXL000295</t>
+  </si>
+  <si>
+    <t>TXL000415</t>
+  </si>
+  <si>
+    <t>TXL000256</t>
+  </si>
+  <si>
+    <t>TXL000218</t>
+  </si>
+  <si>
+    <t>TXL000258</t>
+  </si>
+  <si>
+    <t>TXL000264</t>
   </si>
   <si>
     <t>TXB00035358</t>
   </si>
   <si>
+    <t>TXL000335</t>
+  </si>
+  <si>
+    <t>TXL000291</t>
+  </si>
+  <si>
     <t>If passed, no more than 20 hours completed while pursuing an associate’s degree, that do not apply to the student’s efforts on a baccalaureates degree, could be included in the funding formula for institutions of higher education.</t>
   </si>
   <si>
-    <t>TXL000199</t>
-  </si>
-  <si>
-    <t>TXL000210</t>
-  </si>
-  <si>
-    <t>TXL000271</t>
-  </si>
-  <si>
-    <t>TXL000208</t>
-  </si>
-  <si>
-    <t>TXL000191</t>
-  </si>
-  <si>
-    <t>TXL000190</t>
-  </si>
-  <si>
-    <t>TXL000211</t>
-  </si>
-  <si>
-    <t>TXL000203</t>
-  </si>
-  <si>
-    <t>TXL000414</t>
-  </si>
-  <si>
-    <t>TXL000196</t>
-  </si>
-  <si>
-    <t>TXL000364</t>
-  </si>
-  <si>
-    <t>TXL000349</t>
+    <t>TXL000373</t>
+  </si>
+  <si>
+    <t>TXL000265</t>
+  </si>
+  <si>
+    <t>TXL000293</t>
+  </si>
+  <si>
+    <t>TXL000247</t>
+  </si>
+  <si>
+    <t>TXL000286</t>
+  </si>
+  <si>
+    <t>TXL000241</t>
+  </si>
+  <si>
+    <t>TXL000381</t>
+  </si>
+  <si>
+    <t>TXL000387</t>
+  </si>
+  <si>
+    <t>TXL000331</t>
+  </si>
+  <si>
+    <t>TXL000378</t>
+  </si>
+  <si>
+    <t>TXL000297</t>
+  </si>
+  <si>
+    <t>TXL000320</t>
+  </si>
+  <si>
+    <t>TXL000253</t>
+  </si>
+  <si>
+    <t>TXL000303</t>
+  </si>
+  <si>
+    <t>TXL000325</t>
+  </si>
+  <si>
+    <t>TXL000228</t>
+  </si>
+  <si>
+    <t>TXL000391</t>
+  </si>
+  <si>
+    <t>TXL000257</t>
+  </si>
+  <si>
+    <t>TXL000278</t>
+  </si>
+  <si>
+    <t>TXL000360</t>
+  </si>
+  <si>
+    <t>TXL000359</t>
+  </si>
+  <si>
+    <t>TXL000283</t>
+  </si>
+  <si>
+    <t>TXL000223</t>
+  </si>
+  <si>
+    <t>TXL000363</t>
+  </si>
+  <si>
+    <t>TXL000358</t>
+  </si>
+  <si>
+    <t>TXL000308</t>
+  </si>
+  <si>
+    <t>TXL000260</t>
+  </si>
+  <si>
+    <t>TXL000294</t>
+  </si>
+  <si>
+    <t>TXL000215</t>
+  </si>
+  <si>
+    <t>TXL000318</t>
   </si>
   <si>
     <t>TXB00037206</t>
   </si>
   <si>
-    <t>TXL000405</t>
+    <t>TXL000239</t>
+  </si>
+  <si>
+    <t>TXL000411</t>
   </si>
   <si>
     <t>If passed, a person may carry a firearm, illegal knife, club or prohibited weapon on a public or private campus if the person has written authorization from the institution.</t>
   </si>
   <si>
-    <t>TXL000195</t>
-  </si>
-  <si>
-    <t>TXL000459</t>
-  </si>
-  <si>
-    <t>TXL000319</t>
+    <t>TXL000324</t>
+  </si>
+  <si>
+    <t>TXL000296</t>
+  </si>
+  <si>
+    <t>TXL000329</t>
+  </si>
+  <si>
+    <t>TXL000299</t>
+  </si>
+  <si>
+    <t>TXL000344</t>
   </si>
   <si>
     <t>TXB00037185</t>
   </si>
   <si>
-    <t>TXL000507</t>
-  </si>
-  <si>
-    <t>TXL000500</t>
+    <t>TXL000217</t>
+  </si>
+  <si>
+    <t>TXL000307</t>
+  </si>
+  <si>
+    <t>TXL000242</t>
   </si>
   <si>
     <t>If passed, the state would provide student loan repayment assistance to mental health professionals working as licensed physicians, psychologists, licensed counselors or advanced practice nurses, among other professions. The amount of repayment assistance increases with the number of years worked.</t>
   </si>
   <si>
-    <t>TXL000499</t>
-  </si>
-  <si>
-    <t>TXL000509</t>
+    <t>TXL000315</t>
+  </si>
+  <si>
+    <t>TXL000214</t>
+  </si>
+  <si>
+    <t>TXL000309</t>
+  </si>
+  <si>
+    <t>TXL000310</t>
+  </si>
+  <si>
+    <t>TXL000352</t>
   </si>
   <si>
     <t>TXB00037319</t>
   </si>
   <si>
-    <t>TXL000486</t>
-  </si>
-  <si>
-    <t>TXL000493</t>
+    <t>TXL000334</t>
+  </si>
+  <si>
+    <t>TXL000244</t>
+  </si>
+  <si>
+    <t>TXL000395</t>
   </si>
   <si>
     <t>If passed, the Texas A&amp;M University System would receive no more than $130 million in additional revenue bonds for Tarleton State University to fund an applied sciences building and a Southwest Metroplex medical building in Tarrant County.</t>
   </si>
   <si>
-    <t>TXL000269</t>
-  </si>
-  <si>
-    <t>TXL000475</t>
+    <t>TXL000245</t>
+  </si>
+  <si>
+    <t>TXL000219</t>
   </si>
   <si>
     <t>TXB00037346</t>
   </si>
   <si>
-    <t>TXL000445</t>
-  </si>
-  <si>
     <t>If passed, student regent applicants must apply through the university's student government for the position before the governor can consider the applicant for appointment.</t>
   </si>
   <si>
-    <t>TXL000462</t>
-  </si>
-  <si>
-    <t>TXL000443</t>
-  </si>
-  <si>
-    <t>TXL000235</t>
-  </si>
-  <si>
     <t>TXB00037321</t>
   </si>
   <si>
-    <t>TXL000444</t>
-  </si>
-  <si>
     <t>If passed, at least 70 percent of a higher education institution’s graduating class must have graduated with an associate's degree in a STEM field and be employed in the state in order for the school to remain eligible for the T-STEM Challenge Scholarship Program.</t>
   </si>
   <si>
-    <t>TXL000268</t>
-  </si>
-  <si>
-    <t>TXL000408</t>
-  </si>
-  <si>
-    <t>TXL000498</t>
-  </si>
-  <si>
     <t>TXB00037356</t>
   </si>
   <si>
-    <t>TXL000485</t>
-  </si>
-  <si>
     <t>If passed, public universities' websites must include a link to the Texas Consumer Resource for Education and Workforce Statistics report on gainful employment, which contains statistics on steady employment and pay for employees at the university.</t>
   </si>
   <si>
-    <t>TXL000510</t>
-  </si>
-  <si>
-    <t>TXL000506</t>
-  </si>
-  <si>
-    <t>TXL000429</t>
-  </si>
-  <si>
     <t>TXB00037335</t>
   </si>
   <si>
     <t>If passed, students under the legal drinking age could lawfully drink wine for certain courses in which wine tasting is necessary. The law would apply to public, private and career institutions of higher education.</t>
   </si>
   <si>
-    <t>TXL000481</t>
-  </si>
-  <si>
-    <t>TXL000494</t>
-  </si>
-  <si>
     <t>TXB00037481</t>
   </si>
   <si>
-    <t>TXL000424</t>
-  </si>
-  <si>
     <t>If passed, remaining B-On-Time loan funds, after the funds have been distributed to qualifying students, may be used to provide tuition exemptions to veterans and their family members.</t>
   </si>
   <si>
-    <t>TXL000430</t>
-  </si>
-  <si>
-    <t>TXL000449</t>
-  </si>
-  <si>
-    <t>TXL000407</t>
-  </si>
-  <si>
     <t>TXB00037627</t>
   </si>
   <si>
-    <t>TXL000289</t>
-  </si>
-  <si>
-    <t>TXL000317</t>
-  </si>
-  <si>
-    <t>TXL000402</t>
-  </si>
-  <si>
-    <t>TXL000389</t>
-  </si>
-  <si>
-    <t>TXL000386</t>
-  </si>
-  <si>
-    <t>TXL000285</t>
-  </si>
-  <si>
-    <t>TXL000221</t>
-  </si>
-  <si>
-    <t>TXL000355</t>
-  </si>
-  <si>
-    <t>TXL000431</t>
-  </si>
-  <si>
-    <t>TXL000433</t>
-  </si>
-  <si>
     <t>If passed, every two years, higher education institutions would try to find and implement more degrees in applied sciences and nursing that public junior colleges could offer.</t>
   </si>
   <si>
-    <t>TXL000446</t>
-  </si>
-  <si>
-    <t>TXL000439</t>
-  </si>
-  <si>
-    <t>TXL000441</t>
-  </si>
-  <si>
-    <t>TXL000437</t>
-  </si>
-  <si>
     <t>TXB00037606</t>
   </si>
   <si>
@@ -434,441 +758,117 @@
     <t>If passed, the Texas A&amp;M University System would receive no more than about $41 million in additional revenue bonds for Tarleton State University to fund a fabrication center and capital improvements, as well as an Innovation Commercialization Center for Entrepreneurs at Prairie View A&amp;M University.</t>
   </si>
   <si>
-    <t>TXL000454</t>
-  </si>
-  <si>
     <t>TXB00037671</t>
   </si>
   <si>
-    <t>TXL000463</t>
-  </si>
-  <si>
     <t>If passed, school districts' formulas for calculating the cost of attendance credits would be adjusted based on changes in tax revenue.</t>
   </si>
   <si>
-    <t>TXL000338</t>
-  </si>
-  <si>
-    <t>TXL000342</t>
-  </si>
-  <si>
     <t>TXB00037669</t>
   </si>
   <si>
-    <t>TXL000277</t>
-  </si>
-  <si>
     <t>If passed, public high schools may not limit dual credit eligibility to certain grade levels.</t>
   </si>
   <si>
-    <t>TXL000452</t>
-  </si>
-  <si>
-    <t>TXL000236</t>
-  </si>
-  <si>
-    <t>TXL000412</t>
-  </si>
-  <si>
-    <t>TXL000466</t>
-  </si>
-  <si>
     <t>TXB00037724</t>
   </si>
   <si>
-    <t>TXL000385</t>
-  </si>
-  <si>
-    <t>TXL000457</t>
-  </si>
-  <si>
     <t>If passed, the Texas Treasury Safekeeping Trust Company will provide grants to teaching hospitals. The grants will fund the Critical Shortage Physician Grant Program to provide graduate medical residency training.</t>
   </si>
   <si>
-    <t>TXL000354</t>
-  </si>
-  <si>
-    <t>TXL000470</t>
-  </si>
-  <si>
-    <t>TXL000249</t>
-  </si>
-  <si>
     <t>TXB00037699</t>
   </si>
   <si>
-    <t>TXL000472</t>
-  </si>
-  <si>
-    <t>TXL000461</t>
-  </si>
-  <si>
-    <t>TXL000436</t>
-  </si>
-  <si>
-    <t>TXL000468</t>
-  </si>
-  <si>
-    <t>TXL000428</t>
-  </si>
-  <si>
-    <t>TXL000404</t>
-  </si>
-  <si>
-    <t>TXL000434</t>
-  </si>
-  <si>
-    <t>TXL000438</t>
-  </si>
-  <si>
-    <t>TXL000460</t>
-  </si>
-  <si>
-    <t>TXL000347</t>
-  </si>
-  <si>
-    <t>TXL000497</t>
-  </si>
-  <si>
-    <t>TXL000484</t>
-  </si>
-  <si>
-    <t>TXL000490</t>
-  </si>
-  <si>
-    <t>TXL000483</t>
-  </si>
-  <si>
-    <t>TXL000496</t>
-  </si>
-  <si>
-    <t>TXL000492</t>
-  </si>
-  <si>
-    <t>TXL000480</t>
-  </si>
-  <si>
-    <t>TXL000491</t>
-  </si>
-  <si>
     <t>If passed, the Texas A&amp;M University System would receive no more than about $93 million in additional revenue bonds to fund a science, technology, engineering and math classroom building at Texas A&amp;M University-Kingsville.</t>
   </si>
   <si>
-    <t>TXL000508</t>
-  </si>
-  <si>
-    <t>TXL000502</t>
-  </si>
-  <si>
-    <t>TXL000495</t>
-  </si>
-  <si>
     <t>TXB00037763</t>
   </si>
   <si>
-    <t>TXL000464</t>
-  </si>
-  <si>
     <t>If passed, educational institutions would continue to receive discounts on telecommunication services through 2024.</t>
   </si>
   <si>
-    <t>TXL000504</t>
-  </si>
-  <si>
-    <t>TXL000465</t>
-  </si>
-  <si>
-    <t>TXL000505</t>
-  </si>
-  <si>
     <t>TXB00037719</t>
   </si>
   <si>
-    <t>TXL000426</t>
-  </si>
-  <si>
     <t>If passed, the Texas A&amp;M University System would receive no more than about $108 million in additional revenue bonds to fund a nursing and health sciences building, as well as a library and a "center for educational innovation and faculty development" at Texas A&amp;M University-Commerce.</t>
   </si>
   <si>
-    <t>TXL000216</t>
-  </si>
-  <si>
-    <t>TXL000379</t>
-  </si>
-  <si>
     <t>TXB00037762</t>
   </si>
   <si>
-    <t>TXL000442</t>
-  </si>
-  <si>
-    <t>TXL000396</t>
-  </si>
-  <si>
-    <t>TXL000397</t>
-  </si>
-  <si>
-    <t>TXL000435</t>
-  </si>
-  <si>
-    <t>TXL000458</t>
-  </si>
-  <si>
-    <t>TXL000410</t>
-  </si>
-  <si>
-    <t>TXL000312</t>
-  </si>
-  <si>
-    <t>TXL000273</t>
-  </si>
-  <si>
-    <t>TXL000295</t>
-  </si>
-  <si>
-    <t>TXL000415</t>
-  </si>
-  <si>
-    <t>TXL000256</t>
-  </si>
-  <si>
-    <t>TXL000218</t>
-  </si>
-  <si>
     <t>TXB00037707</t>
   </si>
   <si>
-    <t>TXL000258</t>
-  </si>
-  <si>
     <t>If passed, the University of Houston System would receive no more than about $34.2 million in additional revenue bonds to fund a health sciences and classroom building at the University of Houston-Clear Lake.</t>
   </si>
   <si>
-    <t>TXL000264</t>
-  </si>
-  <si>
     <t>TXB00037786</t>
   </si>
   <si>
-    <t>TXL000335</t>
-  </si>
-  <si>
-    <t>TXL000291</t>
-  </si>
-  <si>
     <t>If passed, the state will allocate funds to provide grants to teaching hospitals. The state would give this money to the Critical Shortage Physician Grant Program to provide graduate medical residency training.</t>
   </si>
   <si>
-    <t>TXL000373</t>
-  </si>
-  <si>
-    <t>TXL000265</t>
-  </si>
-  <si>
     <t>TXB00037927</t>
   </si>
   <si>
-    <t>TXL000293</t>
-  </si>
-  <si>
     <t>If passed, the Texas Higher Education Coordinating Board may not omit credit hours taken by a student in an accelerated baccalaureate program if the hours have been previously considered in certain state funding processes.</t>
   </si>
   <si>
-    <t>TXL000247</t>
-  </si>
-  <si>
-    <t>TXL000286</t>
-  </si>
-  <si>
-    <t>TXL000241</t>
-  </si>
-  <si>
     <t>TXB00037868</t>
   </si>
   <si>
-    <t>TXL000381</t>
-  </si>
-  <si>
-    <t>TXL000387</t>
-  </si>
-  <si>
-    <t>TXL000331</t>
-  </si>
-  <si>
     <t>If passed, the University of Houston System would receive no more than about $108.7 million in additional revenue bonds to fund a science and technology building at the University of Houston-Downtown.</t>
   </si>
   <si>
-    <t>TXL000378</t>
-  </si>
-  <si>
-    <t>TXL000297</t>
-  </si>
-  <si>
     <t>TXB00037901</t>
   </si>
   <si>
-    <t>TXL000320</t>
-  </si>
-  <si>
-    <t>TXL000253</t>
-  </si>
-  <si>
     <t>If passed, Texas Women’s University would be able to charge between $25 and $75 per student to assist in maintaining and financing student centers. The student body would have to vote on and approve the fee.</t>
   </si>
   <si>
-    <t>TXL000303</t>
-  </si>
-  <si>
-    <t>TXL000325</t>
-  </si>
-  <si>
     <t>TXB00037974</t>
   </si>
   <si>
-    <t>TXL000228</t>
-  </si>
-  <si>
     <t>If passed, minors or incapacitated people who are receiving money in a property lawsuit could use that money for a college savings fund if they don't have legal guardians.</t>
   </si>
   <si>
-    <t>TXL000391</t>
-  </si>
-  <si>
-    <t>TXL000257</t>
-  </si>
-  <si>
-    <t>TXL000278</t>
-  </si>
-  <si>
     <t>TXB00037997</t>
   </si>
   <si>
-    <t>TXL000360</t>
-  </si>
-  <si>
     <t>If passed, a district's chief appraiser would give lists of entities that professionally manage forests to people who are submitting written management plans for timber land.</t>
   </si>
   <si>
-    <t>TXL000359</t>
-  </si>
-  <si>
-    <t>TXL000283</t>
-  </si>
-  <si>
     <t>TXB00038073</t>
   </si>
   <si>
-    <t>TXL000223</t>
-  </si>
-  <si>
-    <t>TXL000363</t>
-  </si>
-  <si>
     <t>If passed, public junior colleges would offer block schedule options for degree and certificate plans to expedite graduation rates. Instead of enrolling in individual courses, students could enroll in a block of courses set for certain days. The bill says this would create “predictability from semester to semester.”</t>
   </si>
   <si>
-    <t>TXL000358</t>
-  </si>
-  <si>
-    <t>TXL000308</t>
-  </si>
-  <si>
     <t>TXB00038056</t>
   </si>
   <si>
-    <t>TXL000260</t>
-  </si>
-  <si>
     <t>If passed, a student who completes a college preparatory course would be exempt from the Texas Success Initiative assessment for a three-year period after the student graduates high school.</t>
   </si>
   <si>
-    <t>TXL000294</t>
-  </si>
-  <si>
-    <t>TXL000215</t>
-  </si>
-  <si>
-    <t>TXL000318</t>
-  </si>
-  <si>
-    <t>TXL000239</t>
-  </si>
-  <si>
-    <t>TXL000411</t>
-  </si>
-  <si>
-    <t>TXL000324</t>
-  </si>
-  <si>
-    <t>TXL000296</t>
-  </si>
-  <si>
-    <t>TXL000329</t>
-  </si>
-  <si>
-    <t>TXL000299</t>
-  </si>
-  <si>
-    <t>TXL000344</t>
-  </si>
-  <si>
-    <t>TXL000217</t>
-  </si>
-  <si>
-    <t>TXL000307</t>
-  </si>
-  <si>
-    <t>TXL000242</t>
-  </si>
-  <si>
-    <t>TXL000315</t>
-  </si>
-  <si>
     <t>TXB00038047</t>
   </si>
   <si>
-    <t>TXL000214</t>
-  </si>
-  <si>
     <t>If passed, higher education institutions would give students individualized score reports listing missed questions on the Texas Success Initiative assessment.</t>
   </si>
   <si>
-    <t>TXL000309</t>
-  </si>
-  <si>
-    <t>TXL000310</t>
-  </si>
-  <si>
     <t>TXB00038174</t>
   </si>
   <si>
-    <t>TXL000352</t>
-  </si>
-  <si>
-    <t>TXL000334</t>
-  </si>
-  <si>
     <t>If passed, a taxable entity that assists an employee in paying for college tuition or that is located in a Neighborhood Empowerment Zone, an incentive-based affordable housing neighborhood in Fort Worth, would be eligible for specific tax credits.</t>
   </si>
   <si>
-    <t>TXL000244</t>
-  </si>
-  <si>
-    <t>TXL000395</t>
-  </si>
-  <si>
     <t>TXB00038121</t>
   </si>
   <si>
-    <t>TXL000245</t>
-  </si>
-  <si>
     <t xml:space="preserve">If passed, students, faculty, staff and others on a college campus could keep firearms in vehicles without a concealed handgun license. </t>
   </si>
   <si>
-    <t>TXL000219</t>
-  </si>
-  <si>
     <t>TXB00038126</t>
   </si>
   <si>
@@ -1613,24 +1613,45 @@
     <t>TXB00038944</t>
   </si>
   <si>
+    <t>If passed, Blinn Junior College District's funding from its system will be determined by the number of contact hours taught on each campus and tuition and fees collected.</t>
+  </si>
+  <si>
     <t>TXB00039050</t>
   </si>
   <si>
+    <t xml:space="preserve">If passed, the UT System would receive no more than $67.5 million in additional revenue bonds to renovate Robert A. Welch Hall at UT-Austin. </t>
+  </si>
+  <si>
     <t>TXB00038602</t>
   </si>
   <si>
+    <t>If passed, police officers would be able to enforce ordinances against driving while using a mobile phone on higher education institutions' campuses.</t>
+  </si>
+  <si>
     <t>TXB00038647</t>
   </si>
   <si>
+    <t>If passed, the Texas Veterans Commission would require students receiving veteran-related tuition exemptions to pay back tuition if they lose eligibility for the exemption.</t>
+  </si>
+  <si>
     <t>TXB00038596</t>
   </si>
   <si>
+    <t>If passed, the UT System would receive no more than $114 million in additional revenue bonds to fund medical and dental education buildings and the School of Nursing at The University of Texas Health Science Center at San Antonio.</t>
+  </si>
+  <si>
     <t>TXB00038472</t>
   </si>
   <si>
+    <t>If passed, public high school counselors would have to mail information about the SAT and the ACT to the parents of high school juniors and seniors. This information would have to include upcoming administration dates for the tests, as well as test registration deadlines.</t>
+  </si>
+  <si>
     <t>TXB00038430</t>
   </si>
   <si>
+    <t>If passed, the Texas Department of Transportation would provide the University of Houston with land to use for “a purpose that benefits the public interest of the state.”</t>
+  </si>
+  <si>
     <t>TXB00038518</t>
   </si>
   <si>
@@ -1640,15 +1661,27 @@
     <t>TXB00038872</t>
   </si>
   <si>
+    <t>If passed, a three would be the minimum score for Advanced Placement credit at public higher education institutions.</t>
+  </si>
+  <si>
     <t>TXB00038784</t>
   </si>
   <si>
+    <t>If passed, college students would need a "specified and verifiable religious-based reason" to refrain from vaccination, rather than being able to refrain because of "reasons of conscience, including a religious belief." If a doctor says a vaccine would be detrimental to one's heath, this would still be an acceptable reason to refrain from vaccination.</t>
+  </si>
+  <si>
     <t>TXB00038720</t>
   </si>
   <si>
+    <t>If passed, open enrollment charter schools could operate on any campus of a public senior college, university or junior college across the state.</t>
+  </si>
+  <si>
     <t>TXB00038418</t>
   </si>
   <si>
+    <t>If passed, the Texas Southern University Board of Regents would receive no more than $85 million in additional revenue bonds to fund a library at Texas Southern University.</t>
+  </si>
+  <si>
     <t>TXB00038349</t>
   </si>
   <si>
@@ -1658,15 +1691,27 @@
     <t>TXB00039155</t>
   </si>
   <si>
+    <t>If passed, the Texas Southern University Board of Regents would receive no more than $42.5 million in additional revenue bonds to fund an interdisciplinary engineering and academic studies building at UT-Rio Grande Valley.</t>
+  </si>
+  <si>
     <t>TXB00039213</t>
   </si>
   <si>
+    <t>If passed, "centers of excellence for fetal care and healthy outcomes" would be established to provide comprehensive healthcare for pregnant women with high-risk pregnancies.</t>
+  </si>
+  <si>
     <t>TXB00039073</t>
   </si>
   <si>
+    <t>If passed, junior colleges would have to post detailed expenditure and financial reports on their official websites.</t>
+  </si>
+  <si>
     <t>TXB00039028</t>
   </si>
   <si>
+    <t>If passed, the legislature could allocate funds to the Math and Science Scholars Loan Repayment Program.</t>
+  </si>
+  <si>
     <t>TXB00039036</t>
   </si>
   <si>
@@ -1676,6 +1721,9 @@
     <t>TXB00038665</t>
   </si>
   <si>
+    <t>If passed, tuition inflations at most public universities would be determined by performance-based measures such as graduation rates, the percentage of undergraduate hours taught and the amount of research funding.</t>
+  </si>
+  <si>
     <t>TXB00038394</t>
   </si>
   <si>
@@ -1706,7 +1754,13 @@
     <t>TXB00039092</t>
   </si>
   <si>
+    <t>If passed, revenue remaining from wine sales tax could be used to fund higher education research related to wine production.</t>
+  </si>
+  <si>
     <t>TXB00038926</t>
+  </si>
+  <si>
+    <t>If passed, the Texas Constitution would be amended to allow the state comptroller to dedicate certain excess revenue funds to state programs such as retirement systems, including healthcare plans for retired educators and their dependents, as well as the Texas Tomorrow Fund and the permanent school and university funds.</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1809,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1766,12 +1820,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1794,20 +1842,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1823,26 +1872,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2233,8 +2273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L284"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -2266,7 +2306,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
@@ -2282,10 +2322,10 @@
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2300,10 +2340,10 @@
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2320,7 +2360,7 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2"/>
@@ -2336,10 +2376,10 @@
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2354,10 +2394,10 @@
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2371,11 +2411,11 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
+      <c r="A8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2390,10 +2430,10 @@
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2408,10 +2448,10 @@
     </row>
     <row r="10" spans="1:12" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>102</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2426,10 +2466,10 @@
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>122</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2444,10 +2484,10 @@
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>128</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2461,11 +2501,11 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>27</v>
+      <c r="A13" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2480,10 +2520,10 @@
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>47</v>
+        <v>158</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2497,11 +2537,11 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>62</v>
+      <c r="A15" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2515,11 +2555,11 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>69</v>
+      <c r="A16" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2533,11 +2573,11 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>75</v>
+      <c r="A17" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2551,11 +2591,11 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>80</v>
+      <c r="A18" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2570,10 +2610,10 @@
     </row>
     <row r="19" spans="1:12" ht="13.5" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>86</v>
+        <v>220</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>221</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2587,11 +2627,11 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>92</v>
+      <c r="A20" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2605,11 +2645,11 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>97</v>
+      <c r="A21" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2623,11 +2663,11 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>102</v>
+      <c r="A22" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2641,11 +2681,11 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>106</v>
+      <c r="A23" s="11" t="s">
+        <v>228</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2659,11 +2699,11 @@
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>123</v>
+      <c r="A24" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2677,11 +2717,11 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>125</v>
+      <c r="A25" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2695,11 +2735,11 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>129</v>
+      <c r="A26" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2713,11 +2753,11 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>134</v>
+      <c r="A27" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2731,11 +2771,11 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>142</v>
+      <c r="A28" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>239</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2749,29 +2789,29 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A29" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="A29" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>171</v>
+      <c r="A30" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2785,11 +2825,11 @@
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>177</v>
+      <c r="A31" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2803,11 +2843,11 @@
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>129</v>
+      <c r="A32" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2821,11 +2861,11 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>195</v>
+      <c r="A33" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>248</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2840,10 +2880,10 @@
     </row>
     <row r="34" spans="1:12" ht="13.5" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>200</v>
+        <v>249</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2857,11 +2897,11 @@
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>205</v>
+      <c r="A35" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>252</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2875,11 +2915,11 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>213</v>
+      <c r="A36" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2893,11 +2933,11 @@
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>219</v>
+      <c r="A37" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2911,11 +2951,11 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>224</v>
+      <c r="A38" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>258</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2929,11 +2969,11 @@
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A39" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>230</v>
+      <c r="A39" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2948,10 +2988,10 @@
     </row>
     <row r="40" spans="1:12" ht="13.5" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>236</v>
+        <v>261</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>262</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2965,29 +3005,29 @@
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
+      <c r="A41" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
     </row>
     <row r="42" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>258</v>
+      <c r="A42" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>266</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -3001,11 +3041,11 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>264</v>
+      <c r="A43" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>268</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3020,10 +3060,10 @@
     </row>
     <row r="44" spans="1:12" ht="13.5" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B44" s="4" t="s">
         <v>269</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3040,25 +3080,25 @@
       <c r="A45" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
     </row>
     <row r="46" spans="1:12" ht="13.5" customHeight="1">
       <c r="A46" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="11" t="s">
         <v>274</v>
       </c>
       <c r="C46" s="2"/>
@@ -3073,10 +3113,10 @@
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="11" t="s">
         <v>276</v>
       </c>
       <c r="C47" s="2"/>
@@ -3094,7 +3134,7 @@
       <c r="A48" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="11" t="s">
         <v>278</v>
       </c>
       <c r="C48" s="2"/>
@@ -3112,7 +3152,7 @@
       <c r="A49" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="11" t="s">
         <v>280</v>
       </c>
       <c r="C49" s="2"/>
@@ -3130,7 +3170,7 @@
       <c r="A50" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="11" t="s">
         <v>282</v>
       </c>
       <c r="C50" s="2"/>
@@ -3148,7 +3188,7 @@
       <c r="A51" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="11" t="s">
         <v>284</v>
       </c>
       <c r="C51" s="2"/>
@@ -3166,7 +3206,7 @@
       <c r="A52" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>286</v>
       </c>
       <c r="C52" s="2"/>
@@ -3220,7 +3260,7 @@
       <c r="A55" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="11" t="s">
         <v>292</v>
       </c>
       <c r="C55" s="2"/>
@@ -3310,25 +3350,25 @@
       <c r="A60" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
     </row>
     <row r="61" spans="1:12" ht="13.5" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>304</v>
       </c>
       <c r="C61" s="2"/>
@@ -3346,7 +3386,7 @@
       <c r="A62" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C62" s="2"/>
@@ -3364,7 +3404,7 @@
       <c r="A63" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="11" t="s">
         <v>308</v>
       </c>
       <c r="C63" s="2"/>
@@ -3436,7 +3476,7 @@
       <c r="A67" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="11" t="s">
         <v>316</v>
       </c>
       <c r="C67" s="2"/>
@@ -3490,7 +3530,7 @@
       <c r="A70" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="11" t="s">
         <v>322</v>
       </c>
       <c r="C70" s="2"/>
@@ -3508,7 +3548,7 @@
       <c r="A71" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="11" t="s">
         <v>324</v>
       </c>
       <c r="C71" s="2"/>
@@ -3598,7 +3638,7 @@
       <c r="A76" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="11" t="s">
         <v>333</v>
       </c>
       <c r="C76" s="2"/>
@@ -3670,7 +3710,7 @@
       <c r="A80" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="11" t="s">
         <v>341</v>
       </c>
       <c r="C80" s="2"/>
@@ -3688,7 +3728,7 @@
       <c r="A81" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="11" t="s">
         <v>343</v>
       </c>
       <c r="C81" s="2"/>
@@ -3760,7 +3800,7 @@
       <c r="A85" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C85" s="2"/>
@@ -3778,19 +3818,19 @@
       <c r="A86" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
     </row>
     <row r="87" spans="1:12" ht="13.5" customHeight="1">
       <c r="A87" s="1" t="s">
@@ -3832,7 +3872,7 @@
       <c r="A89" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>358</v>
       </c>
       <c r="C89" s="2"/>
@@ -3850,19 +3890,19 @@
       <c r="A90" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="13"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
     </row>
     <row r="91" spans="1:12" ht="13.5" customHeight="1">
       <c r="A91" s="1" t="s">
@@ -3871,16 +3911,16 @@
       <c r="B91" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
     </row>
     <row r="92" spans="1:12" ht="13.5" customHeight="1">
       <c r="A92" s="1" t="s">
@@ -3904,7 +3944,7 @@
       <c r="A93" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="11" t="s">
         <v>366</v>
       </c>
       <c r="C93" s="2"/>
@@ -3922,7 +3962,7 @@
       <c r="A94" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="11" t="s">
         <v>368</v>
       </c>
       <c r="C94" s="2"/>
@@ -3994,7 +4034,7 @@
       <c r="A98" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>376</v>
       </c>
       <c r="C98" s="2"/>
@@ -4048,7 +4088,7 @@
       <c r="A101" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="11" t="s">
         <v>382</v>
       </c>
       <c r="C101" s="2"/>
@@ -4084,37 +4124,37 @@
       <c r="A103" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
-      <c r="J103" s="13"/>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
     </row>
     <row r="104" spans="1:12" ht="13.5" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
     </row>
     <row r="105" spans="1:12" ht="13.5" customHeight="1">
       <c r="A105" s="1" t="s">
@@ -4174,7 +4214,7 @@
       <c r="A108" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="16" t="s">
         <v>396</v>
       </c>
       <c r="C108" s="2"/>
@@ -4228,7 +4268,7 @@
       <c r="A111" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="3" t="s">
         <v>402</v>
       </c>
       <c r="C111" s="2"/>
@@ -4246,7 +4286,7 @@
       <c r="A112" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="3" t="s">
         <v>404</v>
       </c>
       <c r="C112" s="2"/>
@@ -4300,7 +4340,7 @@
       <c r="A115" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B115" s="17" t="s">
+      <c r="B115" s="18" t="s">
         <v>409</v>
       </c>
       <c r="C115" s="2"/>
@@ -4318,7 +4358,7 @@
       <c r="A116" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>411</v>
       </c>
       <c r="C116" s="2"/>
@@ -4333,10 +4373,10 @@
       <c r="L116" s="2"/>
     </row>
     <row r="117" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>413</v>
       </c>
       <c r="C117" s="2"/>
@@ -4354,7 +4394,7 @@
       <c r="A118" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="3" t="s">
         <v>415</v>
       </c>
       <c r="C118" s="2"/>
@@ -4390,7 +4430,7 @@
       <c r="A120" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="3" t="s">
         <v>418</v>
       </c>
       <c r="C120" s="2"/>
@@ -4444,7 +4484,7 @@
       <c r="A123" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="13" t="s">
         <v>390</v>
       </c>
       <c r="C123" s="2"/>
@@ -4462,7 +4502,7 @@
       <c r="A124" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>425</v>
       </c>
       <c r="C124" s="2"/>
@@ -4498,7 +4538,7 @@
       <c r="A126" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>308</v>
       </c>
       <c r="C126" s="2"/>
@@ -4516,7 +4556,7 @@
       <c r="A127" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="11" t="s">
         <v>430</v>
       </c>
       <c r="C127" s="2"/>
@@ -4552,7 +4592,7 @@
       <c r="A129" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B129" s="17" t="s">
         <v>434</v>
       </c>
       <c r="C129" s="2"/>
@@ -4588,7 +4628,7 @@
       <c r="A131" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="3" t="s">
         <v>438</v>
       </c>
       <c r="C131" s="2"/>
@@ -4624,8 +4664,8 @@
       <c r="A133" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>69</v>
+      <c r="B133" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -4642,7 +4682,7 @@
       <c r="A134" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="11" t="s">
         <v>442</v>
       </c>
       <c r="C134" s="2"/>
@@ -4660,7 +4700,7 @@
       <c r="A135" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="3" t="s">
         <v>420</v>
       </c>
       <c r="C135" s="2"/>
@@ -4678,7 +4718,7 @@
       <c r="A136" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C136" s="2"/>
@@ -4696,7 +4736,7 @@
       <c r="A137" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="3" t="s">
         <v>372</v>
       </c>
       <c r="C137" s="2"/>
@@ -4714,7 +4754,7 @@
       <c r="A138" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="3" t="s">
         <v>447</v>
       </c>
       <c r="C138" s="2"/>
@@ -4732,8 +4772,8 @@
       <c r="A139" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>117</v>
+      <c r="B139" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -4750,7 +4790,7 @@
       <c r="A140" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="3" t="s">
         <v>335</v>
       </c>
       <c r="C140" s="2"/>
@@ -4768,7 +4808,7 @@
       <c r="A141" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="3" t="s">
         <v>451</v>
       </c>
       <c r="C141" s="2"/>
@@ -4786,7 +4826,7 @@
       <c r="A142" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="3" t="s">
         <v>453</v>
       </c>
       <c r="C142" s="2"/>
@@ -4804,7 +4844,7 @@
       <c r="A143" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="11" t="s">
         <v>455</v>
       </c>
       <c r="C143" s="2"/>
@@ -4822,7 +4862,7 @@
       <c r="A144" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="3" t="s">
         <v>413</v>
       </c>
       <c r="C144" s="2"/>
@@ -4837,10 +4877,10 @@
       <c r="L144" s="2"/>
     </row>
     <row r="145" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="3" t="s">
         <v>458</v>
       </c>
       <c r="C145" s="2"/>
@@ -4876,7 +4916,7 @@
       <c r="A147" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="3" t="s">
         <v>462</v>
       </c>
       <c r="C147" s="2"/>
@@ -4894,7 +4934,7 @@
       <c r="A148" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="3" t="s">
         <v>464</v>
       </c>
       <c r="C148" s="2"/>
@@ -4912,7 +4952,7 @@
       <c r="A149" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B149" s="15" t="s">
+      <c r="B149" s="16" t="s">
         <v>466</v>
       </c>
       <c r="C149" s="2"/>
@@ -4948,7 +4988,7 @@
       <c r="A151" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="3" t="s">
         <v>470</v>
       </c>
       <c r="C151" s="2"/>
@@ -4984,7 +5024,7 @@
       <c r="A153" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B153" s="15" t="s">
+      <c r="B153" s="16" t="s">
         <v>474</v>
       </c>
       <c r="C153" s="2"/>
@@ -5002,7 +5042,7 @@
       <c r="A154" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="11" t="s">
         <v>476</v>
       </c>
       <c r="C154" s="2"/>
@@ -5038,7 +5078,7 @@
       <c r="A156" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C156" s="2"/>
@@ -5056,7 +5096,7 @@
       <c r="A157" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="3" t="s">
         <v>482</v>
       </c>
       <c r="C157" s="2"/>
@@ -5074,7 +5114,7 @@
       <c r="A158" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="3" t="s">
         <v>484</v>
       </c>
       <c r="C158" s="2"/>
@@ -5092,8 +5132,8 @@
       <c r="A159" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>9</v>
+      <c r="B159" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -5110,7 +5150,7 @@
       <c r="A160" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B160" s="12" t="s">
+      <c r="B160" s="13" t="s">
         <v>316</v>
       </c>
       <c r="C160" s="2"/>
@@ -5128,10 +5168,10 @@
       <c r="A161" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C161" s="8"/>
+      <c r="C161" s="11"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -5146,7 +5186,7 @@
       <c r="A162" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="3" t="s">
         <v>272</v>
       </c>
       <c r="C162" s="2"/>
@@ -5200,7 +5240,7 @@
       <c r="A165" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="3" t="s">
         <v>495</v>
       </c>
       <c r="C165" s="2"/>
@@ -5218,8 +5258,8 @@
       <c r="A166" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="B166" s="4" t="s">
-        <v>25</v>
+      <c r="B166" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -5236,7 +5276,7 @@
       <c r="A167" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B167" s="11" t="s">
         <v>498</v>
       </c>
       <c r="C167" s="2"/>
@@ -5272,8 +5312,8 @@
       <c r="A169" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B169" s="8" t="s">
-        <v>219</v>
+      <c r="B169" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -5290,7 +5330,7 @@
       <c r="A170" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="11" t="s">
         <v>503</v>
       </c>
       <c r="C170" s="2"/>
@@ -5305,154 +5345,156 @@
       <c r="L170" s="2"/>
     </row>
     <row r="171" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A171" s="18" t="s">
+      <c r="A171" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="B171" s="19" t="s">
+      <c r="B171" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="C171" s="20"/>
-      <c r="D171" s="20"/>
-      <c r="E171" s="20"/>
-      <c r="F171" s="20"/>
-      <c r="G171" s="20"/>
-      <c r="H171" s="20"/>
-      <c r="I171" s="20"/>
-      <c r="J171" s="20"/>
-      <c r="K171" s="20"/>
-      <c r="L171" s="20"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="2"/>
     </row>
     <row r="172" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A172" s="21" t="s">
+      <c r="A172" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="B172" s="22" t="s">
+      <c r="B172" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="C172" s="20"/>
-      <c r="D172" s="20"/>
-      <c r="E172" s="20"/>
-      <c r="F172" s="20"/>
-      <c r="G172" s="20"/>
-      <c r="H172" s="20"/>
-      <c r="I172" s="20"/>
-      <c r="J172" s="20"/>
-      <c r="K172" s="20"/>
-      <c r="L172" s="20"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
     </row>
     <row r="173" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A173" s="23" t="s">
+      <c r="A173" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="B173" s="24" t="s">
+      <c r="B173" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="C173" s="20"/>
-      <c r="D173" s="20"/>
-      <c r="E173" s="20"/>
-      <c r="F173" s="20"/>
-      <c r="G173" s="20"/>
-      <c r="H173" s="20"/>
-      <c r="I173" s="20"/>
-      <c r="J173" s="20"/>
-      <c r="K173" s="20"/>
-      <c r="L173" s="20"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="2"/>
     </row>
     <row r="174" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A174" s="23" t="s">
+      <c r="A174" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="B174" s="25" t="s">
+      <c r="B174" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C174" s="20"/>
-      <c r="D174" s="20"/>
-      <c r="E174" s="20"/>
-      <c r="F174" s="20"/>
-      <c r="G174" s="20"/>
-      <c r="H174" s="20"/>
-      <c r="I174" s="20"/>
-      <c r="J174" s="20"/>
-      <c r="K174" s="20"/>
-      <c r="L174" s="20"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
     </row>
     <row r="175" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A175" s="23" t="s">
+      <c r="A175" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="B175" s="26" t="s">
+      <c r="B175" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="C175" s="20"/>
-      <c r="D175" s="20"/>
-      <c r="E175" s="20"/>
-      <c r="F175" s="20"/>
-      <c r="G175" s="20"/>
-      <c r="H175" s="20"/>
-      <c r="I175" s="20"/>
-      <c r="J175" s="20"/>
-      <c r="K175" s="20"/>
-      <c r="L175" s="20"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
     </row>
     <row r="176" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A176" s="23" t="s">
+      <c r="A176" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="B176" s="24" t="s">
+      <c r="B176" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="C176" s="20"/>
-      <c r="D176" s="20"/>
-      <c r="E176" s="20"/>
-      <c r="F176" s="20"/>
-      <c r="G176" s="20"/>
-      <c r="H176" s="20"/>
-      <c r="I176" s="20"/>
-      <c r="J176" s="20"/>
-      <c r="K176" s="20"/>
-      <c r="L176" s="20"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
     </row>
     <row r="177" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A177" s="23" t="s">
+      <c r="A177" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="B177" s="25" t="s">
+      <c r="B177" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C177" s="20"/>
-      <c r="D177" s="20"/>
-      <c r="E177" s="20"/>
-      <c r="F177" s="20"/>
-      <c r="G177" s="20"/>
-      <c r="H177" s="20"/>
-      <c r="I177" s="20"/>
-      <c r="J177" s="20"/>
-      <c r="K177" s="20"/>
-      <c r="L177" s="20"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
     </row>
     <row r="178" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A178" s="23" t="s">
+      <c r="A178" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="B178" s="24" t="s">
+      <c r="B178" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="C178" s="20"/>
-      <c r="D178" s="20"/>
-      <c r="E178" s="20"/>
-      <c r="F178" s="20"/>
-      <c r="G178" s="20"/>
-      <c r="H178" s="20"/>
-      <c r="I178" s="20"/>
-      <c r="J178" s="20"/>
-      <c r="K178" s="20"/>
-      <c r="L178" s="20"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
     </row>
     <row r="179" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A179" s="27" t="s">
+      <c r="A179" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="B179" s="4"/>
+      <c r="B179" s="21" t="s">
+        <v>519</v>
+      </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -5465,10 +5507,12 @@
       <c r="L179" s="2"/>
     </row>
     <row r="180" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A180" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="B180" s="28"/>
+      <c r="A180" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="B180" s="21" t="s">
+        <v>521</v>
+      </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -5481,10 +5525,12 @@
       <c r="L180" s="2"/>
     </row>
     <row r="181" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A181" s="27" t="s">
-        <v>520</v>
-      </c>
-      <c r="B181" s="4"/>
+      <c r="A181" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="B181" s="21" t="s">
+        <v>523</v>
+      </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -5497,10 +5543,12 @@
       <c r="L181" s="2"/>
     </row>
     <row r="182" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A182" s="27" t="s">
-        <v>521</v>
-      </c>
-      <c r="B182" s="29"/>
+      <c r="A182" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="B182" s="21" t="s">
+        <v>525</v>
+      </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -5513,10 +5561,12 @@
       <c r="L182" s="2"/>
     </row>
     <row r="183" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A183" s="27" t="s">
-        <v>522</v>
-      </c>
-      <c r="B183" s="29"/>
+      <c r="A183" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="B183" s="21" t="s">
+        <v>527</v>
+      </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -5529,10 +5579,12 @@
       <c r="L183" s="2"/>
     </row>
     <row r="184" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A184" s="27" t="s">
-        <v>523</v>
-      </c>
-      <c r="B184" s="28"/>
+      <c r="A184" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="B184" s="21" t="s">
+        <v>529</v>
+      </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -5545,10 +5597,12 @@
       <c r="L184" s="2"/>
     </row>
     <row r="185" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A185" s="27" t="s">
-        <v>524</v>
-      </c>
-      <c r="B185" s="29"/>
+      <c r="A185" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="B185" s="21" t="s">
+        <v>531</v>
+      </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -5561,28 +5615,30 @@
       <c r="L185" s="2"/>
     </row>
     <row r="186" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A186" s="23" t="s">
-        <v>525</v>
-      </c>
-      <c r="B186" s="25" t="s">
-        <v>526</v>
-      </c>
-      <c r="C186" s="20"/>
-      <c r="D186" s="20"/>
-      <c r="E186" s="20"/>
-      <c r="F186" s="20"/>
-      <c r="G186" s="20"/>
-      <c r="H186" s="20"/>
-      <c r="I186" s="20"/>
-      <c r="J186" s="20"/>
-      <c r="K186" s="20"/>
-      <c r="L186" s="20"/>
+      <c r="A186" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
+      <c r="K186" s="2"/>
+      <c r="L186" s="2"/>
     </row>
     <row r="187" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A187" s="27" t="s">
-        <v>527</v>
-      </c>
-      <c r="B187" s="29"/>
+      <c r="A187" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="B187" s="21" t="s">
+        <v>535</v>
+      </c>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -5595,10 +5651,12 @@
       <c r="L187" s="2"/>
     </row>
     <row r="188" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A188" s="27" t="s">
-        <v>528</v>
-      </c>
-      <c r="B188" s="4"/>
+      <c r="A188" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>537</v>
+      </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -5611,10 +5669,12 @@
       <c r="L188" s="2"/>
     </row>
     <row r="189" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A189" s="27" t="s">
-        <v>529</v>
-      </c>
-      <c r="B189" s="29"/>
+      <c r="A189" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="B189" s="21" t="s">
+        <v>539</v>
+      </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -5627,10 +5687,12 @@
       <c r="L189" s="2"/>
     </row>
     <row r="190" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A190" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="B190" s="29"/>
+      <c r="A190" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="B190" s="21" t="s">
+        <v>541</v>
+      </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -5643,28 +5705,30 @@
       <c r="L190" s="2"/>
     </row>
     <row r="191" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A191" s="23" t="s">
-        <v>531</v>
-      </c>
-      <c r="B191" s="25" t="s">
-        <v>532</v>
-      </c>
-      <c r="C191" s="20"/>
-      <c r="D191" s="20"/>
-      <c r="E191" s="20"/>
-      <c r="F191" s="20"/>
-      <c r="G191" s="20"/>
-      <c r="H191" s="20"/>
-      <c r="I191" s="20"/>
-      <c r="J191" s="20"/>
-      <c r="K191" s="20"/>
-      <c r="L191" s="20"/>
+      <c r="A191" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
     </row>
     <row r="192" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A192" s="27" t="s">
-        <v>533</v>
-      </c>
-      <c r="B192" s="29"/>
+      <c r="A192" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="B192" s="21" t="s">
+        <v>545</v>
+      </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -5677,10 +5741,12 @@
       <c r="L192" s="2"/>
     </row>
     <row r="193" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A193" s="27" t="s">
-        <v>534</v>
-      </c>
-      <c r="B193" s="29"/>
+      <c r="A193" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="B193" s="21" t="s">
+        <v>547</v>
+      </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -5693,10 +5759,12 @@
       <c r="L193" s="2"/>
     </row>
     <row r="194" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A194" s="27" t="s">
-        <v>535</v>
-      </c>
-      <c r="B194" s="29"/>
+      <c r="A194" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="B194" s="21" t="s">
+        <v>549</v>
+      </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -5709,10 +5777,12 @@
       <c r="L194" s="2"/>
     </row>
     <row r="195" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A195" s="27" t="s">
-        <v>536</v>
-      </c>
-      <c r="B195" s="29"/>
+      <c r="A195" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="B195" s="21" t="s">
+        <v>551</v>
+      </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -5725,46 +5795,48 @@
       <c r="L195" s="2"/>
     </row>
     <row r="196" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A196" s="23" t="s">
-        <v>537</v>
-      </c>
-      <c r="B196" s="25" t="s">
+      <c r="A196" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C196" s="20"/>
-      <c r="D196" s="20"/>
-      <c r="E196" s="20"/>
-      <c r="F196" s="20"/>
-      <c r="G196" s="20"/>
-      <c r="H196" s="20"/>
-      <c r="I196" s="20"/>
-      <c r="J196" s="20"/>
-      <c r="K196" s="20"/>
-      <c r="L196" s="20"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
     </row>
     <row r="197" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A197" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="B197" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="C197" s="19"/>
-      <c r="D197" s="20"/>
-      <c r="E197" s="20"/>
-      <c r="F197" s="20"/>
-      <c r="G197" s="20"/>
-      <c r="H197" s="20"/>
-      <c r="I197" s="20"/>
-      <c r="J197" s="20"/>
-      <c r="K197" s="20"/>
-      <c r="L197" s="20"/>
+      <c r="A197" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C197" s="11"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
     </row>
     <row r="198" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A198" s="27" t="s">
-        <v>539</v>
-      </c>
-      <c r="B198" s="29"/>
+      <c r="A198" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>555</v>
+      </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -5777,118 +5849,120 @@
       <c r="L198" s="2"/>
     </row>
     <row r="199" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A199" s="23" t="s">
-        <v>540</v>
-      </c>
-      <c r="B199" s="25" t="s">
+      <c r="A199" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C199" s="20"/>
-      <c r="D199" s="20"/>
-      <c r="E199" s="20"/>
-      <c r="F199" s="20"/>
-      <c r="G199" s="20"/>
-      <c r="H199" s="20"/>
-      <c r="I199" s="20"/>
-      <c r="J199" s="20"/>
-      <c r="K199" s="20"/>
-      <c r="L199" s="20"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
     </row>
     <row r="200" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A200" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="B200" s="25" t="s">
-        <v>542</v>
-      </c>
-      <c r="C200" s="20"/>
-      <c r="D200" s="20"/>
-      <c r="E200" s="20"/>
-      <c r="F200" s="20"/>
-      <c r="G200" s="20"/>
-      <c r="H200" s="20"/>
-      <c r="I200" s="20"/>
-      <c r="J200" s="20"/>
-      <c r="K200" s="20"/>
-      <c r="L200" s="20"/>
+      <c r="A200" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+      <c r="L200" s="2"/>
     </row>
     <row r="201" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A201" s="23" t="s">
-        <v>543</v>
-      </c>
-      <c r="B201" s="25" t="s">
-        <v>544</v>
-      </c>
-      <c r="C201" s="20"/>
-      <c r="D201" s="20"/>
-      <c r="E201" s="20"/>
-      <c r="F201" s="20"/>
-      <c r="G201" s="20"/>
-      <c r="H201" s="20"/>
-      <c r="I201" s="20"/>
-      <c r="J201" s="20"/>
-      <c r="K201" s="20"/>
-      <c r="L201" s="20"/>
+      <c r="A201" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="2"/>
+      <c r="L201" s="2"/>
     </row>
     <row r="202" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A202" s="23" t="s">
-        <v>545</v>
-      </c>
-      <c r="B202" s="25" t="s">
-        <v>546</v>
-      </c>
-      <c r="C202" s="20"/>
-      <c r="D202" s="20"/>
-      <c r="E202" s="20"/>
-      <c r="F202" s="20"/>
-      <c r="G202" s="20"/>
-      <c r="H202" s="20"/>
-      <c r="I202" s="20"/>
-      <c r="J202" s="20"/>
-      <c r="K202" s="20"/>
-      <c r="L202" s="20"/>
+      <c r="A202" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="2"/>
+      <c r="L202" s="2"/>
     </row>
     <row r="203" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A203" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="B203" s="30" t="s">
+      <c r="A203" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="B203" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="C203" s="20"/>
-      <c r="D203" s="20"/>
-      <c r="E203" s="20"/>
-      <c r="F203" s="20"/>
-      <c r="G203" s="20"/>
-      <c r="H203" s="20"/>
-      <c r="I203" s="20"/>
-      <c r="J203" s="20"/>
-      <c r="K203" s="20"/>
-      <c r="L203" s="20"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="2"/>
     </row>
     <row r="204" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A204" s="23" t="s">
-        <v>548</v>
-      </c>
-      <c r="B204" s="25" t="s">
+      <c r="A204" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="B204" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C204" s="20"/>
-      <c r="D204" s="20"/>
-      <c r="E204" s="20"/>
-      <c r="F204" s="20"/>
-      <c r="G204" s="20"/>
-      <c r="H204" s="20"/>
-      <c r="I204" s="20"/>
-      <c r="J204" s="20"/>
-      <c r="K204" s="20"/>
-      <c r="L204" s="20"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+      <c r="L204" s="2"/>
     </row>
     <row r="205" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A205" s="27" t="s">
-        <v>549</v>
-      </c>
-      <c r="B205" s="29"/>
+      <c r="A205" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="B205" s="21" t="s">
+        <v>566</v>
+      </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -5901,10 +5975,12 @@
       <c r="L205" s="2"/>
     </row>
     <row r="206" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A206" s="27" t="s">
-        <v>550</v>
-      </c>
-      <c r="B206" s="29"/>
+      <c r="A206" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="B206" s="21" t="s">
+        <v>568</v>
+      </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -5918,7 +5994,7 @@
     </row>
     <row r="207" spans="1:12" ht="13.5" customHeight="1">
       <c r="A207" s="1"/>
-      <c r="B207" s="29"/>
+      <c r="B207" s="24"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -5932,7 +6008,7 @@
     </row>
     <row r="208" spans="1:12" ht="13.5" customHeight="1">
       <c r="A208" s="1"/>
-      <c r="B208" s="29"/>
+      <c r="B208" s="24"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -5946,7 +6022,7 @@
     </row>
     <row r="209" spans="1:12" ht="13.5" customHeight="1">
       <c r="A209" s="1"/>
-      <c r="B209" s="29"/>
+      <c r="B209" s="24"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -5960,7 +6036,7 @@
     </row>
     <row r="210" spans="1:12" ht="13.5" customHeight="1">
       <c r="A210" s="1"/>
-      <c r="B210" s="29"/>
+      <c r="B210" s="24"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -5974,7 +6050,7 @@
     </row>
     <row r="211" spans="1:12" ht="13.5" customHeight="1">
       <c r="A211" s="1"/>
-      <c r="B211" s="29"/>
+      <c r="B211" s="24"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -5988,7 +6064,7 @@
     </row>
     <row r="212" spans="1:12" ht="13.5" customHeight="1">
       <c r="A212" s="1"/>
-      <c r="B212" s="29"/>
+      <c r="B212" s="24"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -6002,7 +6078,7 @@
     </row>
     <row r="213" spans="1:12" ht="13.5" customHeight="1">
       <c r="A213" s="1"/>
-      <c r="B213" s="29"/>
+      <c r="B213" s="24"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -6016,7 +6092,7 @@
     </row>
     <row r="214" spans="1:12" ht="13.5" customHeight="1">
       <c r="A214" s="1"/>
-      <c r="B214" s="29"/>
+      <c r="B214" s="24"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -6030,7 +6106,7 @@
     </row>
     <row r="215" spans="1:12" ht="13.5" customHeight="1">
       <c r="A215" s="1"/>
-      <c r="B215" s="29"/>
+      <c r="B215" s="24"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -6044,7 +6120,7 @@
     </row>
     <row r="216" spans="1:12" ht="13.5" customHeight="1">
       <c r="A216" s="1"/>
-      <c r="B216" s="29"/>
+      <c r="B216" s="24"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -6058,7 +6134,7 @@
     </row>
     <row r="217" spans="1:12" ht="13.5" customHeight="1">
       <c r="A217" s="1"/>
-      <c r="B217" s="29"/>
+      <c r="B217" s="24"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -6072,7 +6148,7 @@
     </row>
     <row r="218" spans="1:12" ht="13.5" customHeight="1">
       <c r="A218" s="1"/>
-      <c r="B218" s="29"/>
+      <c r="B218" s="24"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -6086,7 +6162,7 @@
     </row>
     <row r="219" spans="1:12" ht="13.5" customHeight="1">
       <c r="A219" s="1"/>
-      <c r="B219" s="29"/>
+      <c r="B219" s="24"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -6100,7 +6176,7 @@
     </row>
     <row r="220" spans="1:12" ht="13.5" customHeight="1">
       <c r="A220" s="1"/>
-      <c r="B220" s="29"/>
+      <c r="B220" s="24"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -6114,7 +6190,7 @@
     </row>
     <row r="221" spans="1:12" ht="13.5" customHeight="1">
       <c r="A221" s="1"/>
-      <c r="B221" s="29"/>
+      <c r="B221" s="24"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -6128,7 +6204,7 @@
     </row>
     <row r="222" spans="1:12" ht="13.5" customHeight="1">
       <c r="A222" s="1"/>
-      <c r="B222" s="29"/>
+      <c r="B222" s="24"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -6142,7 +6218,7 @@
     </row>
     <row r="223" spans="1:12" ht="13.5" customHeight="1">
       <c r="A223" s="1"/>
-      <c r="B223" s="29"/>
+      <c r="B223" s="24"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -6156,7 +6232,7 @@
     </row>
     <row r="224" spans="1:12" ht="13.5" customHeight="1">
       <c r="A224" s="1"/>
-      <c r="B224" s="29"/>
+      <c r="B224" s="24"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -6170,7 +6246,7 @@
     </row>
     <row r="225" spans="1:12" ht="13.5" customHeight="1">
       <c r="A225" s="1"/>
-      <c r="B225" s="29"/>
+      <c r="B225" s="24"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -6184,7 +6260,7 @@
     </row>
     <row r="226" spans="1:12" ht="13.5" customHeight="1">
       <c r="A226" s="1"/>
-      <c r="B226" s="29"/>
+      <c r="B226" s="24"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -6198,7 +6274,7 @@
     </row>
     <row r="227" spans="1:12" ht="13.5" customHeight="1">
       <c r="A227" s="1"/>
-      <c r="B227" s="29"/>
+      <c r="B227" s="24"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -6212,7 +6288,7 @@
     </row>
     <row r="228" spans="1:12" ht="13.5" customHeight="1">
       <c r="A228" s="1"/>
-      <c r="B228" s="29"/>
+      <c r="B228" s="24"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -6226,7 +6302,7 @@
     </row>
     <row r="229" spans="1:12" ht="13.5" customHeight="1">
       <c r="A229" s="1"/>
-      <c r="B229" s="29"/>
+      <c r="B229" s="24"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -6240,7 +6316,7 @@
     </row>
     <row r="230" spans="1:12" ht="13.5" customHeight="1">
       <c r="A230" s="1"/>
-      <c r="B230" s="29"/>
+      <c r="B230" s="24"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -6254,7 +6330,7 @@
     </row>
     <row r="231" spans="1:12" ht="13.5" customHeight="1">
       <c r="A231" s="1"/>
-      <c r="B231" s="29"/>
+      <c r="B231" s="24"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -6268,7 +6344,7 @@
     </row>
     <row r="232" spans="1:12" ht="13.5" customHeight="1">
       <c r="A232" s="1"/>
-      <c r="B232" s="29"/>
+      <c r="B232" s="24"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -6282,7 +6358,7 @@
     </row>
     <row r="233" spans="1:12" ht="13.5" customHeight="1">
       <c r="A233" s="1"/>
-      <c r="B233" s="29"/>
+      <c r="B233" s="24"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -6296,7 +6372,7 @@
     </row>
     <row r="234" spans="1:12" ht="13.5" customHeight="1">
       <c r="A234" s="1"/>
-      <c r="B234" s="29"/>
+      <c r="B234" s="24"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -6310,7 +6386,7 @@
     </row>
     <row r="235" spans="1:12" ht="13.5" customHeight="1">
       <c r="A235" s="1"/>
-      <c r="B235" s="29"/>
+      <c r="B235" s="24"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -6324,7 +6400,7 @@
     </row>
     <row r="236" spans="1:12" ht="13.5" customHeight="1">
       <c r="A236" s="1"/>
-      <c r="B236" s="29"/>
+      <c r="B236" s="24"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -6338,7 +6414,7 @@
     </row>
     <row r="237" spans="1:12" ht="13.5" customHeight="1">
       <c r="A237" s="1"/>
-      <c r="B237" s="29"/>
+      <c r="B237" s="24"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -6352,7 +6428,7 @@
     </row>
     <row r="238" spans="1:12" ht="13.5" customHeight="1">
       <c r="A238" s="1"/>
-      <c r="B238" s="29"/>
+      <c r="B238" s="24"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -6366,7 +6442,7 @@
     </row>
     <row r="239" spans="1:12" ht="13.5" customHeight="1">
       <c r="A239" s="1"/>
-      <c r="B239" s="29"/>
+      <c r="B239" s="24"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -6380,7 +6456,7 @@
     </row>
     <row r="240" spans="1:12" ht="13.5" customHeight="1">
       <c r="A240" s="1"/>
-      <c r="B240" s="29"/>
+      <c r="B240" s="24"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -6394,7 +6470,7 @@
     </row>
     <row r="241" spans="1:12" ht="13.5" customHeight="1">
       <c r="A241" s="1"/>
-      <c r="B241" s="29"/>
+      <c r="B241" s="24"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -6408,7 +6484,7 @@
     </row>
     <row r="242" spans="1:12" ht="13.5" customHeight="1">
       <c r="A242" s="1"/>
-      <c r="B242" s="29"/>
+      <c r="B242" s="24"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -6422,7 +6498,7 @@
     </row>
     <row r="243" spans="1:12" ht="13.5" customHeight="1">
       <c r="A243" s="1"/>
-      <c r="B243" s="29"/>
+      <c r="B243" s="24"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -6436,7 +6512,7 @@
     </row>
     <row r="244" spans="1:12" ht="13.5" customHeight="1">
       <c r="A244" s="1"/>
-      <c r="B244" s="29"/>
+      <c r="B244" s="24"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -6450,7 +6526,7 @@
     </row>
     <row r="245" spans="1:12" ht="13.5" customHeight="1">
       <c r="A245" s="1"/>
-      <c r="B245" s="29"/>
+      <c r="B245" s="24"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -6464,7 +6540,7 @@
     </row>
     <row r="246" spans="1:12" ht="13.5" customHeight="1">
       <c r="A246" s="1"/>
-      <c r="B246" s="29"/>
+      <c r="B246" s="24"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -6478,7 +6554,7 @@
     </row>
     <row r="247" spans="1:12" ht="13.5" customHeight="1">
       <c r="A247" s="1"/>
-      <c r="B247" s="29"/>
+      <c r="B247" s="24"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -6492,7 +6568,7 @@
     </row>
     <row r="248" spans="1:12" ht="13.5" customHeight="1">
       <c r="A248" s="1"/>
-      <c r="B248" s="29"/>
+      <c r="B248" s="24"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -6506,7 +6582,7 @@
     </row>
     <row r="249" spans="1:12" ht="13.5" customHeight="1">
       <c r="A249" s="1"/>
-      <c r="B249" s="29"/>
+      <c r="B249" s="24"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -6520,7 +6596,7 @@
     </row>
     <row r="250" spans="1:12" ht="13.5" customHeight="1">
       <c r="A250" s="1"/>
-      <c r="B250" s="29"/>
+      <c r="B250" s="24"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -6534,7 +6610,7 @@
     </row>
     <row r="251" spans="1:12" ht="13.5" customHeight="1">
       <c r="A251" s="1"/>
-      <c r="B251" s="29"/>
+      <c r="B251" s="24"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -6548,7 +6624,7 @@
     </row>
     <row r="252" spans="1:12" ht="13.5" customHeight="1">
       <c r="A252" s="1"/>
-      <c r="B252" s="29"/>
+      <c r="B252" s="24"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -6562,7 +6638,7 @@
     </row>
     <row r="253" spans="1:12" ht="13.5" customHeight="1">
       <c r="A253" s="1"/>
-      <c r="B253" s="29"/>
+      <c r="B253" s="24"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -6576,7 +6652,7 @@
     </row>
     <row r="254" spans="1:12" ht="13.5" customHeight="1">
       <c r="A254" s="1"/>
-      <c r="B254" s="29"/>
+      <c r="B254" s="24"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -6590,7 +6666,7 @@
     </row>
     <row r="255" spans="1:12" ht="13.5" customHeight="1">
       <c r="A255" s="1"/>
-      <c r="B255" s="29"/>
+      <c r="B255" s="24"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -6604,7 +6680,7 @@
     </row>
     <row r="256" spans="1:12" ht="13.5" customHeight="1">
       <c r="A256" s="1"/>
-      <c r="B256" s="29"/>
+      <c r="B256" s="24"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -6618,7 +6694,7 @@
     </row>
     <row r="257" spans="1:12" ht="13.5" customHeight="1">
       <c r="A257" s="1"/>
-      <c r="B257" s="29"/>
+      <c r="B257" s="24"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -6632,7 +6708,7 @@
     </row>
     <row r="258" spans="1:12" ht="13.5" customHeight="1">
       <c r="A258" s="1"/>
-      <c r="B258" s="29"/>
+      <c r="B258" s="24"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -6646,7 +6722,7 @@
     </row>
     <row r="259" spans="1:12" ht="13.5" customHeight="1">
       <c r="A259" s="1"/>
-      <c r="B259" s="29"/>
+      <c r="B259" s="24"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -6660,7 +6736,7 @@
     </row>
     <row r="260" spans="1:12" ht="13.5" customHeight="1">
       <c r="A260" s="1"/>
-      <c r="B260" s="29"/>
+      <c r="B260" s="24"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -6674,7 +6750,7 @@
     </row>
     <row r="261" spans="1:12" ht="13.5" customHeight="1">
       <c r="A261" s="1"/>
-      <c r="B261" s="29"/>
+      <c r="B261" s="24"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -6688,7 +6764,7 @@
     </row>
     <row r="262" spans="1:12" ht="13.5" customHeight="1">
       <c r="A262" s="1"/>
-      <c r="B262" s="29"/>
+      <c r="B262" s="24"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -6702,7 +6778,7 @@
     </row>
     <row r="263" spans="1:12" ht="13.5" customHeight="1">
       <c r="A263" s="1"/>
-      <c r="B263" s="29"/>
+      <c r="B263" s="24"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -6716,7 +6792,7 @@
     </row>
     <row r="264" spans="1:12" ht="13.5" customHeight="1">
       <c r="A264" s="1"/>
-      <c r="B264" s="29"/>
+      <c r="B264" s="24"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -6730,7 +6806,7 @@
     </row>
     <row r="265" spans="1:12" ht="13.5" customHeight="1">
       <c r="A265" s="1"/>
-      <c r="B265" s="29"/>
+      <c r="B265" s="24"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -6744,7 +6820,7 @@
     </row>
     <row r="266" spans="1:12" ht="13.5" customHeight="1">
       <c r="A266" s="1"/>
-      <c r="B266" s="29"/>
+      <c r="B266" s="24"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -6758,7 +6834,7 @@
     </row>
     <row r="267" spans="1:12" ht="13.5" customHeight="1">
       <c r="A267" s="1"/>
-      <c r="B267" s="29"/>
+      <c r="B267" s="24"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -6772,7 +6848,7 @@
     </row>
     <row r="268" spans="1:12" ht="13.5" customHeight="1">
       <c r="A268" s="1"/>
-      <c r="B268" s="29"/>
+      <c r="B268" s="24"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -6786,7 +6862,7 @@
     </row>
     <row r="269" spans="1:12" ht="13.5" customHeight="1">
       <c r="A269" s="1"/>
-      <c r="B269" s="29"/>
+      <c r="B269" s="24"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -6800,7 +6876,7 @@
     </row>
     <row r="270" spans="1:12" ht="13.5" customHeight="1">
       <c r="A270" s="1"/>
-      <c r="B270" s="29"/>
+      <c r="B270" s="24"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -6814,7 +6890,7 @@
     </row>
     <row r="271" spans="1:12" ht="13.5" customHeight="1">
       <c r="A271" s="1"/>
-      <c r="B271" s="29"/>
+      <c r="B271" s="24"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -6828,7 +6904,7 @@
     </row>
     <row r="272" spans="1:12" ht="13.5" customHeight="1">
       <c r="A272" s="1"/>
-      <c r="B272" s="29"/>
+      <c r="B272" s="24"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -6842,7 +6918,7 @@
     </row>
     <row r="273" spans="1:12" ht="13.5" customHeight="1">
       <c r="A273" s="1"/>
-      <c r="B273" s="29"/>
+      <c r="B273" s="24"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -6856,7 +6932,7 @@
     </row>
     <row r="274" spans="1:12" ht="13.5" customHeight="1">
       <c r="A274" s="1"/>
-      <c r="B274" s="29"/>
+      <c r="B274" s="24"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -6870,7 +6946,7 @@
     </row>
     <row r="275" spans="1:12" ht="13.5" customHeight="1">
       <c r="A275" s="1"/>
-      <c r="B275" s="29"/>
+      <c r="B275" s="24"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -6884,7 +6960,7 @@
     </row>
     <row r="276" spans="1:12" ht="13.5" customHeight="1">
       <c r="A276" s="1"/>
-      <c r="B276" s="29"/>
+      <c r="B276" s="24"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -6898,7 +6974,7 @@
     </row>
     <row r="277" spans="1:12" ht="13.5" customHeight="1">
       <c r="A277" s="1"/>
-      <c r="B277" s="29"/>
+      <c r="B277" s="24"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -6912,7 +6988,7 @@
     </row>
     <row r="278" spans="1:12" ht="13.5" customHeight="1">
       <c r="A278" s="1"/>
-      <c r="B278" s="29"/>
+      <c r="B278" s="24"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -6926,7 +7002,7 @@
     </row>
     <row r="279" spans="1:12" ht="13.5" customHeight="1">
       <c r="A279" s="1"/>
-      <c r="B279" s="29"/>
+      <c r="B279" s="24"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -6940,7 +7016,7 @@
     </row>
     <row r="280" spans="1:12" ht="13.5" customHeight="1">
       <c r="A280" s="1"/>
-      <c r="B280" s="29"/>
+      <c r="B280" s="24"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -6954,7 +7030,7 @@
     </row>
     <row r="281" spans="1:12" ht="13.5" customHeight="1">
       <c r="A281" s="1"/>
-      <c r="B281" s="29"/>
+      <c r="B281" s="24"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -6968,7 +7044,7 @@
     </row>
     <row r="282" spans="1:12" ht="13.5" customHeight="1">
       <c r="A282" s="1"/>
-      <c r="B282" s="29"/>
+      <c r="B282" s="24"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -6982,7 +7058,7 @@
     </row>
     <row r="283" spans="1:12" ht="13.5" customHeight="1">
       <c r="A283" s="1"/>
-      <c r="B283" s="29"/>
+      <c r="B283" s="24"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -6996,7 +7072,7 @@
     </row>
     <row r="284" spans="1:12" ht="13.5" customHeight="1">
       <c r="A284" s="1"/>
-      <c r="B284" s="29"/>
+      <c r="B284" s="24"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -7025,7 +7101,7 @@
   <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -7036,923 +7112,923 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>5</v>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="18" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A8" s="3" t="s">
+    <row r="20" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A10" s="3" t="s">
+    <row r="21" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A11" s="3" t="s">
+    <row r="22" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="9" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A12" s="3" t="s">
+    <row r="24" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A24" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A13" s="3" t="s">
+    <row r="25" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A15" s="3" t="s">
+    <row r="26" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A26" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A16" s="3" t="s">
+    <row r="27" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A17" s="3" t="s">
+    <row r="28" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A18" s="3" t="s">
+    <row r="29" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A32" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A20" s="3" t="s">
+    <row r="33" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A33" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A21" s="3" t="s">
+    <row r="34" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A34" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A22" s="3" t="s">
+    <row r="35" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A35" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A23" s="3" t="s">
+    <row r="36" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A36" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A24" s="3" t="s">
+    <row r="37" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A37" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A25" s="3" t="s">
+    <row r="38" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A38" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A26" s="3" t="s">
+    <row r="39" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A39" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A27" s="3" t="s">
+    <row r="40" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A40" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A28" s="3" t="s">
+    <row r="41" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A41" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A29" s="3" t="s">
+    <row r="42" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A42" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A30" s="3" t="s">
+    <row r="43" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A43" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A31" s="3" t="s">
+    <row r="44" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A44" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A32" s="3" t="s">
+    <row r="45" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A46" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A33" s="3" t="s">
+    <row r="47" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A47" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A34" s="3" t="s">
+    <row r="48" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A48" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A35" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A36" s="3" t="s">
+    <row r="49" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A50" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A37" s="3" t="s">
+    <row r="51" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A52" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A38" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A39" s="3" t="s">
+    <row r="53" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A54" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A40" s="3" t="s">
+    <row r="55" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A55" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A41" s="3" t="s">
+    <row r="56" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A57" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A42" s="3" t="s">
+    <row r="58" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A58" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A43" s="3" t="s">
+    <row r="59" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A60" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A44" s="3" t="s">
+    <row r="61" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A62" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A45" s="3" t="s">
+    <row r="63" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A63" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A46" s="3" t="s">
+    <row r="64" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A64" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A47" s="3" t="s">
+    <row r="65" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A66" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A48" s="3" t="s">
+    <row r="67" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A68" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A49" s="3" t="s">
+    <row r="69" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A69" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A50" s="3" t="s">
+    <row r="70" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A70" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A51" s="3" t="s">
+    <row r="71" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A72" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A52" s="3" t="s">
+    <row r="73" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A73" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A74" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A53" s="3" t="s">
+    <row r="75" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A75" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A54" s="3" t="s">
+    <row r="76" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A76" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A55" s="3" t="s">
+    <row r="77" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A77" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A78" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A79" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A56" s="3" t="s">
+    <row r="80" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A80" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A57" s="3" t="s">
+    <row r="81" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A81" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A82" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A58" s="3" t="s">
+    <row r="83" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A83" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A59" s="3" t="s">
+    <row r="84" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A84" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A60" s="3" t="s">
+    <row r="85" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A85" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A61" s="3" t="s">
+    <row r="86" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A86" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A62" s="3" t="s">
+    <row r="87" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A87" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A63" s="3" t="s">
+    <row r="88" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A88" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A64" s="3" t="s">
+    <row r="89" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A89" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A65" s="3" t="s">
+    <row r="90" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A90" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A66" s="3" t="s">
+    <row r="91" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A91" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A67" s="3" t="s">
+    <row r="92" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A92" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A68" s="3" t="s">
+    <row r="93" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A93" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A69" s="3" t="s">
+    <row r="94" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A94" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A70" s="3" t="s">
+    <row r="95" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A95" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A71" s="3" t="s">
+    <row r="96" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A96" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A97" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A72" s="3" t="s">
+    <row r="98" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A98" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A73" s="3" t="s">
+    <row r="99" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A99" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A74" s="3" t="s">
+    <row r="100" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A100" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A75" s="3" t="s">
+    <row r="101" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A101" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A102" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A103" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A76" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A77" s="3" t="s">
+    <row r="104" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A104" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A105" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A106" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A78" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A79" s="3" t="s">
+    <row r="107" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A107" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A108" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A80" s="3" t="s">
+    <row r="109" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A109" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A110" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A81" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A82" s="3" t="s">
+    <row r="111" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A111" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A83" s="3" t="s">
+    <row r="112" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A112" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A84" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A85" s="3" t="s">
+    <row r="113" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A113" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A114" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A86" s="3" t="s">
+    <row r="115" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A115" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A116" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A87" s="3" t="s">
+    <row r="117" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A117" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A88" s="3" t="s">
+    <row r="118" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A118" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A89" s="3" t="s">
+    <row r="119" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A119" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A120" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A90" s="3" t="s">
+    <row r="121" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A121" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A91" s="3" t="s">
+    <row r="122" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A122" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A92" s="3" t="s">
+    <row r="123" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A123" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A93" s="3" t="s">
+    <row r="124" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A124" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A94" s="3" t="s">
+    <row r="125" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A125" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A95" s="3" t="s">
+    <row r="126" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A126" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A96" s="3" t="s">
+    <row r="127" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A127" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A97" s="3" t="s">
+    <row r="128" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A128" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A98" s="3" t="s">
+    <row r="129" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A129" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A99" s="3" t="s">
+    <row r="130" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A130" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A100" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A101" s="3" t="s">
+    <row r="131" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A131" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A102" s="3" t="s">
+    <row r="132" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A132" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A103" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A104" s="3" t="s">
+    <row r="133" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A133" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A105" s="3" t="s">
+    <row r="134" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A134" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A106" s="3" t="s">
+    <row r="135" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A135" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A107" s="3" t="s">
+    <row r="136" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A136" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A137" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A108" s="3" t="s">
+    <row r="138" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A138" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A109" s="3" t="s">
+    <row r="139" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A139" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A110" s="3" t="s">
+    <row r="140" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A140" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A141" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A111" s="3" t="s">
+    <row r="142" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A142" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A143" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A112" s="3" t="s">
+    <row r="144" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A144" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A113" s="3" t="s">
+    <row r="145" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A145" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A114" s="3" t="s">
+    <row r="146" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A146" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A147" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A115" s="3" t="s">
+    <row r="148" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A148" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A149" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A116" s="3" t="s">
+    <row r="150" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A150" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A117" s="3" t="s">
+    <row r="151" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A151" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A152" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A118" s="3" t="s">
+    <row r="153" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A153" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A119" s="3" t="s">
+    <row r="154" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A154" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A120" s="3" t="s">
+    <row r="155" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A155" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A121" s="3" t="s">
+    <row r="156" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A156" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A122" s="3" t="s">
+    <row r="157" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A157" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A123" s="3" t="s">
+    <row r="158" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A158" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A124" s="3" t="s">
+    <row r="159" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A159" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A125" s="3" t="s">
+    <row r="160" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A160" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A126" s="3" t="s">
+    <row r="161" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A161" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A127" s="3" t="s">
+    <row r="162" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A162" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A128" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A129" s="3" t="s">
+    <row r="163" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A163" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A164" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A130" s="3" t="s">
+    <row r="165" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A165" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A131" s="3" t="s">
+    <row r="166" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A166" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A167" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A132" s="3" t="s">
+    <row r="168" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A168" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A133" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A134" s="3" t="s">
+    <row r="169" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A169" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A170" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A135" s="3" t="s">
+    <row r="171" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A171" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A172" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A136" s="3" t="s">
+    <row r="173" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A173" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A137" s="3" t="s">
+    <row r="174" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A174" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A138" s="3" t="s">
+    <row r="175" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A175" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A139" s="3" t="s">
+    <row r="176" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A176" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A177" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A140" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A141" s="3" t="s">
+    <row r="178" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A178" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A142" s="3" t="s">
+    <row r="179" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A179" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A180" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A143" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A144" s="3" t="s">
+    <row r="181" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A181" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A182" s="5" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A145" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A146" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A147" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A148" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A149" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A150" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A151" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A152" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A153" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A154" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A155" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A156" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A157" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A158" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A159" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A160" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A161" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A162" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A163" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A164" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A165" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A166" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A167" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A168" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A169" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A170" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A171" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A172" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A173" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A174" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A175" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A176" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A177" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A178" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A179" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A180" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A181" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A182" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/backend/copysheet.xlsx
+++ b/backend/copysheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Bills" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="835">
   <si>
     <t>Bill Summary</t>
   </si>
@@ -2668,6 +2668,57 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="1025" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1" hidden="1"/>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3030,8 +3081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L371"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -3042,7 +3093,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9726,7 +9779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -11195,95 +11248,62 @@
     </row>
   </sheetData>
   <mergeCells count="180">
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
@@ -11308,73 +11328,106 @@
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A174:B174"/>
     <mergeCell ref="A170:B170"/>
     <mergeCell ref="A171:B171"/>
     <mergeCell ref="A168:B168"/>
     <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
     <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
     <mergeCell ref="A140:B140"/>
     <mergeCell ref="A161:B161"/>
     <mergeCell ref="A156:B156"/>
     <mergeCell ref="A157:B157"/>
     <mergeCell ref="A158:B158"/>
     <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/backend/copysheet.xlsx
+++ b/backend/copysheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bills" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="839">
   <si>
     <t>Bill Summary</t>
   </si>
@@ -113,6 +113,9 @@
     <t xml:space="preserve">If passed, a professional or occupational license holder who defaults on a loan could enter into an agreement with the Texas Higher Education Coordinating board to repay the loan. </t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>TXB00035298</t>
   </si>
   <si>
@@ -134,15 +137,18 @@
     <t>If passed, a state agency could use public funds to pay for training the agency's employees, as long as the state doesn't pay those employees more than $110,000 annually.</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>TXB00044239</t>
   </si>
   <si>
+    <t>Higher Education</t>
+  </si>
+  <si>
     <t>If passed, a student must attend school for 120 consecutive days in order to be considered enrolled for the purpose of determining whether the student can receive an alternative to or exemption from a student assessment.</t>
   </si>
   <si>
+    <t>Special Note</t>
+  </si>
+  <si>
     <t>TXB00038056</t>
   </si>
   <si>
@@ -158,19 +164,22 @@
     <t>If passed, a task force will create a committee to advise and make recommendations about “postsecondary education opportunities” for students with disabilities. The board would be composed of up to 11 members, including a person with a disability and a member of that person's family, as well as various state officials.</t>
   </si>
   <si>
+    <t>TXL000487</t>
+  </si>
+  <si>
     <t>TXB00038876</t>
   </si>
   <si>
     <t>TXB00037606</t>
   </si>
   <si>
-    <t>Higher Education</t>
-  </si>
-  <si>
     <t>If passed, a taxable business or other entity may qualify for certain tax credits in return for offering college internships.</t>
   </si>
   <si>
-    <t>Special Note</t>
+    <t>TXL000511</t>
+  </si>
+  <si>
+    <t>TXL000482</t>
   </si>
   <si>
     <t>TXB00038174</t>
@@ -179,12 +188,18 @@
     <t>If passed, a taxable entity that assists an employee in paying for college tuition or that is located in a Neighborhood Empowerment Zone, an incentive-based affordable housing neighborhood in Fort Worth, would be eligible for specific tax credits.</t>
   </si>
   <si>
+    <t>TXL000512</t>
+  </si>
+  <si>
     <t>TXB00036830</t>
   </si>
   <si>
     <t>If passed, a Texas Technical Center for Innovative Desalination would be established at UT-El Paso. The center would partner with UT-San Antonio to desalinate water in the Gulf of Mexico, as well as certain groundwater. The center would also conduct research on desalination technology and methods.</t>
   </si>
   <si>
+    <t>TXL000503</t>
+  </si>
+  <si>
     <t>TXB00038872</t>
   </si>
   <si>
@@ -194,157 +209,148 @@
     <t>TXB00043506</t>
   </si>
   <si>
-    <t>TXL000487</t>
+    <t>TXL000479</t>
   </si>
   <si>
     <t>If passed, a veteran must have lived in the state for at least eight years in order to receive military veteran and domicile tuition exemptions. The law would not apply to Texas residents because they would already qualify for the exemption by being a resident.</t>
   </si>
   <si>
+    <t>TXL000514</t>
+  </si>
+  <si>
     <t>TXB00043142</t>
   </si>
   <si>
+    <t>TXL000188</t>
+  </si>
+  <si>
+    <t>TXL000419</t>
+  </si>
+  <si>
     <t>TXB00044373</t>
   </si>
   <si>
-    <t>TXL000511</t>
-  </si>
-  <si>
-    <t>TXL000482</t>
-  </si>
-  <si>
-    <t>TXL000512</t>
-  </si>
-  <si>
-    <t>TXL000503</t>
-  </si>
-  <si>
-    <t>TXL000479</t>
-  </si>
-  <si>
-    <t>TXL000514</t>
-  </si>
-  <si>
-    <t>TXL000188</t>
-  </si>
-  <si>
-    <t>TXL000419</t>
-  </si>
-  <si>
     <t>TXL000473</t>
   </si>
   <si>
+    <t>TXL000478</t>
+  </si>
+  <si>
+    <t>TXL000312</t>
+  </si>
+  <si>
+    <t>TXL000198</t>
+  </si>
+  <si>
+    <t>TXL000200</t>
+  </si>
+  <si>
+    <t>TXL000206</t>
+  </si>
+  <si>
+    <t>TXL000189</t>
+  </si>
+  <si>
+    <t>TXL000213</t>
+  </si>
+  <si>
     <t>TXB00042920</t>
   </si>
   <si>
-    <t>TXL000478</t>
+    <t>TXL000199</t>
   </si>
   <si>
     <t>If passed, academic institutions would have to cap automatic admission at 50 percent of the entering class, beginning with admissions for the 2017-2018 school year.</t>
   </si>
   <si>
-    <t>TXL000312</t>
-  </si>
-  <si>
-    <t>TXL000198</t>
-  </si>
-  <si>
-    <t>TXL000200</t>
-  </si>
-  <si>
-    <t>TXL000206</t>
-  </si>
-  <si>
-    <t>TXL000189</t>
-  </si>
-  <si>
-    <t>TXL000213</t>
+    <t>TXL000210</t>
   </si>
   <si>
     <t>TXB00041986</t>
   </si>
   <si>
-    <t>TXL000199</t>
-  </si>
-  <si>
     <t xml:space="preserve">If passed, additional revenue in the comptroller's fund would be allocated to the General Revenue fund. </t>
   </si>
   <si>
-    <t>TXL000210</t>
+    <t>TXL000271</t>
   </si>
   <si>
     <t>TXB00036732</t>
   </si>
   <si>
-    <t>TXL000271</t>
+    <t>TXL000208</t>
   </si>
   <si>
     <t>If passed, an undocumented student would not be classified as an in-state resident at a higher education institution, unless that student has completed 30 credit hours by the start of the 2015-2016 school year. Also, the student would not qualify for in-state tuition.</t>
   </si>
   <si>
-    <t>TXL000208</t>
-  </si>
-  <si>
     <t>TXL000191</t>
   </si>
   <si>
+    <t>TXL000190</t>
+  </si>
+  <si>
+    <t>TXL000211</t>
+  </si>
+  <si>
+    <t>TXL000203</t>
+  </si>
+  <si>
+    <t>TXL000414</t>
+  </si>
+  <si>
+    <t>TXL000196</t>
+  </si>
+  <si>
+    <t>TXL000364</t>
+  </si>
+  <si>
     <t>TXB00037321</t>
   </si>
   <si>
-    <t>TXL000190</t>
+    <t>TXL000349</t>
   </si>
   <si>
     <t>If passed, at least 70 percent of a higher education institution’s graduating class must have graduated with an associate's degree in a STEM field and be employed in the state in order for the school to remain eligible for the T-STEM Challenge Scholarship Program.</t>
   </si>
   <si>
-    <t>TXL000211</t>
+    <t>TXL000405</t>
   </si>
   <si>
     <t>TXB00038456</t>
   </si>
   <si>
-    <t>TXL000203</t>
-  </si>
-  <si>
     <t>If passed, Blinn Junior College District's administrative offices would be maintained in Washington County.</t>
   </si>
   <si>
-    <t>TXL000414</t>
-  </si>
-  <si>
     <t>TXB00038944</t>
   </si>
   <si>
-    <t>TXL000196</t>
+    <t>TXL000195</t>
   </si>
   <si>
     <t>If passed, Blinn Junior College District's funding from its system will be determined by the number of contact hours taught on each campus and tuition and fees collected.</t>
   </si>
   <si>
-    <t>TXL000364</t>
-  </si>
-  <si>
     <t>TXB00040850</t>
   </si>
   <si>
-    <t>TXL000349</t>
+    <t>TXL000459</t>
   </si>
   <si>
     <t>If passed, Blinn Junior College’s Board of Trustees would include two additional representatives from each branch over 10,000 people in size. The members would serve six-year terms.</t>
   </si>
   <si>
-    <t>TXL000405</t>
-  </si>
-  <si>
     <t>TXB00036971</t>
   </si>
   <si>
-    <t>TXL000195</t>
+    <t>TXL000516</t>
   </si>
   <si>
     <t>If passed, by April of each school year, schools would be required to administer an "assessment instrument" to 10th grade students as a diagnostic test and to determine if the student should be enrolled in developmental courses.</t>
   </si>
   <si>
-    <t>TXL000459</t>
+    <t>TXL000319</t>
   </si>
   <si>
     <t>TXB00036673</t>
@@ -353,12 +359,6 @@
     <t>If passed, by January 2020, textbook publishers must offer an online version of their books for students to purchase.</t>
   </si>
   <si>
-    <t>TXL000516</t>
-  </si>
-  <si>
-    <t>TXL000319</t>
-  </si>
-  <si>
     <t>TXL000515</t>
   </si>
   <si>
@@ -380,117 +380,117 @@
     <t>TXL000269</t>
   </si>
   <si>
+    <t>TXL000475</t>
+  </si>
+  <si>
+    <t>TXL000445</t>
+  </si>
+  <si>
     <t>TXB00042863</t>
   </si>
   <si>
-    <t>TXL000475</t>
+    <t>TXL000494</t>
   </si>
   <si>
     <t>If passed, certain emergency medical service employees who are enrolled in courses as part of medical programs would be exempt from higher education tuition and fees.</t>
   </si>
   <si>
-    <t>TXL000445</t>
-  </si>
-  <si>
-    <t>TXL000494</t>
+    <t>TXL000462</t>
   </si>
   <si>
     <t>TXB00039955</t>
   </si>
   <si>
-    <t>TXL000462</t>
+    <t>TXL000443</t>
   </si>
   <si>
     <t>If passed, certain funds allocated to the University of Houston would be void and transferred to other institutions.</t>
   </si>
   <si>
-    <t>TXL000443</t>
+    <t>TXL000235</t>
   </si>
   <si>
     <t>TXB00043102</t>
   </si>
   <si>
+    <t>TXL000444</t>
+  </si>
+  <si>
     <t>If passed, certain reports that state agencies and higher education institutions submit to the state would be eliminated.</t>
   </si>
   <si>
-    <t>TXL000235</t>
+    <t>TXL000268</t>
   </si>
   <si>
     <t>TXB00043706</t>
   </si>
   <si>
-    <t>TXL000444</t>
-  </si>
-  <si>
-    <t>TXL000268</t>
+    <t>TXL000408</t>
+  </si>
+  <si>
+    <t>TXL000498</t>
   </si>
   <si>
     <t>TXB00037256</t>
   </si>
   <si>
-    <t>TXL000408</t>
+    <t>TXL000485</t>
   </si>
   <si>
     <t>If passed, certain speech-language pathologist and audiologist education loans could be funded by legislative appropriations and remaining funds collected by the State Board of Examiners for Speech-Language Pathology and Audiology.</t>
   </si>
   <si>
-    <t>TXL000498</t>
-  </si>
-  <si>
-    <t>TXL000485</t>
+    <t>TXL000510</t>
   </si>
   <si>
     <t>TXB00043100</t>
   </si>
   <si>
-    <t>TXL000510</t>
-  </si>
-  <si>
     <t>TXL000429</t>
   </si>
   <si>
+    <t>TXL000481</t>
+  </si>
+  <si>
     <t>TXB00044401</t>
   </si>
   <si>
-    <t>TXL000481</t>
-  </si>
-  <si>
     <t>If passed, certain students who were in foster care would receive tuition and fee reimbursements at career schools and colleges.</t>
   </si>
   <si>
     <t>TXL000480</t>
   </si>
   <si>
+    <t>TXB00041520</t>
+  </si>
+  <si>
+    <t>If passed, college preparation testing measures would have to meet certain accommodation, administration and reporting standards.</t>
+  </si>
+  <si>
     <t>TXL000507</t>
   </si>
   <si>
     <t>TXL000424</t>
   </si>
   <si>
+    <t>TXB00038784</t>
+  </si>
+  <si>
     <t>TXL000430</t>
   </si>
   <si>
-    <t>TXB00041520</t>
-  </si>
-  <si>
-    <t>If passed, college preparation testing measures would have to meet certain accommodation, administration and reporting standards.</t>
+    <t>If passed, college students would need a "specified and verifiable religious-based reason" to refrain from vaccination, rather than being able to refrain because of "reasons of conscience, including a religious belief." If a doctor says a vaccine would be detrimental to one's health, this would still be an acceptable reason to refrain from vaccination.</t>
   </si>
   <si>
     <t>TXL000449</t>
   </si>
   <si>
-    <t>TXB00038784</t>
-  </si>
-  <si>
     <t>TXL000491</t>
   </si>
   <si>
     <t>TXL000505</t>
   </si>
   <si>
-    <t>If passed, college students would need a "specified and verifiable religious-based reason" to refrain from vaccination, rather than being able to refrain because of "reasons of conscience, including a religious belief." If a doctor says a vaccine would be detrimental to one's health, this would still be an acceptable reason to refrain from vaccination.</t>
-  </si>
-  <si>
     <t>TXL000407</t>
   </si>
   <si>
@@ -500,37 +500,46 @@
     <t>TXL000317</t>
   </si>
   <si>
+    <t>TXB00036591</t>
+  </si>
+  <si>
     <t>TXL000402</t>
   </si>
   <si>
+    <t>If passed, Department of Family and Protective Services employees who have been working with the department for at least one year could receive up to $2,500 per year for four years to help repay student loans.</t>
+  </si>
+  <si>
     <t>TXL000389</t>
   </si>
   <si>
-    <t>TXB00036591</t>
-  </si>
-  <si>
-    <t>If passed, Department of Family and Protective Services employees who have been working with the department for at least one year could receive up to $2,500 per year for four years to help repay student loans.</t>
-  </si>
-  <si>
     <t>TXL000386</t>
   </si>
   <si>
+    <t>TXL000285</t>
+  </si>
+  <si>
     <t>TXB00042988</t>
   </si>
   <si>
+    <t>TXL000221</t>
+  </si>
+  <si>
     <t>If passed, directors of state agencies that plan to reimburse employees for educational and training courses would have to approve the reimbursements. Additionally, the agencies would have to post online their policies regulating employee training reimbursements.</t>
   </si>
   <si>
-    <t>TXL000285</t>
+    <t>TXL000355</t>
   </si>
   <si>
     <t>TXB00042141</t>
   </si>
   <si>
-    <t>TXL000221</t>
-  </si>
-  <si>
-    <t>TXL000355</t>
+    <t>TXL000431</t>
+  </si>
+  <si>
+    <t>TXL000433</t>
+  </si>
+  <si>
+    <t>TXL000446</t>
   </si>
   <si>
     <t>TXB00035459</t>
@@ -539,28 +548,31 @@
     <t>If passed, disabled peace officers would be exempt from tuition and fees at public higher education institutions.</t>
   </si>
   <si>
-    <t>TXL000431</t>
-  </si>
-  <si>
-    <t>TXL000433</t>
+    <t>TXL000439</t>
+  </si>
+  <si>
+    <t>TXL000441</t>
   </si>
   <si>
     <t>TXB00043115</t>
   </si>
   <si>
-    <t>TXL000446</t>
+    <t>TXL000437</t>
+  </si>
+  <si>
+    <t>TXL000517</t>
   </si>
   <si>
     <t>TXB00038316</t>
   </si>
   <si>
-    <t>TXL000439</t>
-  </si>
-  <si>
     <t>If passed, each public higher education institution would submit a report recounting on-campus crime information, such as crimes that occurred on campus and the number of students convicted on campus. Each institution would also create an annual crime survey for students.</t>
   </si>
   <si>
-    <t>TXL000441</t>
+    <t>TXL000454</t>
+  </si>
+  <si>
+    <t>TXL000463</t>
   </si>
   <si>
     <t>TXB00042367</t>
@@ -569,229 +581,256 @@
     <t>If passed, each public junior college in the state would be required to establish a transfer associate degree program.</t>
   </si>
   <si>
-    <t>TXL000437</t>
+    <t>TXL000338</t>
   </si>
   <si>
     <t>TXB00036067</t>
   </si>
   <si>
+    <t>TXL000342</t>
+  </si>
+  <si>
     <t>If passed, each Texas higher education institution must establish a sexual assault policy that includes definitions of prohibited behavior, penalties and reporting methods. The policy must be reviewed every two years and published online and in the school handbook.</t>
   </si>
   <si>
-    <t>TXL000517</t>
-  </si>
-  <si>
-    <t>TXL000454</t>
+    <t>TXL000277</t>
   </si>
   <si>
     <t>TXB00037763</t>
   </si>
   <si>
+    <t>TXL000452</t>
+  </si>
+  <si>
     <t>If passed, educational institutions would continue to receive discounts on telecommunication services through 2024.</t>
   </si>
   <si>
-    <t>TXL000463</t>
+    <t>TXL000236</t>
   </si>
   <si>
     <t>TXB00035057</t>
   </si>
   <si>
+    <t>TXL000412</t>
+  </si>
+  <si>
     <t>If passed, employees of a state junior college or a component institution of a university system who are physically assaulted while at work will receive paid leave until they recover from any injuries.</t>
   </si>
   <si>
-    <t>TXL000338</t>
+    <t>TXL000466</t>
   </si>
   <si>
     <t>TXB00042972</t>
   </si>
   <si>
-    <t>TXL000342</t>
+    <t>TXL000385</t>
   </si>
   <si>
     <t xml:space="preserve">If passed, entering undergraduate students at public higher education institutions would attend an in-person orientation on mental health and suicide prevention. </t>
   </si>
   <si>
-    <t>TXL000277</t>
+    <t>TXL000457</t>
   </si>
   <si>
     <t>TXB00037627</t>
   </si>
   <si>
+    <t>TXL000354</t>
+  </si>
+  <si>
     <t>If passed, every two years, higher education institutions would try to find and implement more degrees in applied sciences and nursing that public junior colleges could offer.</t>
   </si>
   <si>
-    <t>TXL000452</t>
-  </si>
-  <si>
-    <t>TXL000236</t>
+    <t>TXL000470</t>
   </si>
   <si>
     <t>TXB00035150</t>
   </si>
   <si>
-    <t>TXL000412</t>
+    <t>TXL000249</t>
+  </si>
+  <si>
+    <t>TXL000472</t>
   </si>
   <si>
     <t>TXB00043472</t>
   </si>
   <si>
-    <t>TXL000466</t>
+    <t>TXL000461</t>
   </si>
   <si>
     <t>If passed, excess state funds would be transferred to state retirement plans, the Texas Tomorrow Fund, the permanent school fund and the permanent university fund.</t>
   </si>
   <si>
-    <t>TXL000385</t>
-  </si>
-  <si>
-    <t>TXL000457</t>
+    <t>TXL000436</t>
   </si>
   <si>
     <t>TXB00035479</t>
   </si>
   <si>
+    <t>TXL000468</t>
+  </si>
+  <si>
     <t>If passed, first-year members of a university’s governing board must attend a training program and take an online orientation course.</t>
   </si>
   <si>
-    <t>TXL000354</t>
+    <t>TXL000428</t>
   </si>
   <si>
     <t>TXB00037017</t>
   </si>
   <si>
-    <t>TXL000470</t>
+    <t>TXL000404</t>
   </si>
   <si>
     <t>If passed, government entities, including public higher education institutions, may not form a contract with or accept money from organizations that would aid the United Nations' Agenda 21.</t>
   </si>
   <si>
-    <t>TXL000249</t>
+    <t>TXL000434</t>
   </si>
   <si>
     <t>TXB00038126</t>
   </si>
   <si>
+    <t>TXL000438</t>
+  </si>
+  <si>
+    <t>TXL000460</t>
+  </si>
+  <si>
     <t>TXB00036696</t>
   </si>
   <si>
-    <t>TXL000472</t>
+    <t>TXL000347</t>
   </si>
   <si>
     <t>If passed, governmental entities, excluding higher education institutions, would not receive certain tax and fee discounts if, within the past two years, they've outsourced jobs that could be offered in the U.S.</t>
   </si>
   <si>
-    <t>TXL000461</t>
-  </si>
-  <si>
-    <t>TXL000436</t>
+    <t>TXL000502</t>
+  </si>
+  <si>
+    <t>TXL000497</t>
   </si>
   <si>
     <t>TXB00043376</t>
   </si>
   <si>
-    <t>TXL000468</t>
-  </si>
-  <si>
     <t>If passed, graduates from a non-traditional high school with no class rankings would be placed at or above the average ranking of applicants being considered by a higher education institution.</t>
   </si>
   <si>
-    <t>TXL000428</t>
+    <t>TXL000484</t>
   </si>
   <si>
     <t>TXB00035096</t>
   </si>
   <si>
-    <t>TXL000404</t>
+    <t>TXL000483</t>
   </si>
   <si>
     <t>If passed, graduates of state medical programs would be tracked for two years following graduation in order to gather data about how long graduates work in the state, in their medical specialties and in their practice locations.</t>
   </si>
   <si>
-    <t>TXL000434</t>
-  </si>
-  <si>
-    <t>TXL000438</t>
-  </si>
-  <si>
-    <t>TXL000460</t>
-  </si>
-  <si>
-    <t>TXL000347</t>
-  </si>
-  <si>
-    <t>TXL000502</t>
-  </si>
-  <si>
-    <t>TXL000497</t>
+    <t>TXL000492</t>
+  </si>
+  <si>
+    <t>TXL000508</t>
+  </si>
+  <si>
+    <t>TXL000490</t>
+  </si>
+  <si>
+    <t>TXL000495</t>
+  </si>
+  <si>
+    <t>TXL000464</t>
+  </si>
+  <si>
+    <t>TXL000504</t>
+  </si>
+  <si>
+    <t>TXL000465</t>
+  </si>
+  <si>
+    <t>TXL000506</t>
   </si>
   <si>
     <t>TXB00036006</t>
   </si>
   <si>
-    <t>TXL000484</t>
-  </si>
-  <si>
-    <t>TXL000483</t>
+    <t>TXL000496</t>
   </si>
   <si>
     <t>If passed, graduates of state medical programs would be tracked for two years following graduation to gather data about how long graduates work in the state, as well as their medical specialties and their practice locations.</t>
   </si>
   <si>
-    <t>TXL000492</t>
+    <t>TXL000426</t>
+  </si>
+  <si>
+    <t>TXL000216</t>
+  </si>
+  <si>
+    <t>TXL000379</t>
+  </si>
+  <si>
+    <t>TXL000442</t>
+  </si>
+  <si>
+    <t>TXL000396</t>
+  </si>
+  <si>
+    <t>TXL000397</t>
+  </si>
+  <si>
+    <t>TXL000435</t>
   </si>
   <si>
     <t>TXB00039358</t>
   </si>
   <si>
+    <t>TXL000458</t>
+  </si>
+  <si>
     <t>If passed, high schools could not limit the number of dual credit courses a student enrolls in.</t>
   </si>
   <si>
-    <t>TXL000508</t>
-  </si>
-  <si>
-    <t>TXL000490</t>
+    <t>TXL000410</t>
+  </si>
+  <si>
+    <t>TXL000273</t>
   </si>
   <si>
     <t>TXB00043278</t>
   </si>
   <si>
-    <t>TXL000495</t>
+    <t>TXL000295</t>
   </si>
   <si>
     <t>TXB00042689</t>
   </si>
   <si>
-    <t>TXL000464</t>
-  </si>
-  <si>
-    <t>TXL000504</t>
-  </si>
-  <si>
     <t>TXB00035033</t>
   </si>
   <si>
     <t>If passed, high schools could not limit the number of dual credit hours a student takes for college credit.</t>
   </si>
   <si>
-    <t>TXL000465</t>
-  </si>
-  <si>
     <t>TXB00042311</t>
   </si>
   <si>
-    <t>TXL000506</t>
+    <t>TXL000415</t>
   </si>
   <si>
     <t>TXB00035179</t>
   </si>
   <si>
-    <t>TXL000496</t>
-  </si>
-  <si>
     <t>If passed, higher education institutions across the state would receive revenue bonds to fund proposed projects. The bill summarizes the different projects and amounts of money requested.</t>
   </si>
   <si>
-    <t>TXL000426</t>
+    <t>TXL000256</t>
+  </si>
+  <si>
+    <t>TXL000218</t>
   </si>
   <si>
     <t>TXB00035623</t>
@@ -800,100 +839,106 @@
     <t>If passed, higher education institutions across the state would receive revenue bonds to fund their proposed projects. The bill summarizes the different projects and amounts of money requested.</t>
   </si>
   <si>
-    <t>TXL000216</t>
-  </si>
-  <si>
-    <t>TXL000379</t>
+    <t>TXL000258</t>
   </si>
   <si>
     <t>TXB00036250</t>
   </si>
   <si>
-    <t>TXL000442</t>
+    <t>TXL000264</t>
+  </si>
+  <si>
+    <t>TXL000335</t>
   </si>
   <si>
     <t>TXB00035625</t>
   </si>
   <si>
-    <t>TXL000396</t>
-  </si>
-  <si>
-    <t>TXL000397</t>
+    <t>TXL000291</t>
+  </si>
+  <si>
+    <t>TXL000373</t>
   </si>
   <si>
     <t>TXB00035609</t>
   </si>
   <si>
+    <t>TXL000265</t>
+  </si>
+  <si>
     <t>If passed, higher education institutions and public schools would receive preference when purchasing produce grown, produced or processed in the state.</t>
   </si>
   <si>
-    <t>TXL000435</t>
-  </si>
-  <si>
-    <t>TXL000458</t>
+    <t>TXL000293</t>
   </si>
   <si>
     <t>TXB00043828</t>
   </si>
   <si>
+    <t>TXL000247</t>
+  </si>
+  <si>
     <t xml:space="preserve">If passed, higher education institutions could build certain facilities in or near state parks. </t>
   </si>
   <si>
-    <t>TXL000410</t>
+    <t>TXL000286</t>
   </si>
   <si>
     <t>TXB00044397</t>
   </si>
   <si>
+    <t>TXL000241</t>
+  </si>
+  <si>
     <t>If passed, higher education institutions could charge students an environmental service fee, if the fee is approved by a student vote.</t>
   </si>
   <si>
-    <t>TXL000273</t>
+    <t>TXL000381</t>
   </si>
   <si>
     <t>TXB00041879</t>
   </si>
   <si>
-    <t>TXL000295</t>
-  </si>
-  <si>
-    <t>TXL000415</t>
+    <t>TXL000387</t>
+  </si>
+  <si>
+    <t>TXL000331</t>
   </si>
   <si>
     <t>TXB00042809</t>
   </si>
   <si>
+    <t>TXL000378</t>
+  </si>
+  <si>
     <t>If passed, higher education institutions could teach courses not approved by the Texas Higher Education Coordinating Board, as long as each course meets state reciprocity agreement standards.</t>
   </si>
   <si>
-    <t>TXL000256</t>
-  </si>
-  <si>
-    <t>TXL000218</t>
+    <t>TXL000320</t>
   </si>
   <si>
     <t>TXB00043130</t>
   </si>
   <si>
-    <t>TXL000258</t>
-  </si>
-  <si>
-    <t>TXL000264</t>
+    <t>TXL000253</t>
+  </si>
+  <si>
+    <t>TXL000303</t>
   </si>
   <si>
     <t>TXB00041776</t>
   </si>
   <si>
-    <t>TXL000335</t>
+    <t>TXL000325</t>
   </si>
   <si>
     <t>If passed, higher education institutions couldn't require an Advanced Placement test score of more than a three when granting students course credit. Also, a study would be conducted every two years on the success of students who use AP test scores to claim credit at higher education institutions.</t>
   </si>
   <si>
-    <t>TXL000291</t>
-  </si>
-  <si>
-    <t>TXL000373</t>
+    <t>TXL000228</t>
+  </si>
+  <si>
+    <t>TXL000391</t>
   </si>
   <si>
     <t>TXB00035475</t>
@@ -902,103 +947,118 @@
     <t>If passed, higher education institutions must create a website listing mental health information and resources, including the location of the nearest “local mental health authority.”</t>
   </si>
   <si>
-    <t>TXL000265</t>
-  </si>
-  <si>
-    <t>TXL000293</t>
+    <t>TXL000257</t>
+  </si>
+  <si>
+    <t>TXL000278</t>
   </si>
   <si>
     <t>TXB00038782</t>
   </si>
   <si>
+    <t>TXL000360</t>
+  </si>
+  <si>
     <t>If passed, higher education institutions receiving at least $10 million in revenue for athletics media coverage would be required to provide certain injured student athletes with scholarships for fees and tuition as well as medical expenses.</t>
   </si>
   <si>
-    <t>TXL000247</t>
+    <t>TXL000359</t>
   </si>
   <si>
     <t>TXB00040092</t>
   </si>
   <si>
-    <t>TXL000286</t>
-  </si>
-  <si>
     <t>If passed, higher education institutions that provide work-study would be required to offer half of their work-study opportunities off-campus.</t>
   </si>
   <si>
-    <t>TXL000241</t>
+    <t>TXL000283</t>
   </si>
   <si>
     <t>TXB00043912</t>
   </si>
   <si>
-    <t>TXL000381</t>
+    <t>TXL000223</t>
+  </si>
+  <si>
+    <t>TXL000363</t>
   </si>
   <si>
     <t>TXB00038214</t>
   </si>
   <si>
-    <t>TXL000387</t>
-  </si>
-  <si>
     <t>If passed, higher education institutions would be required to request disciplinary records for transfer students applying to the institution.</t>
   </si>
   <si>
-    <t>TXL000331</t>
+    <t>TXL000308</t>
+  </si>
+  <si>
+    <t>TXL000260</t>
   </si>
   <si>
     <t>TXB00042074</t>
   </si>
   <si>
-    <t>TXL000378</t>
+    <t>TXL000294</t>
   </si>
   <si>
     <t>If passed, higher education institutions would be required to send information about tuition and fee exemptions to certain applicants who are adopted.</t>
   </si>
   <si>
-    <t>TXL000320</t>
+    <t>TXL000215</t>
   </si>
   <si>
     <t>TXB00035783</t>
   </si>
   <si>
+    <t>TXL000318</t>
+  </si>
+  <si>
     <t>If passed, higher education institutions would develop course equivalency tests for credit in freshman- and sophomore-level courses. The institution would be required to develop at least one test per academic year.</t>
   </si>
   <si>
-    <t>TXL000253</t>
+    <t>TXL000239</t>
+  </si>
+  <si>
+    <t>TXL000411</t>
   </si>
   <si>
     <t>TXB00038047</t>
   </si>
   <si>
-    <t>TXL000303</t>
+    <t>TXL000324</t>
   </si>
   <si>
     <t>If passed, higher education institutions would give students individualized score reports listing missed questions on the Texas Success Initiative assessment.</t>
   </si>
   <si>
-    <t>TXL000325</t>
+    <t>TXL000329</t>
   </si>
   <si>
     <t>TXB00036000</t>
   </si>
   <si>
-    <t>TXL000228</t>
+    <t>TXL000299</t>
   </si>
   <si>
     <t>If passed, higher education institutions would have to designate an employee to give college admissions advice to students who were previously being monitored by the Department of Family and Protective Services or were in foster care. The universities would have to report student information to the Higher Education Coordinating Board.</t>
   </si>
   <si>
-    <t>TXL000391</t>
+    <t>TXL000344</t>
+  </si>
+  <si>
+    <t>TXL000217</t>
   </si>
   <si>
     <t>TXB00044192</t>
   </si>
   <si>
-    <t>TXL000257</t>
-  </si>
-  <si>
-    <t>TXL000278</t>
+    <t>TXL000307</t>
+  </si>
+  <si>
+    <t>TXL000242</t>
+  </si>
+  <si>
+    <t>TXL000315</t>
   </si>
   <si>
     <t>TXB00037039</t>
@@ -1007,40 +1067,46 @@
     <t>If passed, higher education institutions would have to include veteran or military dependent information and benefits in enrollment data.</t>
   </si>
   <si>
-    <t>TXL000360</t>
-  </si>
-  <si>
-    <t>TXL000359</t>
+    <t>TXL000214</t>
+  </si>
+  <si>
+    <t>TXL000309</t>
   </si>
   <si>
     <t>TXB00035265</t>
   </si>
   <si>
+    <t>TXL000310</t>
+  </si>
+  <si>
     <t>If passed, higher education institutions would no longer be required to set aside up to $46 of a student's tuition to contribute to financial assistance efforts.</t>
   </si>
   <si>
-    <t>TXL000283</t>
+    <t>TXL000352</t>
+  </si>
+  <si>
+    <t>TXL000334</t>
   </si>
   <si>
     <t>TXB00041468</t>
   </si>
   <si>
-    <t>TXL000223</t>
-  </si>
-  <si>
     <t>If passed, higher education institutions would report energy and water management information during odd-numbered years rather than even.</t>
   </si>
   <si>
-    <t>TXL000363</t>
+    <t>TXL000244</t>
+  </si>
+  <si>
+    <t>TXL000395</t>
   </si>
   <si>
     <t>TXB00042574</t>
   </si>
   <si>
-    <t>TXL000308</t>
-  </si>
-  <si>
-    <t>TXL000260</t>
+    <t>TXL000245</t>
+  </si>
+  <si>
+    <t>TXL000219</t>
   </si>
   <si>
     <t>TXB00042616</t>
@@ -1049,144 +1115,78 @@
     <t>If passed, higher education institutions, except for public state colleges, would be required to provide a tuition and fee bill to students each semester or term.</t>
   </si>
   <si>
-    <t>TXL000294</t>
-  </si>
-  <si>
     <t>TXB00035427</t>
   </si>
   <si>
-    <t>TXL000215</t>
-  </si>
-  <si>
     <t>If passed, higher education institutions' students and employees could legally grow hemp for research purposes.</t>
   </si>
   <si>
-    <t>TXL000318</t>
-  </si>
-  <si>
     <t>TXB00039722</t>
   </si>
   <si>
     <t>If passed, in order for an higher education institution to continue participating in the T-STEM challenge, 70 percent of students receiving the scholarship would have to be employed within 12 months of graduation or enrolled in courses necessary to complete a degree in a STEM field.</t>
   </si>
   <si>
-    <t>TXL000239</t>
-  </si>
-  <si>
     <t>TXB00042154</t>
   </si>
   <si>
-    <t>TXL000411</t>
-  </si>
-  <si>
     <t xml:space="preserve">If passed, in order for an higher education institution to continue participating in the T-STEM challenge, 70 percent of students receiving the scholarship would have to be employed within 12 months of graduation or enrolled in courses necessary to complete a degree in a STEM field. </t>
   </si>
   <si>
-    <t>TXL000324</t>
-  </si>
-  <si>
     <t>TXB00042794</t>
   </si>
   <si>
     <t>If passed, independent school districts could participate in the Jobs and Education for Texans grant program.</t>
   </si>
   <si>
-    <t>TXL000329</t>
-  </si>
-  <si>
-    <t>TXL000299</t>
-  </si>
-  <si>
     <t>TXB00036670</t>
   </si>
   <si>
     <t>If passed, individual institutions could determine the size of the B-On-Time loan allocations. The amount could not exceed a state-determined cap.</t>
   </si>
   <si>
-    <t>TXL000344</t>
-  </si>
-  <si>
     <t>TXB00039089</t>
   </si>
   <si>
-    <t>TXL000217</t>
-  </si>
-  <si>
-    <t>TXL000307</t>
-  </si>
-  <si>
     <t>TXB00039073</t>
   </si>
   <si>
     <t>If passed, junior colleges would have to post detailed expenditure and financial reports on their official websites.</t>
   </si>
   <si>
-    <t>TXL000242</t>
-  </si>
-  <si>
     <t>TXB00036760</t>
   </si>
   <si>
     <t>If passed, massage therapy instruction schools that offer massage therapy licenses to their graduates would be classified as postsecondary education programs.</t>
   </si>
   <si>
-    <t>TXL000315</t>
-  </si>
-  <si>
     <t>TXB00043280</t>
   </si>
   <si>
     <t>If passed, medical schools at UT-Austin, UT-Rio Grande Valley and the UT Southwestern medical school, as well as the medical education program at the UT Health Science Center at Tyler, would be added to the state’s definition of medical schools.</t>
   </si>
   <si>
-    <t>TXL000214</t>
-  </si>
-  <si>
     <t>TXB00043097</t>
   </si>
   <si>
-    <t>TXL000309</t>
-  </si>
-  <si>
-    <t>TXL000310</t>
-  </si>
-  <si>
     <t>TXB00039387</t>
   </si>
   <si>
     <t>If passed, members of a couple in a marriage or a civil union would be considered dependents of health care plans for certain universities.</t>
   </si>
   <si>
-    <t>TXL000352</t>
-  </si>
-  <si>
     <t>TXB00042036</t>
   </si>
   <si>
-    <t>TXL000334</t>
-  </si>
-  <si>
-    <t>TXL000244</t>
-  </si>
-  <si>
     <t>TXB00039916</t>
   </si>
   <si>
-    <t>TXL000395</t>
-  </si>
-  <si>
     <t>TXB00038313</t>
   </si>
   <si>
-    <t>TXL000245</t>
-  </si>
-  <si>
     <t>If passed, members of the Texas Emergency Services Retirement System, or another qualifying firefighter retirement system, would no longer be eligible for tuition exemption at a higher education institution.</t>
   </si>
   <si>
-    <t>TXL000219</t>
-  </si>
-  <si>
     <t>TXB00039036</t>
   </si>
   <si>
@@ -2543,20 +2543,32 @@
     <t>TXB00035566</t>
   </si>
   <si>
+    <t xml:space="preserve">If passed, private gifts for undergraduate research at higher education institutions would be added to the types of projects eligible for matched funding from appropriated funds.  </t>
+  </si>
+  <si>
     <t>TXB00043131</t>
   </si>
   <si>
+    <t>If passed, the North Texas Higher Education Authority, a non-profit corporation that helps fund student loans, would fund loans only for students in Arlington, instead of both Arlington and Denton.</t>
+  </si>
+  <si>
     <t>TXB00042858</t>
   </si>
   <si>
+    <t xml:space="preserve">If passed, the state would establish a management and oversight team to review high risk contracts, including those held by higher education institutions. </t>
+  </si>
+  <si>
     <t>TXB00043848</t>
+  </si>
+  <si>
+    <t>If passed, a student could sign a release form allowing universities to share student information such as course, grade and credit information. The university could release the information in transfer applications and on other data sharing platforms. The information could also be given to lower level colleges to determine if the student qualifies for an associate degree.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2582,6 +2594,10 @@
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -2618,7 +2634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2639,6 +2655,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -2668,57 +2685,6 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="1025" name="Rectangle 1" hidden="1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12700000" cy="12700000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1" hidden="1"/>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3081,7 +3047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3094,7 +3060,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3328,10 +3294,10 @@
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -3346,10 +3312,10 @@
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3364,10 +3330,10 @@
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -3382,10 +3348,10 @@
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -3403,7 +3369,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3418,10 +3384,10 @@
     </row>
     <row r="19" spans="1:12" ht="13.5" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -3436,10 +3402,10 @@
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -3454,10 +3420,10 @@
     </row>
     <row r="21" spans="1:12" ht="13.5" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -3472,10 +3438,10 @@
     </row>
     <row r="22" spans="1:12" ht="13.5" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3490,10 +3456,10 @@
     </row>
     <row r="23" spans="1:12" ht="13.5" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -3508,10 +3474,10 @@
     </row>
     <row r="24" spans="1:12" ht="13.5" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -3526,10 +3492,10 @@
     </row>
     <row r="25" spans="1:12" ht="13.5" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -3544,10 +3510,10 @@
     </row>
     <row r="26" spans="1:12" ht="13.5" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -3562,10 +3528,10 @@
     </row>
     <row r="27" spans="1:12" ht="13.5" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -3580,10 +3546,10 @@
     </row>
     <row r="28" spans="1:12" ht="13.5" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -3598,10 +3564,10 @@
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -3616,10 +3582,10 @@
     </row>
     <row r="30" spans="1:12" ht="13.5" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -3634,10 +3600,10 @@
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -3652,10 +3618,10 @@
     </row>
     <row r="32" spans="1:12" ht="13.5" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3670,10 +3636,10 @@
     </row>
     <row r="33" spans="1:12" ht="13.5" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3688,10 +3654,10 @@
     </row>
     <row r="34" spans="1:12" ht="13.5" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3706,10 +3672,10 @@
     </row>
     <row r="35" spans="1:12" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -3724,10 +3690,10 @@
     </row>
     <row r="36" spans="1:12" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -3742,10 +3708,10 @@
     </row>
     <row r="37" spans="1:12" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -3760,10 +3726,10 @@
     </row>
     <row r="38" spans="1:12" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -3778,10 +3744,10 @@
     </row>
     <row r="39" spans="1:12" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -3796,10 +3762,10 @@
     </row>
     <row r="40" spans="1:12" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -3814,10 +3780,10 @@
     </row>
     <row r="41" spans="1:12" ht="13.5" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -3832,10 +3798,10 @@
     </row>
     <row r="42" spans="1:12" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -3850,10 +3816,10 @@
     </row>
     <row r="43" spans="1:12" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -3868,10 +3834,10 @@
     </row>
     <row r="44" spans="1:12" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -3886,7 +3852,7 @@
     </row>
     <row r="45" spans="1:12" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>136</v>
@@ -3904,10 +3870,10 @@
     </row>
     <row r="46" spans="1:12" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3922,10 +3888,10 @@
     </row>
     <row r="47" spans="1:12" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -3940,10 +3906,10 @@
     </row>
     <row r="48" spans="1:12" ht="13.5" customHeight="1">
       <c r="A48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -3958,10 +3924,10 @@
     </row>
     <row r="49" spans="1:12" ht="13.5" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -3976,10 +3942,10 @@
     </row>
     <row r="50" spans="1:12" ht="11.25" customHeight="1">
       <c r="A50" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -3994,10 +3960,10 @@
     </row>
     <row r="51" spans="1:12" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -4012,10 +3978,10 @@
     </row>
     <row r="52" spans="1:12" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -4030,10 +3996,10 @@
     </row>
     <row r="53" spans="1:12" ht="13.5" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -4048,10 +4014,10 @@
     </row>
     <row r="54" spans="1:12" ht="13.5" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -4066,10 +4032,10 @@
     </row>
     <row r="55" spans="1:12" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -4084,10 +4050,10 @@
     </row>
     <row r="56" spans="1:12" ht="13.5" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -4102,10 +4068,10 @@
     </row>
     <row r="57" spans="1:12" ht="13.5" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -4120,10 +4086,10 @@
     </row>
     <row r="58" spans="1:12" ht="13.5" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -4138,10 +4104,10 @@
     </row>
     <row r="59" spans="1:12" ht="13.5" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -4156,10 +4122,10 @@
     </row>
     <row r="60" spans="1:12" ht="13.5" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -4174,10 +4140,10 @@
     </row>
     <row r="61" spans="1:12" ht="13.5" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -4192,10 +4158,10 @@
     </row>
     <row r="62" spans="1:12" ht="13.5" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -4210,10 +4176,10 @@
     </row>
     <row r="63" spans="1:12" ht="13.5" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -4228,10 +4194,10 @@
     </row>
     <row r="64" spans="1:12" ht="13.5" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -4246,10 +4212,10 @@
     </row>
     <row r="65" spans="1:12" ht="13.5" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -4264,10 +4230,10 @@
     </row>
     <row r="66" spans="1:12" ht="13.5" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -4282,10 +4248,10 @@
     </row>
     <row r="67" spans="1:12" ht="13.5" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -4300,10 +4266,10 @@
     </row>
     <row r="68" spans="1:12" ht="13.5" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -4318,10 +4284,10 @@
     </row>
     <row r="69" spans="1:12" ht="13.5" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -4336,10 +4302,10 @@
     </row>
     <row r="70" spans="1:12" ht="13.5" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -4354,10 +4320,10 @@
     </row>
     <row r="71" spans="1:12" ht="13.5" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -4372,10 +4338,10 @@
     </row>
     <row r="72" spans="1:12" ht="13.5" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -4390,10 +4356,10 @@
     </row>
     <row r="73" spans="1:12" ht="13.5" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -4408,10 +4374,10 @@
     </row>
     <row r="74" spans="1:12" ht="13.5" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -4426,10 +4392,10 @@
     </row>
     <row r="75" spans="1:12" ht="13.5" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -4444,10 +4410,10 @@
     </row>
     <row r="76" spans="1:12" ht="13.5" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -4462,10 +4428,10 @@
     </row>
     <row r="77" spans="1:12" ht="13.5" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -4480,10 +4446,10 @@
     </row>
     <row r="78" spans="1:12" ht="13.5" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -4498,10 +4464,10 @@
     </row>
     <row r="79" spans="1:12" ht="13.5" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -4516,10 +4482,10 @@
     </row>
     <row r="80" spans="1:12" ht="13.5" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -4534,10 +4500,10 @@
     </row>
     <row r="81" spans="1:12" ht="13.5" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -4552,10 +4518,10 @@
     </row>
     <row r="82" spans="1:12" ht="13.5" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -4570,10 +4536,10 @@
     </row>
     <row r="83" spans="1:12" ht="13.5" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -4588,10 +4554,10 @@
     </row>
     <row r="84" spans="1:12" ht="13.5" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -4606,10 +4572,10 @@
     </row>
     <row r="85" spans="1:12" ht="13.5" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -4624,10 +4590,10 @@
     </row>
     <row r="86" spans="1:12" ht="13.5" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -4642,10 +4608,10 @@
     </row>
     <row r="87" spans="1:12" ht="13.5" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -4660,10 +4626,10 @@
     </row>
     <row r="88" spans="1:12" ht="13.5" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -4678,10 +4644,10 @@
     </row>
     <row r="89" spans="1:12" ht="13.5" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -4696,10 +4662,10 @@
     </row>
     <row r="90" spans="1:12" ht="13.5" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -4714,10 +4680,10 @@
     </row>
     <row r="91" spans="1:12" ht="13.5" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -4732,10 +4698,10 @@
     </row>
     <row r="92" spans="1:12" ht="13.5" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -4750,10 +4716,10 @@
     </row>
     <row r="93" spans="1:12" ht="13.5" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -4768,10 +4734,10 @@
     </row>
     <row r="94" spans="1:12" ht="13.5" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -4786,10 +4752,10 @@
     </row>
     <row r="95" spans="1:12" ht="13.5" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -4804,10 +4770,10 @@
     </row>
     <row r="96" spans="1:12" ht="13.5" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -4822,10 +4788,10 @@
     </row>
     <row r="97" spans="1:12" ht="13.5" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -4840,10 +4806,10 @@
     </row>
     <row r="98" spans="1:12" ht="13.5" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -4858,10 +4824,10 @@
     </row>
     <row r="99" spans="1:12" ht="13.5" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -4876,10 +4842,10 @@
     </row>
     <row r="100" spans="1:12" ht="13.5" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -4894,10 +4860,10 @@
     </row>
     <row r="101" spans="1:12" ht="13.5" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -4912,10 +4878,10 @@
     </row>
     <row r="102" spans="1:12" ht="13.5" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -4930,10 +4896,10 @@
     </row>
     <row r="103" spans="1:12" ht="13.5" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -4948,10 +4914,10 @@
     </row>
     <row r="104" spans="1:12" ht="13.5" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -4966,10 +4932,10 @@
     </row>
     <row r="105" spans="1:12" ht="13.5" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -4984,10 +4950,10 @@
     </row>
     <row r="106" spans="1:12" ht="13.5" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -5002,10 +4968,10 @@
     </row>
     <row r="107" spans="1:12" ht="13.5" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -5020,10 +4986,10 @@
     </row>
     <row r="108" spans="1:12" ht="13.5" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -5038,10 +5004,10 @@
     </row>
     <row r="109" spans="1:12" ht="13.5" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -5056,10 +5022,10 @@
     </row>
     <row r="110" spans="1:12" ht="13.5" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -5074,10 +5040,10 @@
     </row>
     <row r="111" spans="1:12" ht="13.5" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -5092,10 +5058,10 @@
     </row>
     <row r="112" spans="1:12" ht="13.5" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -5110,10 +5076,10 @@
     </row>
     <row r="113" spans="1:12" ht="13.5" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -5131,7 +5097,7 @@
         <v>380</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -9702,7 +9668,9 @@
       <c r="A368" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="B368" s="2"/>
+      <c r="B368" s="2" t="s">
+        <v>832</v>
+      </c>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -9716,9 +9684,11 @@
     </row>
     <row r="369" spans="1:12" ht="13.5" customHeight="1">
       <c r="A369" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="B369" s="2"/>
+        <v>833</v>
+      </c>
+      <c r="B369" s="14" t="s">
+        <v>834</v>
+      </c>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -9732,9 +9702,11 @@
     </row>
     <row r="370" spans="1:12" ht="13.5" customHeight="1">
       <c r="A370" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="B370" s="2"/>
+        <v>835</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>836</v>
+      </c>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -9748,9 +9720,11 @@
     </row>
     <row r="371" spans="1:12" ht="13.5" customHeight="1">
       <c r="A371" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="B371" s="1"/>
+        <v>837</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>838</v>
+      </c>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -9779,8 +9753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -9792,1453 +9766,1453 @@
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="15"/>
+      <c r="A3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="16"/>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="15"/>
+      <c r="A4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="16"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="15"/>
+      <c r="A5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="16"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A6" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="15"/>
+      <c r="A6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="16"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="15"/>
+      <c r="A7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="16"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="15"/>
+      <c r="A8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="16"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="15"/>
+      <c r="A9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="16"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A10" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="15"/>
+      <c r="A10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="16"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="15"/>
+      <c r="A12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="16"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="15"/>
+      <c r="A13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="16"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="15"/>
+      <c r="A14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="16"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A15" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="15"/>
+      <c r="A15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="16"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A16" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="15"/>
+      <c r="A16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="16"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A17" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="15"/>
+      <c r="A17" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="16"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="15"/>
+      <c r="A18" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="16"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="15"/>
+      <c r="A19" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="16"/>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A20" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="15"/>
+      <c r="A20" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="16"/>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A21" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="15"/>
+      <c r="A21" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="16"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A22" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="15"/>
+      <c r="A22" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="16"/>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A24" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="15"/>
+      <c r="A24" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="16"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A25" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="15"/>
+      <c r="A25" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="16"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A26" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="15"/>
+      <c r="A26" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="16"/>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A27" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="15"/>
+      <c r="A27" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="16"/>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="15"/>
+      <c r="A28" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="16"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A29" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="15"/>
+      <c r="A29" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="16"/>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A30" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="15"/>
+      <c r="A30" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="16"/>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A31" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="15"/>
+      <c r="A31" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="16"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A32" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="15"/>
+      <c r="A32" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="16"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A33" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="15"/>
+      <c r="A33" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="16"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A34" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="15"/>
+      <c r="A34" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="16"/>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A35" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="15"/>
+      <c r="A35" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="16"/>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="15"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="15"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="15"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="15"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="15"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="15"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A43" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" s="15"/>
+      <c r="A43" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="16"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
     </row>
     <row r="44" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A44" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="15"/>
+      <c r="A44" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="16"/>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
     </row>
     <row r="45" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A45" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="15"/>
+      <c r="A45" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="16"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A46" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B46" s="15"/>
+      <c r="A46" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="16"/>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A47" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47" s="15"/>
+      <c r="A47" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="16"/>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A48" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B48" s="15"/>
+      <c r="A48" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="16"/>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A49" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B49" s="15"/>
+      <c r="A49" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="16"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
     </row>
     <row r="50" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A50" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="15"/>
+      <c r="A50" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="16"/>
       <c r="C50" s="8"/>
       <c r="D50" s="9"/>
     </row>
     <row r="51" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A51" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B51" s="15"/>
+      <c r="A51" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="16"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A52" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="15"/>
+      <c r="A52" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="16"/>
       <c r="C52" s="8"/>
       <c r="D52" s="9"/>
     </row>
     <row r="53" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B53" s="15"/>
+      <c r="A53" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="16"/>
       <c r="C53" s="8"/>
       <c r="D53" s="9"/>
     </row>
     <row r="54" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A54" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54" s="15"/>
+      <c r="A54" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="16"/>
       <c r="C54" s="8"/>
       <c r="D54" s="9"/>
     </row>
     <row r="55" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="15"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
     </row>
     <row r="56" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A56" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B56" s="15"/>
+      <c r="A56" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="16"/>
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
     </row>
     <row r="57" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="15"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="8"/>
       <c r="D57" s="9"/>
     </row>
     <row r="58" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A58" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B58" s="15"/>
+      <c r="A58" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="16"/>
       <c r="C58" s="8"/>
       <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A59" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B59" s="15"/>
+      <c r="A59" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="16"/>
       <c r="C59" s="8"/>
       <c r="D59" s="9"/>
     </row>
     <row r="60" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A60" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B60" s="15"/>
+      <c r="A60" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="16"/>
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
     </row>
     <row r="61" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A61" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B61" s="15"/>
+      <c r="A61" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="16"/>
       <c r="C61" s="8"/>
       <c r="D61" s="9"/>
     </row>
     <row r="62" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A62" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B62" s="15"/>
+      <c r="A62" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="16"/>
       <c r="C62" s="8"/>
       <c r="D62" s="9"/>
     </row>
     <row r="63" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A63" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B63" s="15"/>
+      <c r="A63" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" s="16"/>
       <c r="C63" s="8"/>
       <c r="D63" s="9"/>
     </row>
     <row r="64" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B64" s="15"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B65" s="15"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="8"/>
       <c r="D65" s="9"/>
     </row>
     <row r="66" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B66" s="15"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="8"/>
       <c r="D66" s="9"/>
     </row>
     <row r="67" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A67" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B67" s="15"/>
+      <c r="A67" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="16"/>
       <c r="C67" s="8"/>
       <c r="D67" s="9"/>
     </row>
     <row r="68" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A68" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B68" s="15"/>
+      <c r="A68" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" s="16"/>
       <c r="C68" s="8"/>
       <c r="D68" s="9"/>
     </row>
     <row r="69" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B69" s="15"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="8"/>
       <c r="D69" s="9"/>
     </row>
     <row r="70" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A70" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B70" s="15"/>
+      <c r="A70" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" s="16"/>
       <c r="C70" s="8"/>
       <c r="D70" s="9"/>
     </row>
     <row r="71" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A71" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B71" s="15"/>
+      <c r="A71" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" s="16"/>
       <c r="C71" s="8"/>
       <c r="D71" s="9"/>
     </row>
     <row r="72" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A72" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B72" s="15"/>
+      <c r="A72" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B72" s="16"/>
       <c r="C72" s="8"/>
       <c r="D72" s="9"/>
     </row>
     <row r="73" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A73" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B73" s="15"/>
+      <c r="A73" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="16"/>
       <c r="C73" s="8"/>
       <c r="D73" s="9"/>
     </row>
     <row r="74" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A74" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B74" s="15"/>
+      <c r="A74" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="16"/>
       <c r="C74" s="8"/>
       <c r="D74" s="9"/>
     </row>
     <row r="75" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A75" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B75" s="15"/>
+      <c r="A75" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="16"/>
       <c r="C75" s="8"/>
       <c r="D75" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A76" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B76" s="15"/>
+      <c r="A76" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" s="16"/>
       <c r="C76" s="8"/>
       <c r="D76" s="9"/>
     </row>
     <row r="77" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A77" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B77" s="15"/>
+      <c r="A77" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" s="16"/>
       <c r="C77" s="8"/>
       <c r="D77" s="9"/>
     </row>
     <row r="78" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A78" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B78" s="15"/>
+      <c r="A78" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="16"/>
       <c r="C78" s="8"/>
       <c r="D78" s="9"/>
     </row>
     <row r="79" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A79" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B79" s="15"/>
+      <c r="A79" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="16"/>
       <c r="C79" s="8"/>
       <c r="D79" s="9"/>
     </row>
     <row r="80" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A80" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B80" s="15"/>
+      <c r="A80" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" s="16"/>
       <c r="C80" s="8"/>
       <c r="D80" s="9"/>
     </row>
     <row r="81" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A81" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="B81" s="15"/>
+      <c r="A81" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" s="16"/>
       <c r="C81" s="8"/>
       <c r="D81" s="9"/>
     </row>
     <row r="82" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A82" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B82" s="15"/>
+      <c r="A82" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" s="16"/>
       <c r="C82" s="8"/>
       <c r="D82" s="9"/>
     </row>
     <row r="83" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A83" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B83" s="15"/>
+      <c r="A83" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B83" s="16"/>
       <c r="C83" s="8"/>
       <c r="D83" s="9"/>
     </row>
     <row r="84" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A84" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B84" s="15"/>
+      <c r="A84" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="16"/>
       <c r="C84" s="8"/>
       <c r="D84" s="9"/>
     </row>
     <row r="85" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A85" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B85" s="15"/>
+      <c r="A85" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B85" s="16"/>
       <c r="C85" s="8"/>
       <c r="D85" s="9"/>
     </row>
     <row r="86" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A86" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B86" s="15"/>
+      <c r="A86" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" s="16"/>
       <c r="C86" s="8"/>
       <c r="D86" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A87" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B87" s="15"/>
+      <c r="A87" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87" s="16"/>
       <c r="C87" s="8"/>
       <c r="D87" s="9"/>
     </row>
     <row r="88" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A88" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B88" s="15"/>
+      <c r="A88" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" s="16"/>
       <c r="C88" s="8"/>
       <c r="D88" s="9"/>
     </row>
     <row r="89" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A89" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B89" s="15"/>
+      <c r="A89" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" s="16"/>
       <c r="C89" s="8"/>
       <c r="D89" s="9"/>
     </row>
     <row r="90" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A90" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B90" s="15"/>
+      <c r="A90" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B90" s="16"/>
       <c r="C90" s="8"/>
       <c r="D90" s="9"/>
     </row>
     <row r="91" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A91" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B91" s="15"/>
+      <c r="A91" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" s="16"/>
       <c r="C91" s="8"/>
       <c r="D91" s="9"/>
     </row>
     <row r="92" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A92" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="B92" s="15"/>
+      <c r="A92" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" s="16"/>
       <c r="C92" s="8"/>
       <c r="D92" s="9"/>
     </row>
     <row r="93" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A93" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B93" s="15"/>
+      <c r="A93" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B93" s="16"/>
       <c r="C93" s="8"/>
       <c r="D93" s="9"/>
     </row>
     <row r="94" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A94" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B94" s="15"/>
+      <c r="A94" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B94" s="16"/>
       <c r="C94" s="8"/>
       <c r="D94" s="9"/>
     </row>
     <row r="95" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A95" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="B95" s="15"/>
+      <c r="A95" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B95" s="16"/>
       <c r="C95" s="8"/>
       <c r="D95" s="9"/>
     </row>
     <row r="96" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A96" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B96" s="15"/>
+      <c r="A96" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B96" s="16"/>
       <c r="C96" s="8"/>
       <c r="D96" s="9"/>
     </row>
     <row r="97" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A97" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="B97" s="15"/>
+      <c r="A97" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" s="16"/>
       <c r="C97" s="8"/>
       <c r="D97" s="9"/>
     </row>
     <row r="98" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A98" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B98" s="15"/>
+      <c r="A98" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B98" s="16"/>
       <c r="C98" s="8"/>
       <c r="D98" s="9"/>
     </row>
     <row r="99" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A99" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="B99" s="15"/>
+      <c r="A99" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B99" s="16"/>
       <c r="C99" s="8"/>
       <c r="D99" s="9"/>
     </row>
     <row r="100" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A100" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="B100" s="15"/>
+      <c r="A100" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B100" s="16"/>
       <c r="C100" s="8"/>
       <c r="D100" s="9"/>
     </row>
     <row r="101" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A101" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="B101" s="15"/>
+      <c r="A101" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" s="16"/>
       <c r="C101" s="8"/>
       <c r="D101" s="9"/>
     </row>
     <row r="102" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A102" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B102" s="15"/>
+      <c r="A102" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" s="16"/>
       <c r="C102" s="8"/>
       <c r="D102" s="9"/>
     </row>
     <row r="103" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A103" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="B103" s="15"/>
+      <c r="A103" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B103" s="16"/>
       <c r="C103" s="8"/>
       <c r="D103" s="9"/>
     </row>
     <row r="104" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A104" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="B104" s="15"/>
+      <c r="A104" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" s="16"/>
       <c r="C104" s="8"/>
       <c r="D104" s="9"/>
     </row>
     <row r="105" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A105" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="B105" s="15"/>
+      <c r="A105" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B105" s="16"/>
       <c r="C105" s="8"/>
       <c r="D105" s="9"/>
     </row>
     <row r="106" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A106" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="B106" s="15"/>
+      <c r="A106" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B106" s="16"/>
       <c r="C106" s="8"/>
       <c r="D106" s="9"/>
     </row>
     <row r="107" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A107" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B107" s="15"/>
+      <c r="A107" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B107" s="16"/>
       <c r="C107" s="8"/>
       <c r="D107" s="9"/>
     </row>
     <row r="108" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A108" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="B108" s="15"/>
+      <c r="A108" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" s="16"/>
       <c r="C108" s="8"/>
       <c r="D108" s="9"/>
     </row>
     <row r="109" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A109" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B109" s="15"/>
+      <c r="A109" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B109" s="16"/>
       <c r="C109" s="8"/>
       <c r="D109" s="9"/>
     </row>
     <row r="110" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A110" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="B110" s="15"/>
+      <c r="A110" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B110" s="16"/>
       <c r="C110" s="8"/>
       <c r="D110" s="9"/>
     </row>
     <row r="111" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A111" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B111" s="15"/>
+      <c r="A111" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B111" s="16"/>
       <c r="C111" s="8"/>
       <c r="D111" s="9"/>
     </row>
     <row r="112" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A112" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B112" s="15"/>
+      <c r="A112" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B112" s="16"/>
       <c r="C112" s="8"/>
       <c r="D112" s="9"/>
     </row>
     <row r="113" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A113" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="B113" s="15"/>
+      <c r="A113" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B113" s="16"/>
       <c r="C113" s="8"/>
       <c r="D113" s="9"/>
     </row>
     <row r="114" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A114" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B114" s="15"/>
+      <c r="A114" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B114" s="16"/>
       <c r="C114" s="8"/>
       <c r="D114" s="9"/>
     </row>
     <row r="115" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A115" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="B115" s="15"/>
+      <c r="A115" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B115" s="16"/>
       <c r="C115" s="8"/>
       <c r="D115" s="9"/>
     </row>
     <row r="116" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A116" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="B116" s="15"/>
+      <c r="A116" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B116" s="16"/>
       <c r="C116" s="8"/>
       <c r="D116" s="9"/>
     </row>
     <row r="117" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A117" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="B117" s="15"/>
+      <c r="A117" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B117" s="16"/>
       <c r="C117" s="8"/>
       <c r="D117" s="9"/>
     </row>
     <row r="118" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A118" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="B118" s="15"/>
+      <c r="A118" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B118" s="16"/>
       <c r="C118" s="8"/>
       <c r="D118" s="9"/>
     </row>
     <row r="119" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A119" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B119" s="15"/>
+      <c r="A119" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B119" s="16"/>
       <c r="C119" s="8"/>
       <c r="D119" s="9"/>
     </row>
     <row r="120" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A120" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="B120" s="15"/>
+      <c r="A120" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B120" s="16"/>
       <c r="C120" s="8"/>
       <c r="D120" s="9"/>
     </row>
     <row r="121" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A121" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="B121" s="15"/>
+      <c r="A121" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" s="16"/>
       <c r="C121" s="8"/>
       <c r="D121" s="9"/>
     </row>
     <row r="122" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A122" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B122" s="15"/>
+      <c r="A122" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B122" s="16"/>
       <c r="C122" s="8"/>
       <c r="D122" s="9"/>
     </row>
     <row r="123" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A123" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B123" s="15"/>
+      <c r="A123" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123" s="16"/>
       <c r="C123" s="8"/>
       <c r="D123" s="9"/>
     </row>
     <row r="124" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A124" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="B124" s="15"/>
+      <c r="A124" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B124" s="16"/>
       <c r="C124" s="8"/>
       <c r="D124" s="9"/>
     </row>
     <row r="125" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A125" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="B125" s="15"/>
+      <c r="A125" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125" s="16"/>
       <c r="C125" s="8"/>
       <c r="D125" s="9"/>
     </row>
     <row r="126" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A126" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="B126" s="15"/>
+      <c r="A126" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" s="16"/>
       <c r="C126" s="8"/>
       <c r="D126" s="9"/>
     </row>
     <row r="127" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A127" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="B127" s="15"/>
+      <c r="A127" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" s="16"/>
       <c r="C127" s="8"/>
       <c r="D127" s="9"/>
     </row>
     <row r="128" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A128" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="B128" s="15"/>
+      <c r="A128" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" s="16"/>
       <c r="C128" s="8"/>
       <c r="D128" s="9"/>
     </row>
     <row r="129" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A129" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="B129" s="15"/>
+      <c r="A129" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B129" s="16"/>
       <c r="C129" s="8"/>
       <c r="D129" s="9"/>
     </row>
     <row r="130" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A130" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="B130" s="15"/>
+      <c r="A130" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B130" s="16"/>
       <c r="C130" s="8"/>
       <c r="D130" s="9"/>
     </row>
     <row r="131" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A131" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="B131" s="15"/>
+      <c r="A131" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B131" s="16"/>
       <c r="C131" s="8"/>
       <c r="D131" s="9"/>
     </row>
     <row r="132" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A132" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="B132" s="15"/>
+      <c r="A132" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B132" s="16"/>
       <c r="C132" s="8"/>
       <c r="D132" s="9"/>
     </row>
     <row r="133" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A133" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="B133" s="15"/>
+      <c r="A133" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" s="16"/>
       <c r="C133" s="8"/>
       <c r="D133" s="9"/>
     </row>
     <row r="134" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A134" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="B134" s="15"/>
+      <c r="A134" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134" s="16"/>
       <c r="C134" s="8"/>
       <c r="D134" s="9"/>
     </row>
     <row r="135" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A135" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="B135" s="15"/>
+      <c r="A135" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B135" s="16"/>
       <c r="C135" s="8"/>
       <c r="D135" s="9"/>
     </row>
     <row r="136" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A136" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="B136" s="15"/>
+      <c r="A136" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B136" s="16"/>
       <c r="C136" s="8"/>
       <c r="D136" s="9"/>
     </row>
     <row r="137" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A137" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="B137" s="15"/>
+      <c r="A137" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B137" s="16"/>
       <c r="C137" s="8"/>
       <c r="D137" s="9"/>
     </row>
     <row r="138" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A138" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="B138" s="15"/>
+      <c r="A138" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B138" s="16"/>
       <c r="C138" s="8"/>
       <c r="D138" s="9"/>
     </row>
     <row r="139" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A139" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="B139" s="15"/>
+      <c r="A139" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B139" s="16"/>
       <c r="C139" s="8"/>
       <c r="D139" s="9"/>
     </row>
     <row r="140" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A140" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="B140" s="15"/>
+      <c r="A140" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B140" s="16"/>
       <c r="C140" s="8"/>
       <c r="D140" s="9"/>
     </row>
     <row r="141" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A141" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="B141" s="15"/>
+      <c r="A141" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B141" s="16"/>
       <c r="C141" s="8"/>
       <c r="D141" s="9"/>
     </row>
     <row r="142" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A142" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="B142" s="15"/>
+      <c r="A142" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B142" s="16"/>
       <c r="C142" s="8"/>
       <c r="D142" s="9"/>
     </row>
     <row r="143" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A143" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="B143" s="15"/>
+      <c r="A143" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B143" s="16"/>
       <c r="C143" s="8"/>
       <c r="D143" s="9"/>
     </row>
     <row r="144" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A144" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="B144" s="15"/>
+      <c r="A144" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B144" s="16"/>
       <c r="C144" s="8"/>
       <c r="D144" s="9"/>
     </row>
     <row r="145" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A145" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="B145" s="15"/>
+      <c r="A145" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B145" s="16"/>
       <c r="C145" s="8"/>
       <c r="D145" s="9"/>
     </row>
     <row r="146" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A146" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="B146" s="15"/>
+      <c r="A146" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B146" s="16"/>
       <c r="C146" s="8"/>
       <c r="D146" s="9"/>
     </row>
     <row r="147" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A147" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="B147" s="15"/>
+      <c r="A147" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147" s="16"/>
       <c r="C147" s="8"/>
       <c r="D147" s="9"/>
     </row>
     <row r="148" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A148" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="B148" s="15"/>
+      <c r="A148" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148" s="16"/>
       <c r="C148" s="8"/>
       <c r="D148" s="9"/>
     </row>
     <row r="149" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A149" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="B149" s="15"/>
+      <c r="A149" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B149" s="16"/>
       <c r="C149" s="8"/>
       <c r="D149" s="9"/>
     </row>
     <row r="150" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A150" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="B150" s="15"/>
+      <c r="A150" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B150" s="16"/>
       <c r="C150" s="8"/>
       <c r="D150" s="9"/>
     </row>
     <row r="151" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A151" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="B151" s="15"/>
+      <c r="A151" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" s="16"/>
       <c r="C151" s="8"/>
       <c r="D151" s="9"/>
     </row>
     <row r="152" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A152" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="B152" s="15"/>
+      <c r="A152" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B152" s="16"/>
       <c r="C152" s="8"/>
       <c r="D152" s="9"/>
     </row>
     <row r="153" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A153" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="B153" s="15"/>
+      <c r="A153" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B153" s="16"/>
       <c r="C153" s="8"/>
       <c r="D153" s="9"/>
     </row>
     <row r="154" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A154" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="B154" s="15"/>
+      <c r="A154" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B154" s="16"/>
       <c r="C154" s="8"/>
       <c r="D154" s="9"/>
     </row>
     <row r="155" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A155" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="B155" s="15"/>
+      <c r="A155" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" s="16"/>
       <c r="C155" s="8"/>
       <c r="D155" s="9"/>
     </row>
     <row r="156" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A156" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B156" s="15"/>
+      <c r="A156" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" s="16"/>
       <c r="C156" s="8"/>
       <c r="D156" s="9"/>
     </row>
     <row r="157" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A157" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="B157" s="15"/>
+      <c r="A157" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B157" s="16"/>
       <c r="C157" s="8"/>
       <c r="D157" s="9"/>
     </row>
     <row r="158" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A158" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="B158" s="15"/>
+      <c r="A158" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158" s="16"/>
       <c r="C158" s="8"/>
       <c r="D158" s="9"/>
     </row>
     <row r="159" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A159" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="B159" s="15"/>
+      <c r="A159" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B159" s="16"/>
       <c r="C159" s="8"/>
       <c r="D159" s="9"/>
     </row>
     <row r="160" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A160" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="B160" s="15"/>
+      <c r="A160" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B160" s="16"/>
       <c r="C160" s="8"/>
       <c r="D160" s="9"/>
     </row>
     <row r="161" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A161" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="B161" s="15"/>
+      <c r="A161" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B161" s="16"/>
       <c r="C161" s="8"/>
       <c r="D161" s="9"/>
     </row>
     <row r="162" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A162" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B162" s="15"/>
+      <c r="A162" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B162" s="16"/>
       <c r="C162" s="8"/>
       <c r="D162" s="9"/>
     </row>
     <row r="163" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A163" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="B163" s="15"/>
+      <c r="A163" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B163" s="16"/>
       <c r="C163" s="8"/>
       <c r="D163" s="9"/>
     </row>
     <row r="164" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A164" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="B164" s="15"/>
+      <c r="A164" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B164" s="16"/>
       <c r="C164" s="8"/>
       <c r="D164" s="9"/>
     </row>
     <row r="165" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A165" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B165" s="15"/>
+      <c r="A165" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B165" s="16"/>
       <c r="C165" s="8"/>
       <c r="D165" s="9"/>
     </row>
     <row r="166" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A166" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="B166" s="15"/>
+      <c r="A166" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B166" s="16"/>
       <c r="C166" s="8"/>
       <c r="D166" s="9"/>
     </row>
     <row r="167" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A167" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="B167" s="15"/>
+      <c r="A167" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B167" s="16"/>
       <c r="C167" s="8"/>
       <c r="D167" s="9"/>
     </row>
     <row r="168" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A168" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B168" s="15"/>
+      <c r="A168" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B168" s="16"/>
       <c r="C168" s="8"/>
       <c r="D168" s="9"/>
     </row>
     <row r="169" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A169" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="B169" s="15"/>
+      <c r="A169" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B169" s="16"/>
       <c r="C169" s="8"/>
       <c r="D169" s="9"/>
     </row>
     <row r="170" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A170" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="B170" s="15"/>
+      <c r="A170" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B170" s="16"/>
       <c r="C170" s="8"/>
       <c r="D170" s="9"/>
     </row>
     <row r="171" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A171" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="B171" s="15"/>
+      <c r="A171" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B171" s="16"/>
       <c r="C171" s="8"/>
       <c r="D171" s="9"/>
     </row>
     <row r="172" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A172" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B172" s="15"/>
+      <c r="A172" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B172" s="16"/>
       <c r="C172" s="8"/>
       <c r="D172" s="9"/>
     </row>
     <row r="173" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A173" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="B173" s="15"/>
+      <c r="A173" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B173" s="16"/>
       <c r="C173" s="8"/>
       <c r="D173" s="9"/>
     </row>
     <row r="174" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A174" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="B174" s="15"/>
+      <c r="A174" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B174" s="16"/>
       <c r="C174" s="8"/>
       <c r="D174" s="9"/>
     </row>
     <row r="175" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A175" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="B175" s="15"/>
+      <c r="A175" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B175" s="16"/>
       <c r="C175" s="8"/>
       <c r="D175" s="9"/>
     </row>
     <row r="176" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A176" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B176" s="15"/>
+      <c r="A176" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B176" s="16"/>
       <c r="C176" s="8"/>
       <c r="D176" s="9"/>
     </row>
     <row r="177" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A177" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="B177" s="15"/>
+      <c r="A177" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B177" s="16"/>
       <c r="C177" s="8"/>
       <c r="D177" s="9"/>
     </row>
     <row r="178" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A178" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="B178" s="15"/>
+      <c r="A178" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B178" s="16"/>
       <c r="C178" s="8"/>
       <c r="D178" s="9"/>
     </row>
     <row r="179" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A179" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="B179" s="15"/>
+      <c r="A179" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B179" s="16"/>
       <c r="C179" s="8"/>
       <c r="D179" s="9"/>
     </row>
     <row r="180" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A180" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="B180" s="15"/>
+      <c r="A180" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B180" s="16"/>
       <c r="C180" s="8"/>
       <c r="D180" s="9"/>
     </row>
     <row r="181" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A181" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="B181" s="15"/>
+      <c r="A181" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B181" s="16"/>
       <c r="C181" s="8"/>
       <c r="D181" s="9"/>
     </row>
@@ -11248,62 +11222,95 @@
     </row>
   </sheetData>
   <mergeCells count="180">
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
@@ -11328,106 +11335,73 @@
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A170:B170"/>
     <mergeCell ref="A171:B171"/>
     <mergeCell ref="A168:B168"/>
     <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
     <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
     <mergeCell ref="A140:B140"/>
     <mergeCell ref="A161:B161"/>
     <mergeCell ref="A156:B156"/>
     <mergeCell ref="A157:B157"/>
     <mergeCell ref="A158:B158"/>
     <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A87:B87"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
